--- a/builder/src/main/resources/eo.xlsx
+++ b/builder/src/main/resources/eo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werner.diwischek/dev/elasticobjects/builder/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD37945-4F35-3F4C-B078-91CE599614AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E676744-287C-7B45-8992-D46B59134C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" activeTab="2" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" activeTab="4" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="DbSqlConfig" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DbSqlConfig!$A$1:$J$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FieldConfig!$A$1:$I$122</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FileConfig!$A$1:$M$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelConfig!$A$1:$L$108</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="707">
   <si>
     <t>naturalId</t>
   </si>
@@ -2238,6 +2239,9 @@
   </si>
   <si>
     <t>faq</t>
+  </si>
+  <si>
+    <t>elastic-objects-test</t>
   </si>
 </sst>
 </file>
@@ -2623,13 +2627,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2949A4-7E1C-7F4B-A1BC-11445B521B01}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2694,7 +2699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>169</v>
       </c>
@@ -2727,8 +2732,8 @@
       <c r="A3" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
+      <c r="C3" t="s">
+        <v>706</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -2755,7 +2760,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
@@ -2781,7 +2786,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="177" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="177" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>174</v>
       </c>
@@ -2814,8 +2819,8 @@
       <c r="A6" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
+      <c r="C6" t="s">
+        <v>706</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -2842,7 +2847,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2868,7 +2873,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>177</v>
       </c>
@@ -2900,7 +2905,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="372" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="372" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>180</v>
       </c>
@@ -2935,7 +2940,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>182</v>
       </c>
@@ -2970,7 +2975,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>184</v>
       </c>
@@ -2999,7 +3004,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>185</v>
       </c>
@@ -3028,7 +3033,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>188</v>
       </c>
@@ -3063,7 +3068,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>290</v>
       </c>
@@ -3098,7 +3103,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>191</v>
       </c>
@@ -3133,7 +3138,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="255" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="255" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>195</v>
       </c>
@@ -3171,7 +3176,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>194</v>
       </c>
@@ -3206,7 +3211,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>628</v>
       </c>
@@ -3239,7 +3244,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>198</v>
       </c>
@@ -3274,7 +3279,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>200</v>
       </c>
@@ -3303,7 +3308,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>202</v>
       </c>
@@ -3335,7 +3340,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>204</v>
       </c>
@@ -3367,7 +3372,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>462</v>
       </c>
@@ -3405,7 +3410,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>463</v>
       </c>
@@ -3437,7 +3442,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>467</v>
       </c>
@@ -3469,7 +3474,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -3495,7 +3500,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>293</v>
       </c>
@@ -3530,7 +3535,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>297</v>
       </c>
@@ -3562,7 +3567,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>299</v>
       </c>
@@ -3597,7 +3602,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>301</v>
       </c>
@@ -3629,7 +3634,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>303</v>
       </c>
@@ -3664,7 +3669,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>305</v>
       </c>
@@ -3696,7 +3701,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>635</v>
       </c>
@@ -3729,7 +3734,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>633</v>
       </c>
@@ -3765,7 +3770,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>691</v>
       </c>
@@ -3798,7 +3803,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>154</v>
       </c>
@@ -3824,7 +3829,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>206</v>
       </c>
@@ -3856,7 +3861,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>208</v>
       </c>
@@ -3885,7 +3890,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
@@ -3917,7 +3922,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>211</v>
       </c>
@@ -3952,7 +3957,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>213</v>
       </c>
@@ -3987,7 +3992,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>215</v>
       </c>
@@ -4019,7 +4024,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>217</v>
       </c>
@@ -4054,7 +4059,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>155</v>
       </c>
@@ -4080,7 +4085,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>629</v>
       </c>
@@ -4116,7 +4121,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>40</v>
       </c>
@@ -4145,7 +4150,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>219</v>
       </c>
@@ -4177,7 +4182,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>83</v>
       </c>
@@ -4203,7 +4208,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>221</v>
       </c>
@@ -4235,7 +4240,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>225</v>
       </c>
@@ -4270,7 +4275,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
@@ -4296,7 +4301,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4328,7 +4333,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>230</v>
       </c>
@@ -4360,7 +4365,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>232</v>
       </c>
@@ -4389,7 +4394,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>233</v>
       </c>
@@ -4418,7 +4423,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>234</v>
       </c>
@@ -4447,7 +4452,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>427</v>
       </c>
@@ -4479,7 +4484,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>99</v>
       </c>
@@ -4511,7 +4516,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>238</v>
       </c>
@@ -4549,7 +4554,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>468</v>
       </c>
@@ -4584,7 +4589,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>102</v>
       </c>
@@ -4610,7 +4615,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>47</v>
       </c>
@@ -4636,7 +4641,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>239</v>
       </c>
@@ -4659,7 +4664,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>686</v>
       </c>
@@ -4692,7 +4697,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>241</v>
       </c>
@@ -4727,7 +4732,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>243</v>
       </c>
@@ -4759,7 +4764,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>245</v>
       </c>
@@ -4791,7 +4796,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>247</v>
       </c>
@@ -4823,7 +4828,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>249</v>
       </c>
@@ -4855,7 +4860,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>251</v>
       </c>
@@ -4887,7 +4892,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>253</v>
       </c>
@@ -4919,7 +4924,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>685</v>
       </c>
@@ -4952,7 +4957,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>682</v>
       </c>
@@ -4988,7 +4993,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>255</v>
       </c>
@@ -5020,7 +5025,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>156</v>
       </c>
@@ -5049,7 +5054,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>66</v>
       </c>
@@ -5078,7 +5083,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>258</v>
       </c>
@@ -5110,7 +5115,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>260</v>
       </c>
@@ -5142,7 +5147,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>514</v>
       </c>
@@ -5178,7 +5183,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>513</v>
       </c>
@@ -5210,7 +5215,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>512</v>
       </c>
@@ -5242,7 +5247,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>547</v>
       </c>
@@ -5280,7 +5285,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>549</v>
       </c>
@@ -5316,7 +5321,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>133</v>
       </c>
@@ -5348,7 +5353,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>263</v>
       </c>
@@ -5380,7 +5385,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>265</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>267</v>
       </c>
@@ -5450,7 +5455,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>269</v>
       </c>
@@ -5479,7 +5484,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>147</v>
       </c>
@@ -5511,7 +5516,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>271</v>
       </c>
@@ -5540,7 +5545,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>224</v>
       </c>
@@ -5572,7 +5577,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>273</v>
       </c>
@@ -5604,7 +5609,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>16</v>
       </c>
@@ -5630,7 +5635,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>275</v>
       </c>
@@ -5659,7 +5664,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>276</v>
       </c>
@@ -5688,7 +5693,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>277</v>
       </c>
@@ -5720,7 +5725,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>279</v>
       </c>
@@ -5755,7 +5760,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="125" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>562</v>
       </c>
@@ -5787,7 +5792,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>577</v>
       </c>
@@ -5819,7 +5824,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>281</v>
       </c>
@@ -5851,7 +5856,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>283</v>
       </c>
@@ -5883,7 +5888,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>284</v>
       </c>
@@ -5918,7 +5923,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>286</v>
       </c>
@@ -5956,7 +5961,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>551</v>
       </c>
@@ -5994,7 +5999,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>312</v>
       </c>
@@ -6030,7 +6035,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="118" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>288</v>
       </c>
@@ -6065,7 +6070,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>315</v>
       </c>
@@ -6103,7 +6108,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>318</v>
       </c>
@@ -6136,7 +6141,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L108" xr:uid="{54A0279D-8AE7-C14E-B9E3-5E0BAE0A3850}"/>
+  <autoFilter ref="A1:L108" xr:uid="{54A0279D-8AE7-C14E-B9E3-5E0BAE0A3850}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="eo-test"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:N108">
     <sortCondition ref="A2:A108"/>
   </sortState>
@@ -6147,6 +6158,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B963DEC-06FA-0F4E-B89A-363FE5F4C7EE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6154,7 +6166,7 @@
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B99" sqref="B99:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6201,7 +6213,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="86" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -6228,7 +6240,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="104" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -6263,7 +6275,7 @@
         <v>599</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -6286,7 +6298,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -6313,7 +6325,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>487</v>
       </c>
@@ -6343,7 +6355,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -6370,7 +6382,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -6400,7 +6412,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -6430,7 +6442,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -6460,7 +6472,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>405</v>
       </c>
@@ -6490,7 +6502,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -6520,7 +6532,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -6550,7 +6562,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -6580,7 +6592,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -6607,7 +6619,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>320</v>
       </c>
@@ -6634,7 +6646,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>322</v>
       </c>
@@ -6664,7 +6676,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>324</v>
       </c>
@@ -6691,7 +6703,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -6722,7 +6734,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -6752,7 +6764,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -6782,7 +6794,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>649</v>
       </c>
@@ -6812,7 +6824,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>326</v>
       </c>
@@ -6843,7 +6855,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -6870,7 +6882,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>559</v>
       </c>
@@ -6900,7 +6912,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -6928,7 +6940,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -6958,7 +6970,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -6986,7 +6998,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>327</v>
       </c>
@@ -7016,7 +7028,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -7046,7 +7058,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -7077,7 +7089,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -7104,7 +7116,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -7134,7 +7146,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -7164,7 +7176,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -7195,7 +7207,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -7226,7 +7238,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -7256,7 +7268,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -7286,7 +7298,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -7316,7 +7328,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>329</v>
       </c>
@@ -7346,7 +7358,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -7377,7 +7389,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -7404,7 +7416,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -7434,7 +7446,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -7464,7 +7476,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -7491,7 +7503,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -7521,7 +7533,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -7548,7 +7560,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -7578,7 +7590,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -7609,7 +7621,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>478</v>
       </c>
@@ -7636,7 +7648,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>331</v>
       </c>
@@ -7667,7 +7679,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -7698,7 +7710,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -7728,7 +7740,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -7756,7 +7768,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -7787,7 +7799,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -7815,7 +7827,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -7846,7 +7858,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>679</v>
       </c>
@@ -7877,7 +7889,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -7904,7 +7916,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -7933,7 +7945,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -7964,7 +7976,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -7994,7 +8006,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>107</v>
       </c>
@@ -8025,7 +8037,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -8055,7 +8067,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -8082,7 +8094,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -8112,7 +8124,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -8142,7 +8154,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>490</v>
       </c>
@@ -8172,7 +8184,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>114</v>
       </c>
@@ -8202,7 +8214,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -8229,7 +8241,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>117</v>
       </c>
@@ -8257,7 +8269,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -8285,7 +8297,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -8313,7 +8325,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -8343,7 +8355,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -8374,7 +8386,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -8404,7 +8416,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -8434,7 +8446,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -8463,7 +8475,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>676</v>
       </c>
@@ -8494,7 +8506,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>675</v>
       </c>
@@ -8525,7 +8537,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>489</v>
       </c>
@@ -8552,7 +8564,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>128</v>
       </c>
@@ -8583,7 +8595,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>129</v>
       </c>
@@ -8613,7 +8625,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -8644,7 +8656,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>132</v>
       </c>
@@ -8672,7 +8684,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -8702,7 +8714,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>136</v>
       </c>
@@ -8730,7 +8742,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>137</v>
       </c>
@@ -8758,7 +8770,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>138</v>
       </c>
@@ -8786,7 +8798,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>333</v>
       </c>
@@ -8816,7 +8828,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -8843,7 +8855,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>141</v>
       </c>
@@ -8870,7 +8882,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>144</v>
       </c>
@@ -8900,7 +8912,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>146</v>
       </c>
@@ -8928,7 +8940,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>335</v>
       </c>
@@ -8958,7 +8970,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>148</v>
       </c>
@@ -8988,7 +9000,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>337</v>
       </c>
@@ -9019,7 +9031,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>338</v>
       </c>
@@ -9051,7 +9063,7 @@
         <v>584</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -9079,8 +9091,8 @@
       <c r="A100" t="s">
         <v>585</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>18</v>
+      <c r="B100" t="s">
+        <v>706</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
@@ -9108,7 +9120,7 @@
         <v>586</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -9131,7 +9143,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>149</v>
       </c>
@@ -9161,7 +9173,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -9191,7 +9203,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>557</v>
       </c>
@@ -9221,7 +9233,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>153</v>
       </c>
@@ -9256,7 +9268,7 @@
         <v>587</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
@@ -9285,7 +9297,7 @@
         <v>588</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -9314,7 +9326,7 @@
         <v>589</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
@@ -9343,7 +9355,7 @@
         <v>590</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
@@ -9372,7 +9384,7 @@
         <v>591</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="C110" t="s">
         <v>12</v>
@@ -9400,7 +9412,7 @@
         <v>592</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
@@ -9429,7 +9441,7 @@
         <v>593</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="C112" t="s">
         <v>12</v>
@@ -9457,7 +9469,7 @@
         <v>594</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
@@ -9483,7 +9495,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>159</v>
       </c>
@@ -9514,7 +9526,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>160</v>
       </c>
@@ -9547,7 +9559,7 @@
         <v>595</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="C116" t="s">
         <v>12</v>
@@ -9576,7 +9588,7 @@
         <v>596</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
@@ -9599,7 +9611,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>161</v>
       </c>
@@ -9625,7 +9637,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>164</v>
       </c>
@@ -9655,7 +9667,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>56</v>
       </c>
@@ -9685,7 +9697,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>165</v>
       </c>
@@ -9714,7 +9726,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>167</v>
       </c>
@@ -10351,7 +10363,13 @@
       <c r="D941" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I122" xr:uid="{D69F739B-BFAA-8744-89E3-48A1C7C59643}"/>
+  <autoFilter ref="A1:I122" xr:uid="{D69F739B-BFAA-8744-89E3-48A1C7C59643}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="eo-test"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:J122">
     <sortCondition ref="A2:A122"/>
   </sortState>
@@ -10364,12 +10382,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="H64" sqref="H64"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10497,7 +10515,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>613</v>
       </c>
@@ -10535,7 +10553,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>615</v>
       </c>
@@ -10605,7 +10623,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>619</v>
       </c>
@@ -10808,7 +10826,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>376</v>
       </c>
@@ -10843,7 +10861,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>697</v>
       </c>
@@ -10878,7 +10896,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>378</v>
       </c>
@@ -10913,7 +10931,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>380</v>
       </c>
@@ -10948,7 +10966,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>544</v>
       </c>
@@ -10986,7 +11004,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>563</v>
       </c>
@@ -11024,7 +11042,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>442</v>
       </c>
@@ -11056,7 +11074,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>443</v>
       </c>
@@ -11088,7 +11106,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>434</v>
       </c>
@@ -11120,7 +11138,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>432</v>
       </c>
@@ -11152,7 +11170,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>428</v>
       </c>
@@ -11184,7 +11202,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>448</v>
       </c>
@@ -11216,7 +11234,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>436</v>
       </c>
@@ -11248,7 +11266,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>440</v>
       </c>
@@ -11280,7 +11298,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>382</v>
       </c>
@@ -11558,7 +11576,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>384</v>
       </c>
@@ -11593,7 +11611,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>701</v>
       </c>
@@ -11628,7 +11646,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>347</v>
       </c>
@@ -11663,7 +11681,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>351</v>
       </c>
@@ -11695,7 +11713,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>702</v>
       </c>
@@ -11730,7 +11748,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>569</v>
       </c>
@@ -11765,7 +11783,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>570</v>
       </c>
@@ -11896,7 +11914,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>390</v>
       </c>
@@ -11931,7 +11949,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>354</v>
       </c>
@@ -11969,7 +11987,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>450</v>
       </c>
@@ -12042,7 +12060,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>393</v>
       </c>
@@ -12077,7 +12095,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>552</v>
       </c>
@@ -12112,7 +12130,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>572</v>
       </c>
@@ -12147,7 +12165,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>573</v>
       </c>
@@ -12182,7 +12200,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>356</v>
       </c>
@@ -12217,7 +12235,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>359</v>
       </c>
@@ -12252,7 +12270,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>361</v>
       </c>
@@ -12287,15 +12305,15 @@
         <v>497</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>364</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>18</v>
+      <c r="C56" t="s">
+        <v>706</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>366</v>
@@ -12325,12 +12343,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>18</v>
+      <c r="C57" t="s">
+        <v>706</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>366</v>
@@ -12357,12 +12375,12 @@
         <v>498</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>18</v>
+      <c r="C58" t="s">
+        <v>706</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>366</v>
@@ -12427,7 +12445,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>19</v>
       </c>
@@ -12465,7 +12483,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>644</v>
       </c>
@@ -12503,7 +12521,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>640</v>
       </c>
@@ -12541,7 +12559,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>639</v>
       </c>
@@ -12579,7 +12597,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>705</v>
       </c>
@@ -12617,7 +12635,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>672</v>
       </c>
@@ -12655,7 +12673,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>370</v>
       </c>
@@ -12720,12 +12738,12 @@
         <v>497</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>18</v>
+      <c r="C68" t="s">
+        <v>706</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>366</v>
@@ -12759,7 +12777,7 @@
   <autoFilter ref="A1:M68" xr:uid="{3FE138CF-10D9-634A-87B2-6326254281CF}">
     <filterColumn colId="2">
       <filters>
-        <filter val="example-springboot"/>
+        <filter val="eo-test"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -12914,11 +12932,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420FD413-96A0-5F4E-9C1C-71614BF4B061}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13066,6 +13084,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J5" xr:uid="{0C8B901F-485F-0747-B42C-E0000485C350}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/builder/src/main/resources/eo.xlsx
+++ b/builder/src/main/resources/eo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werner.diwischek/dev/elasticobjects/builder/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7CFA1C-1F67-E541-82F6-6C421F392567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE25995A-399C-A14C-AFA7-36219CBE01EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" activeTab="4" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DbSqlConfig!$A$1:$J$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FieldConfig!$A$1:$I$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FileConfig!$A$1:$M$69</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelConfig!$A$1:$N$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelConfig!$A$1:$N$108</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="717">
   <si>
     <t>naturalId</t>
   </si>
@@ -833,9 +833,6 @@
   </si>
   <si>
     <t>ScsConfig</t>
-  </si>
-  <si>
-    <t>Immutable EO configuration for simple comma separated files will be initalized by internal builder using map values.</t>
   </si>
   <si>
     <t>ScsReadCall</t>
@@ -1433,9 +1430,6 @@
     <t xml:space="preserve">Defines read call for a csv action depending on one link CsvConfig. </t>
   </si>
   <si>
-    <t>Defines the configuration for a csv content stored in a final config object delivered by the file config cache."</t>
-  </si>
-  <si>
     <t>Defines default access values for ListParams</t>
   </si>
   <si>
@@ -1446,9 +1440,6 @@
   </si>
   <si>
     <t>["listParams"]</t>
-  </si>
-  <si>
-    <t>[ "fieldDelimiter",  "rowDelimiter"]</t>
   </si>
   <si>
     <t>["port","protocol","hostName","user","password","configModelKey"]</t>
@@ -1581,9 +1572,6 @@
   </si>
   <si>
     <t>[  "fieldKey",  "modelKeys",   "modelList"]</t>
-  </si>
-  <si>
-    <t>PropertiesListAccessor</t>
   </si>
   <si>
     <t>PropertiesConfigAccessor</t>
@@ -2282,6 +2270,9 @@
   </si>
   <si>
     <t>configs</t>
+  </si>
+  <si>
+    <t>Immutable EO configuration for simple csv files will be initalized by internal builder using map values.</t>
   </si>
 </sst>
 </file>
@@ -2667,13 +2658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2949A4-7E1C-7F4B-A1BC-11445B521B01}">
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2699,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>57</v>
@@ -2732,7 +2723,7 @@
         <v>107</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>15</v>
@@ -2761,7 +2752,7 @@
         <v>169</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>172</v>
@@ -2769,31 +2760,31 @@
     </row>
     <row r="3" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>172</v>
@@ -2807,7 +2798,7 @@
         <v>243</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -2822,7 +2813,7 @@
         <v>50</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="177" customHeight="1" x14ac:dyDescent="0.2">
@@ -2848,7 +2839,7 @@
         <v>174</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>175</v>
@@ -2856,31 +2847,31 @@
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C6" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>172</v>
@@ -2888,7 +2879,7 @@
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2897,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>13</v>
@@ -2906,14 +2897,14 @@
         <v>240</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>A7</f>
         <v>Base</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>172</v>
@@ -2921,7 +2912,7 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2930,7 +2921,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>13</v>
@@ -2939,14 +2930,14 @@
         <v>254</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>A8</f>
         <v>BaseImpl</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>172</v>
@@ -2960,7 +2951,7 @@
         <v>251</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -2975,7 +2966,7 @@
         <v>21</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2989,7 +2980,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>13</v>
@@ -3004,7 +2995,7 @@
         <v>177</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>172</v>
@@ -3021,13 +3012,13 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>177</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>13</v>
@@ -3042,7 +3033,7 @@
         <v>180</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>172</v>
@@ -3059,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>180</v>
@@ -3077,7 +3068,7 @@
         <v>182</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>172</v>
@@ -3106,7 +3097,7 @@
         <v>184</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>175</v>
@@ -3135,7 +3126,7 @@
         <v>185</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>172</v>
@@ -3152,10 +3143,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>13</v>
@@ -3170,7 +3161,7 @@
         <v>188</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>172</v>
@@ -3178,7 +3169,7 @@
     </row>
     <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -3187,7 +3178,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>180</v>
@@ -3196,16 +3187,16 @@
         <v>19</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>192</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>172</v>
@@ -3222,7 +3213,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>194</v>
@@ -3240,7 +3231,7 @@
         <v>191</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>172</v>
@@ -3257,13 +3248,13 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>13</v>
@@ -3278,7 +3269,7 @@
         <v>195</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>172</v>
@@ -3295,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>180</v>
@@ -3313,7 +3304,7 @@
         <v>194</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>172</v>
@@ -3321,22 +3312,22 @@
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>222</v>
@@ -3346,7 +3337,7 @@
         <v>ConfigLinkCall</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>172</v>
@@ -3363,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>180</v>
@@ -3381,7 +3372,7 @@
         <v>198</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>172</v>
@@ -3398,7 +3389,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>13</v>
@@ -3413,7 +3404,7 @@
         <v>200</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -3445,7 +3436,7 @@
         <v>202</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3474,7 +3465,7 @@
         <v>204</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>172</v>
@@ -3482,19 +3473,16 @@
     </row>
     <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>213</v>
@@ -3503,16 +3491,16 @@
         <v>13</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>465</v>
+        <v>716</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>172</v>
@@ -3520,10 +3508,10 @@
     </row>
     <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
@@ -3535,16 +3523,16 @@
         <v>13</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>172</v>
@@ -3552,31 +3540,31 @@
     </row>
     <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="I27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="K27" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="M27" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>172</v>
@@ -3590,7 +3578,7 @@
         <v>251</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>12</v>
@@ -3605,21 +3593,21 @@
         <v>38</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>219</v>
@@ -3628,16 +3616,16 @@
         <v>13</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>172</v>
@@ -3645,10 +3633,10 @@
     </row>
     <row r="30" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>12</v>
@@ -3660,16 +3648,16 @@
         <v>13</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K30" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="M30" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>172</v>
@@ -3677,16 +3665,16 @@
     </row>
     <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>202</v>
@@ -3695,16 +3683,16 @@
         <v>13</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>172</v>
@@ -3712,10 +3700,10 @@
     </row>
     <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>12</v>
@@ -3727,16 +3715,16 @@
         <v>13</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>172</v>
@@ -3744,16 +3732,16 @@
     </row>
     <row r="33" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>202</v>
@@ -3762,16 +3750,16 @@
         <v>13</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>172</v>
@@ -3779,13 +3767,13 @@
     </row>
     <row r="34" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>12</v>
@@ -3794,16 +3782,16 @@
         <v>13</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>172</v>
@@ -3811,7 +3799,7 @@
     </row>
     <row r="35" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
@@ -3826,7 +3814,7 @@
         <v>13</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>214</v>
@@ -3836,7 +3824,7 @@
         <v>DirectoryConfig</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>172</v>
@@ -3844,7 +3832,7 @@
     </row>
     <row r="36" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
@@ -3859,7 +3847,7 @@
         <v>19</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>214</v>
@@ -3869,7 +3857,7 @@
         <v>DirectoryListReadCall</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>172</v>
@@ -3877,7 +3865,7 @@
     </row>
     <row r="37" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
@@ -3886,16 +3874,16 @@
         <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>214</v>
@@ -3905,7 +3893,7 @@
         <v>DirectoryMapReadCall</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>172</v>
@@ -3913,7 +3901,7 @@
     </row>
     <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
@@ -3922,7 +3910,7 @@
         <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>215</v>
@@ -3931,7 +3919,7 @@
         <v>19</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>214</v>
@@ -3941,7 +3929,7 @@
         <v>DirectoryReadCall</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>172</v>
@@ -3955,7 +3943,7 @@
         <v>251</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>12</v>
@@ -3970,7 +3958,7 @@
         <v>154</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3999,7 +3987,7 @@
         <v>206</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>172</v>
@@ -4028,7 +4016,7 @@
         <v>208</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>172</v>
@@ -4060,7 +4048,7 @@
         <v>53</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>172</v>
@@ -4077,7 +4065,7 @@
         <v>12</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>195</v>
@@ -4095,7 +4083,7 @@
         <v>211</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>172</v>
@@ -4112,7 +4100,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>202</v>
@@ -4121,7 +4109,7 @@
         <v>13</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>214</v>
@@ -4130,7 +4118,7 @@
         <v>213</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>172</v>
@@ -4162,7 +4150,7 @@
         <v>215</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>172</v>
@@ -4179,7 +4167,7 @@
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>182</v>
@@ -4197,7 +4185,7 @@
         <v>217</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>172</v>
@@ -4211,7 +4199,7 @@
         <v>251</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>12</v>
@@ -4226,21 +4214,21 @@
         <v>155</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>180</v>
@@ -4249,17 +4237,17 @@
         <v>43</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="L48" s="2" t="str">
         <f>A48</f>
         <v>GenerateCall</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>172</v>
@@ -4267,35 +4255,35 @@
     </row>
     <row r="49" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="L49" s="2" t="str">
         <f>A49</f>
         <v>GenerateJavaCall</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>172</v>
@@ -4303,35 +4291,35 @@
     </row>
     <row r="50" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="L50" s="2" t="str">
         <f>A50</f>
         <v>GenerateJsonCall</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>172</v>
@@ -4339,16 +4327,16 @@
     </row>
     <row r="51" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>224</v>
@@ -4357,7 +4345,7 @@
         <v>13</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>222</v>
@@ -4367,7 +4355,7 @@
         <v>GithubLinkCall</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>172</v>
@@ -4396,7 +4384,7 @@
         <v>40</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>175</v>
@@ -4413,7 +4401,7 @@
         <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>202</v>
@@ -4431,7 +4419,7 @@
         <v>219</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4442,7 +4430,7 @@
         <v>251</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>12</v>
@@ -4457,7 +4445,7 @@
         <v>83</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -4486,7 +4474,7 @@
         <v>221</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>172</v>
@@ -4518,7 +4506,7 @@
         <v>225</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>172</v>
@@ -4532,7 +4520,7 @@
         <v>251</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>12</v>
@@ -4547,7 +4535,7 @@
         <v>142</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -4576,7 +4564,7 @@
         <v>94</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>172</v>
@@ -4608,7 +4596,7 @@
         <v>230</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>172</v>
@@ -4622,7 +4610,7 @@
         <v>245</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>12</v>
@@ -4637,7 +4625,7 @@
         <v>232</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>175</v>
@@ -4666,7 +4654,7 @@
         <v>233</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>175</v>
@@ -4680,7 +4668,7 @@
         <v>243</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>12</v>
@@ -4695,7 +4683,7 @@
         <v>234</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>175</v>
@@ -4703,7 +4691,7 @@
     </row>
     <row r="63" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
@@ -4712,22 +4700,22 @@
         <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>235</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>172</v>
@@ -4744,7 +4732,7 @@
         <v>12</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>13</v>
@@ -4759,7 +4747,7 @@
         <v>99</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>172</v>
@@ -4776,10 +4764,10 @@
         <v>12</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>182</v>
@@ -4788,7 +4776,7 @@
         <v>13</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>235</v>
@@ -4797,7 +4785,7 @@
         <v>238</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>172</v>
@@ -4805,7 +4793,7 @@
     </row>
     <row r="66" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
@@ -4814,7 +4802,7 @@
         <v>12</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>182</v>
@@ -4829,10 +4817,10 @@
         <v>235</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>172</v>
@@ -4846,7 +4834,7 @@
         <v>251</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>12</v>
@@ -4861,7 +4849,7 @@
         <v>102</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4872,7 +4860,7 @@
         <v>251</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>12</v>
@@ -4887,7 +4875,7 @@
         <v>47</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -4895,7 +4883,7 @@
         <v>239</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>12</v>
@@ -4910,7 +4898,7 @@
         <v>239</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4924,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>195</v>
@@ -4942,7 +4930,7 @@
         <v>241</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>172</v>
@@ -4950,7 +4938,7 @@
     </row>
     <row r="71" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>11</v>
@@ -4959,7 +4947,7 @@
         <v>12</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>188</v>
@@ -4978,7 +4966,7 @@
         <v>ModelConfigInterface</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>172</v>
@@ -5010,7 +4998,7 @@
         <v>243</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>172</v>
@@ -5042,7 +5030,7 @@
         <v>245</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>172</v>
@@ -5074,7 +5062,7 @@
         <v>247</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>172</v>
@@ -5106,7 +5094,7 @@
         <v>249</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>172</v>
@@ -5138,7 +5126,7 @@
         <v>251</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>172</v>
@@ -5170,7 +5158,7 @@
         <v>253</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>172</v>
@@ -5199,7 +5187,7 @@
         <v>255</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>172</v>
@@ -5228,7 +5216,7 @@
         <v>156</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>175</v>
@@ -5257,7 +5245,7 @@
         <v>66</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>172</v>
@@ -5286,7 +5274,7 @@
         <v>258</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>172</v>
@@ -5303,7 +5291,7 @@
         <v>12</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>43</v>
@@ -5318,7 +5306,7 @@
         <v>260</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>172</v>
@@ -5326,7 +5314,7 @@
     </row>
     <row r="83" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
@@ -5336,7 +5324,7 @@
         <v>12</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -5345,16 +5333,16 @@
         <v>13</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>189</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N83" s="5" t="s">
         <v>172</v>
@@ -5362,7 +5350,7 @@
     </row>
     <row r="84" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>11</v>
@@ -5371,22 +5359,22 @@
         <v>12</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>189</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>172</v>
@@ -5394,7 +5382,7 @@
     </row>
     <row r="85" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>506</v>
+        <v>133</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>11</v>
@@ -5402,66 +5390,63 @@
       <c r="D85" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>507</v>
+      <c r="E85" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>467</v>
+        <v>262</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>506</v>
+        <v>133</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>263</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>133</v>
+        <v>263</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>11</v>
@@ -5469,28 +5454,34 @@
       <c r="D87" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G87" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="I87" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
@@ -5498,37 +5489,28 @@
       <c r="D88" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="I88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>266</v>
+        <v>43</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>267</v>
+        <v>147</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>11</v>
@@ -5536,34 +5518,31 @@
       <c r="D89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="I89" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>267</v>
+        <v>147</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>11</v>
@@ -5575,13 +5554,13 @@
         <v>43</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>175</v>
@@ -5589,10 +5568,7 @@
     </row>
     <row r="91" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>11</v>
@@ -5600,127 +5576,124 @@
       <c r="D91" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G91" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I91" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B92" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="K93" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="L92" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="N92" s="2" t="s">
+      <c r="L93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>417</v>
+        <v>11</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>12</v>
@@ -5732,47 +5705,50 @@
         <v>176</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="M95" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M96" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="N96" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>11</v>
@@ -5780,25 +5756,34 @@
       <c r="D97" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E97" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="I97" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>277</v>
+        <v>548</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>11</v>
@@ -5813,33 +5798,30 @@
         <v>19</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>278</v>
+        <v>547</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>222</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>277</v>
+        <v>548</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>279</v>
+        <v>555</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>224</v>
@@ -5848,24 +5830,24 @@
         <v>19</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>280</v>
+        <v>547</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>222</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>279</v>
+        <v>555</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>552</v>
+        <v>280</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
@@ -5880,16 +5862,16 @@
         <v>19</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>551</v>
+        <v>281</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>222</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>552</v>
+        <v>280</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>172</v>
@@ -5897,7 +5879,7 @@
     </row>
     <row r="101" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>559</v>
+        <v>282</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>11</v>
@@ -5912,16 +5894,16 @@
         <v>19</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>551</v>
+        <v>281</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>222</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>559</v>
+        <v>282</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>172</v>
@@ -5929,7 +5911,7 @@
     </row>
     <row r="102" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
@@ -5937,23 +5919,26 @@
       <c r="D102" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E102" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="G102" s="2" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>172</v>
@@ -5961,31 +5946,34 @@
     </row>
     <row r="103" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>282</v>
+        <v>621</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>172</v>
@@ -5993,7 +5981,7 @@
     </row>
     <row r="104" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>284</v>
+        <v>537</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
@@ -6002,25 +5990,25 @@
         <v>12</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>413</v>
+        <v>542</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>228</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>284</v>
+        <v>537</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>172</v>
@@ -6028,42 +6016,43 @@
     </row>
     <row r="105" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>679</v>
+        <v>413</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>625</v>
+        <v>311</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>286</v>
+        <v>222</v>
+      </c>
+      <c r="L105" s="2" t="str">
+        <f>A105</f>
+        <v>TheGreetingCall</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>541</v>
+        <v>287</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
@@ -6072,179 +6061,105 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>546</v>
+        <v>414</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>286</v>
+        <v>180</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J106" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L106" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="M106" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>311</v>
+        <v>446</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J107" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L107" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K107" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L107" s="2" t="str">
-        <f>A107</f>
-        <v>TheGreetingCall</v>
-      </c>
       <c r="M107" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>446</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="G108" s="2" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="N110" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N110" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
-    <sortState ref="A2:N110">
-      <sortCondition ref="A2:A110"/>
+  <autoFilter ref="A1:N108" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
+    <sortState ref="A2:N108">
+      <sortCondition ref="A2:A108"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:N110">
-    <sortCondition ref="A2:A110"/>
+  <sortState ref="A2:N108">
+    <sortCondition ref="A2:A108"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6283,7 +6198,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -6304,7 +6219,7 @@
         <v>96</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="86" customHeight="1" x14ac:dyDescent="0.2">
@@ -6331,7 +6246,7 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="104" customHeight="1" x14ac:dyDescent="0.2">
@@ -6361,15 +6276,15 @@
         <v>256</v>
       </c>
       <c r="J3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -6390,7 +6305,7 @@
         <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -6417,12 +6332,12 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -6434,7 +6349,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -6448,7 +6363,7 @@
         <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6475,7 +6390,7 @@
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6505,7 +6420,7 @@
         <v>1000</v>
       </c>
       <c r="J8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6535,7 +6450,7 @@
         <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6565,12 +6480,12 @@
         <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -6582,20 +6497,20 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I11">
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6625,7 +6540,7 @@
         <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6655,7 +6570,7 @@
         <v>10000</v>
       </c>
       <c r="J13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6685,7 +6600,7 @@
         <v>256</v>
       </c>
       <c r="J14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6712,42 +6627,42 @@
         <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>293</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="F16" t="s">
         <v>43</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J16" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -6756,47 +6671,47 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I17">
         <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B18" t="s">
-        <v>294</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>305</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J18" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6827,7 +6742,7 @@
         <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6857,7 +6772,7 @@
         <v>256</v>
       </c>
       <c r="J20" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6887,15 +6802,15 @@
         <v>512</v>
       </c>
       <c r="J21" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -6912,13 +6827,13 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I22">
         <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6945,12 +6860,12 @@
         <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -6962,20 +6877,20 @@
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="I24">
         <v>500</v>
       </c>
       <c r="J24" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7003,7 +6918,7 @@
         <v>49</v>
       </c>
       <c r="J25" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -7033,7 +6948,7 @@
         <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7061,15 +6976,15 @@
         <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -7078,20 +6993,20 @@
         <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I28">
         <v>1024</v>
       </c>
       <c r="J28" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7121,7 +7036,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7152,7 +7067,7 @@
         <v>80</v>
       </c>
       <c r="J30" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7179,7 +7094,7 @@
         <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7209,12 +7124,12 @@
         <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -7226,7 +7141,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -7240,7 +7155,7 @@
         <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7270,7 +7185,7 @@
         <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7301,7 +7216,7 @@
         <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7332,7 +7247,7 @@
         <v>512</v>
       </c>
       <c r="J36" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7349,7 +7264,7 @@
         <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -7362,7 +7277,7 @@
         <v>512</v>
       </c>
       <c r="J37" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7392,7 +7307,7 @@
         <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7422,15 +7337,15 @@
         <v>64</v>
       </c>
       <c r="J39" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -7439,20 +7354,20 @@
         <v>16</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I40">
         <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7483,7 +7398,7 @@
         <v>16</v>
       </c>
       <c r="J41" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -7510,7 +7425,7 @@
         <v>72</v>
       </c>
       <c r="J42" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7540,7 +7455,7 @@
         <v>80</v>
       </c>
       <c r="J43" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7570,7 +7485,7 @@
         <v>80</v>
       </c>
       <c r="J44" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7597,7 +7512,7 @@
         <v>78</v>
       </c>
       <c r="J45" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7627,7 +7542,7 @@
         <v>80</v>
       </c>
       <c r="J46" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7654,7 +7569,7 @@
         <v>82</v>
       </c>
       <c r="J47" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7684,7 +7599,7 @@
         <v>80</v>
       </c>
       <c r="J48" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7715,12 +7630,12 @@
         <v>256</v>
       </c>
       <c r="J49" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -7732,7 +7647,7 @@
         <v>239</v>
       </c>
       <c r="E50" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -7742,15 +7657,15 @@
         <v>javaProperties</v>
       </c>
       <c r="J50" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -7759,7 +7674,7 @@
         <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -7773,7 +7688,7 @@
         <v>80</v>
       </c>
       <c r="J51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7804,7 +7719,7 @@
         <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7834,7 +7749,7 @@
         <v>80</v>
       </c>
       <c r="J53" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7851,7 +7766,7 @@
         <v>94</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
@@ -7862,7 +7777,7 @@
         <v>keepCall</v>
       </c>
       <c r="J54" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7893,7 +7808,7 @@
         <v>80</v>
       </c>
       <c r="J55" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7921,7 +7836,7 @@
         <v>length</v>
       </c>
       <c r="J56" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7952,12 +7867,12 @@
         <v>80</v>
       </c>
       <c r="J57" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -7969,17 +7884,17 @@
         <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8008,7 +7923,7 @@
         <v>logLevel</v>
       </c>
       <c r="J59" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8039,7 +7954,7 @@
         <v>80</v>
       </c>
       <c r="J60" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8069,7 +7984,7 @@
         <v>80</v>
       </c>
       <c r="J61" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8100,7 +8015,7 @@
         <v>80</v>
       </c>
       <c r="J62" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8130,7 +8045,7 @@
         <v>256</v>
       </c>
       <c r="J63" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8157,7 +8072,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8187,7 +8102,7 @@
         <v>512</v>
       </c>
       <c r="J65" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8217,12 +8132,12 @@
         <v>80</v>
       </c>
       <c r="J66" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -8234,37 +8149,37 @@
         <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I67">
         <v>10</v>
       </c>
       <c r="J67" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B68" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
@@ -8275,21 +8190,21 @@
         <v>myAnObject</v>
       </c>
       <c r="J68" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B69" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>A69</f>
@@ -8304,24 +8219,24 @@
         <v>myASubObject</v>
       </c>
       <c r="J69" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B70" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
@@ -8332,24 +8247,24 @@
         <v>myASubObjectList</v>
       </c>
       <c r="J70" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B71" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
@@ -8360,15 +8275,15 @@
         <v>myASubObjectMap</v>
       </c>
       <c r="J71" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B72" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -8389,15 +8304,15 @@
         <v>myBoolean</v>
       </c>
       <c r="J72" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B73" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -8418,15 +8333,15 @@
         <v>myDate</v>
       </c>
       <c r="J73" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B74" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -8447,15 +8362,15 @@
         <v>myDouble</v>
       </c>
       <c r="J74" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B75" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -8476,15 +8391,15 @@
         <v>myFloat</v>
       </c>
       <c r="J75" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B76" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -8504,15 +8419,15 @@
         <v>myInt</v>
       </c>
       <c r="J76" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B77" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -8533,15 +8448,15 @@
         <v>myList</v>
       </c>
       <c r="J77" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B78" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -8562,15 +8477,15 @@
         <v>myLong</v>
       </c>
       <c r="J78" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B79" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -8590,15 +8505,15 @@
         <v>myMap</v>
       </c>
       <c r="J79" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B80" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -8618,15 +8533,15 @@
         <v>myObject</v>
       </c>
       <c r="J80" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B81" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -8649,7 +8564,7 @@
         <v>20</v>
       </c>
       <c r="J81" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8679,7 +8594,7 @@
         <v>80</v>
       </c>
       <c r="J82" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8709,7 +8624,7 @@
         <v>80</v>
       </c>
       <c r="J83" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8737,7 +8652,7 @@
         <v>117</v>
       </c>
       <c r="J84" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8765,7 +8680,7 @@
         <v>118</v>
       </c>
       <c r="J85" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8793,7 +8708,7 @@
         <v>119</v>
       </c>
       <c r="J86" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8823,7 +8738,7 @@
         <v>12</v>
       </c>
       <c r="J87" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8854,7 +8769,7 @@
         <v>124</v>
       </c>
       <c r="J88" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8884,7 +8799,7 @@
         <v>15</v>
       </c>
       <c r="J89" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -8914,7 +8829,7 @@
         <v>256</v>
       </c>
       <c r="J90" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8943,12 +8858,12 @@
         <v>port</v>
       </c>
       <c r="J91" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
@@ -8960,7 +8875,7 @@
         <v>16</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
@@ -8974,12 +8889,12 @@
         <v>256</v>
       </c>
       <c r="J92" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -8991,7 +8906,7 @@
         <v>16</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
@@ -9005,12 +8920,12 @@
         <v>256</v>
       </c>
       <c r="J93" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -9022,17 +8937,17 @@
         <v>239</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J94" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9063,7 +8978,7 @@
         <v>8</v>
       </c>
       <c r="J95" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9093,7 +9008,7 @@
         <v>256</v>
       </c>
       <c r="J96" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9124,7 +9039,7 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9152,7 +9067,7 @@
         <v>132</v>
       </c>
       <c r="J98" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9182,7 +9097,7 @@
         <v>4</v>
       </c>
       <c r="J99" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9210,7 +9125,7 @@
         <v>136</v>
       </c>
       <c r="J100" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9238,7 +9153,7 @@
         <v>137</v>
       </c>
       <c r="J101" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9266,15 +9181,15 @@
         <v>138</v>
       </c>
       <c r="J102" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B103" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
@@ -9283,20 +9198,20 @@
         <v>16</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I103">
         <v>80</v>
       </c>
       <c r="J103" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9323,7 +9238,7 @@
         <v>5</v>
       </c>
       <c r="J104" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9350,7 +9265,7 @@
         <v>141</v>
       </c>
       <c r="J105" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9380,7 +9295,7 @@
         <v>2056</v>
       </c>
       <c r="J106" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9408,15 +9323,15 @@
         <v>146</v>
       </c>
       <c r="J107" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
@@ -9425,20 +9340,20 @@
         <v>16</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I108">
         <v>64</v>
       </c>
       <c r="J108" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9455,7 +9370,7 @@
         <v>16</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
@@ -9468,15 +9383,15 @@
         <v>80</v>
       </c>
       <c r="J109" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C110" t="s">
         <v>12</v>
@@ -9493,21 +9408,21 @@
       </c>
       <c r="G110" s="1"/>
       <c r="H110" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I110">
         <v>2048</v>
       </c>
       <c r="J110" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
@@ -9516,22 +9431,22 @@
         <v>10</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F111" t="s">
         <v>13</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J111" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
@@ -9557,12 +9472,12 @@
         <v>1000</v>
       </c>
       <c r="J112" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -9574,20 +9489,20 @@
         <v>16</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="I113">
         <v>500</v>
       </c>
       <c r="J113" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9617,7 +9532,7 @@
         <v>256</v>
       </c>
       <c r="J114" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -9647,12 +9562,12 @@
         <v>80</v>
       </c>
       <c r="J115" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>11</v>
@@ -9664,20 +9579,20 @@
         <v>16</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I116">
         <v>80</v>
       </c>
       <c r="J116" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -9694,7 +9609,7 @@
         <v>16</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
@@ -9707,7 +9622,7 @@
         <v>80</v>
       </c>
       <c r="J117" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9738,7 +9653,7 @@
         <v>5</v>
       </c>
       <c r="J118" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9766,7 +9681,7 @@
         <v>160</v>
       </c>
       <c r="J119" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -9792,7 +9707,7 @@
         <v>162</v>
       </c>
       <c r="J120" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9822,7 +9737,7 @@
         <v>50</v>
       </c>
       <c r="J121" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9852,7 +9767,7 @@
         <v>20000</v>
       </c>
       <c r="J122" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -9881,7 +9796,7 @@
         <v>80</v>
       </c>
       <c r="J123" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9911,7 +9826,7 @@
         <v>256</v>
       </c>
       <c r="J124" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -10563,13 +10478,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>74</v>
@@ -10599,144 +10514,144 @@
         <v>15</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>A2</f>
         <v>ALLImport.tpl</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>A3</f>
         <v>ALLInstanceVars.tpl</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>A4</f>
         <v>ALLSetter.tpl</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>A5</f>
         <v>ALLStaticNames.tpl</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>265</v>
@@ -10748,33 +10663,33 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -10783,1171 +10698,1171 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="N8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>A10</f>
         <v>BEANCreate.tpl</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="N11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>A12</f>
         <v>CONFIGConstructor.tpl</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>A13</f>
         <v>CONFIGCreate.tpl</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="J14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="J15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N15" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="J16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N16" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N17" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N18" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N19" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N20" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N21" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N22" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N24" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N25" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="J26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N26" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="J27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="N27" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="N28" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="G29" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="N29" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="N30" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="N31" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="H32" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="N32" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N33" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N34" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N35" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="L36" t="s">
         <v>341</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L36" t="s">
-        <v>342</v>
-      </c>
       <c r="N36" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N37" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N38" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N39" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G40" s="2" t="str">
         <f>A40</f>
         <v>Hibernate.xml.tpl</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N40" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G41" s="2" t="str">
         <f>A41</f>
@@ -11957,188 +11872,188 @@
         <v>13</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N41" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G42" s="2" t="str">
         <f>A42</f>
         <v>INTERFACESetter.tpl</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N42" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G43" s="2" t="str">
         <f>A43</f>
         <v>INTERFACEStaticNames.tpl</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N43" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G44" s="2" t="str">
         <f>A44</f>
         <v>JavaBuilder.tpl</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="N44" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G45" s="2" t="str">
         <f>A45</f>
         <v>JsonBuilder.tpl</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="N45" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="J46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N46" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>265</v>
@@ -12150,556 +12065,556 @@
         <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N48" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L50" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N50" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L51" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L52" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N52" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L53" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N53" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L54" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N54" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L55" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N55" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L56" t="s">
         <v>354</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L56" t="s">
-        <v>355</v>
-      </c>
       <c r="N56" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L57" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L57" t="s">
-        <v>358</v>
-      </c>
       <c r="N57" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="G58" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C59" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C60" t="s">
+        <v>674</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="C60" t="s">
-        <v>678</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N60" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C61" t="s">
+        <v>674</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C61" t="s">
-        <v>678</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N61" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L62" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -12707,256 +12622,256 @@
         <v>19</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N63" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N64" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N65" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="J66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="L66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N66" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="L67" t="s">
         <v>341</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L67" t="s">
-        <v>342</v>
-      </c>
       <c r="N67" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="J68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="N68" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C69" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L69" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N69" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -12996,13 +12911,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -13020,78 +12935,78 @@
         <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -13100,13 +13015,13 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -13118,7 +13033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420FD413-96A0-5F4E-9C1C-71614BF4B061}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -13144,13 +13059,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -13162,13 +13077,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>132</v>
@@ -13176,112 +13091,112 @@
     </row>
     <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="K2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="K3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="K4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>588</v>
-      </c>
       <c r="K5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/builder/src/main/resources/eo.xlsx
+++ b/builder/src/main/resources/eo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werner.diwischek/dev/elasticobjects/builder/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4E22A0-9E70-CD48-8739-FCF5196D9CEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7456C731-956F-D341-A380-1AD983D2A978}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="600" windowWidth="28240" windowHeight="17100" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DbSqlConfig!$A$1:$J$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FieldConfig!$A$1:$I$125</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FileConfig!$A$1:$M$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelConfig!$A$1:$N$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelConfig!$A$1:$N$110</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="720">
   <si>
     <t>naturalId</t>
   </si>
@@ -1256,9 +1256,6 @@
   </si>
   <si>
     <t>basic</t>
-  </si>
-  <si>
-    <t>A targetPath where the result of the execution will be mapped. Any combination of eo-&gt;placeholder. Could be set.</t>
   </si>
   <si>
     <t>A sourcePath where EO offers it's input value when the execution starts.</t>
@@ -1919,9 +1916,6 @@
   </si>
   <si>
     <t>Directory access for web/configs for fileNames matching *.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parses the content of a FileConfig or DirectoryConfig configuration. </t>
   </si>
   <si>
     <t>.*.html</t>
@@ -2276,6 +2270,18 @@
   </si>
   <si>
     <t>{  "execute": "guest","read":"guest"}</t>
+  </si>
+  <si>
+    <t>A targetPath where the result of the execution will be mapped. Any combination of "$(path)$"  could be set as value.</t>
+  </si>
+  <si>
+    <t>TemplateDirResourceCall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parses the content of a DirectoryConfig configuration. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parses the content of a FileConfig configuration. </t>
   </si>
 </sst>
 </file>
@@ -2661,14 +2667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2949A4-7E1C-7F4B-A1BC-11445B521B01}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L52" sqref="L52"/>
+      <selection pane="bottomRight" activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2700,7 +2705,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>55</v>
@@ -2727,13 +2732,13 @@
         <v>105</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>167</v>
       </c>
@@ -2756,45 +2761,45 @@
         <v>167</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -2817,10 +2822,10 @@
         <v>48</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="177" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -2843,47 +2848,47 @@
         <v>172</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2901,22 +2906,22 @@
         <v>236</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>A7</f>
         <v>Base</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2925,7 +2930,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>41</v>
@@ -2934,20 +2939,20 @@
         <v>250</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>A8</f>
         <v>BaseImpl</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2970,10 +2975,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="85" hidden="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>175</v>
       </c>
@@ -2984,7 +2989,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>41</v>
@@ -2999,13 +3004,13 @@
         <v>175</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>178</v>
       </c>
@@ -3016,13 +3021,13 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>41</v>
@@ -3037,13 +3042,13 @@
         <v>178</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>180</v>
       </c>
@@ -3072,13 +3077,13 @@
         <v>180</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>182</v>
       </c>
@@ -3101,13 +3106,13 @@
         <v>182</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>183</v>
       </c>
@@ -3130,13 +3135,13 @@
         <v>183</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>185</v>
       </c>
@@ -3147,10 +3152,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>41</v>
@@ -3165,13 +3170,13 @@
         <v>185</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>283</v>
       </c>
@@ -3200,13 +3205,13 @@
         <v>283</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>188</v>
       </c>
@@ -3235,13 +3240,13 @@
         <v>188</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>192</v>
       </c>
@@ -3252,13 +3257,13 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>41</v>
@@ -3273,13 +3278,13 @@
         <v>192</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>191</v>
       </c>
@@ -3308,15 +3313,15 @@
         <v>191</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>302</v>
@@ -3325,13 +3330,13 @@
         <v>12</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>219</v>
@@ -3341,13 +3346,13 @@
         <v>ConfigLinkCall</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>195</v>
       </c>
@@ -3376,13 +3381,13 @@
         <v>195</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>197</v>
       </c>
@@ -3408,10 +3413,10 @@
         <v>197</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>199</v>
       </c>
@@ -3440,10 +3445,10 @@
         <v>199</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>201</v>
       </c>
@@ -3469,15 +3474,15 @@
         <v>201</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -3486,7 +3491,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>210</v>
@@ -3495,27 +3500,27 @@
         <v>41</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>232</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
@@ -3527,24 +3532,24 @@
         <v>17</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
@@ -3569,15 +3574,15 @@
         <v>CsvSimpleReadCall</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
@@ -3592,7 +3597,7 @@
         <v>17</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>232</v>
@@ -3602,45 +3607,45 @@
         <v>CsvSimpleWriteCall</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="I29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="K29" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="M29" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -3663,10 +3668,10 @@
         <v>36</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>286</v>
       </c>
@@ -3695,13 +3700,13 @@
         <v>286</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>290</v>
       </c>
@@ -3718,7 +3723,7 @@
         <v>17</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>289</v>
@@ -3727,13 +3732,13 @@
         <v>290</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>291</v>
       </c>
@@ -3762,13 +3767,13 @@
         <v>291</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>293</v>
       </c>
@@ -3785,7 +3790,7 @@
         <v>17</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>289</v>
@@ -3794,13 +3799,13 @@
         <v>293</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>294</v>
       </c>
@@ -3829,13 +3834,13 @@
         <v>294</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>296</v>
       </c>
@@ -3861,15 +3866,15 @@
         <v>296</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
@@ -3884,7 +3889,7 @@
         <v>41</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>211</v>
@@ -3894,15 +3899,15 @@
         <v>DirectoryConfig</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
@@ -3917,7 +3922,7 @@
         <v>17</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>211</v>
@@ -3927,33 +3932,33 @@
         <v>DirectoryListReadCall</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>211</v>
@@ -3963,15 +3968,15 @@
         <v>DirectoryMapReadCall</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
@@ -3980,7 +3985,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>212</v>
@@ -3989,7 +3994,7 @@
         <v>17</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>211</v>
@@ -3999,13 +4004,13 @@
         <v>DirectoryReadCall</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>152</v>
       </c>
@@ -4028,10 +4033,10 @@
         <v>152</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>203</v>
       </c>
@@ -4057,13 +4062,13 @@
         <v>203</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>205</v>
       </c>
@@ -4086,13 +4091,13 @@
         <v>205</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
@@ -4118,13 +4123,13 @@
         <v>51</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>208</v>
       </c>
@@ -4135,7 +4140,7 @@
         <v>12</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>192</v>
@@ -4153,13 +4158,13 @@
         <v>208</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>210</v>
       </c>
@@ -4179,7 +4184,7 @@
         <v>41</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>211</v>
@@ -4188,13 +4193,13 @@
         <v>210</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>212</v>
       </c>
@@ -4220,13 +4225,13 @@
         <v>212</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>214</v>
       </c>
@@ -4237,7 +4242,7 @@
         <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>180</v>
@@ -4255,13 +4260,13 @@
         <v>214</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>153</v>
       </c>
@@ -4284,12 +4289,12 @@
         <v>153</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>359</v>
@@ -4298,7 +4303,7 @@
         <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>178</v>
@@ -4307,17 +4312,17 @@
         <v>41</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="L50" s="2" t="str">
         <f>A50</f>
         <v>GenerateCall</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>170</v>
@@ -4325,7 +4330,7 @@
     </row>
     <row r="51" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>359</v>
@@ -4334,26 +4339,26 @@
         <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="L51" s="2" t="str">
         <f>A51</f>
         <v>GenerateJavaCall</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>170</v>
@@ -4361,7 +4366,7 @@
     </row>
     <row r="52" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>359</v>
@@ -4370,34 +4375,34 @@
         <v>12</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="L52" s="2" t="str">
         <f>A52</f>
         <v>GenerateJsonConfigCall</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>302</v>
@@ -4406,7 +4411,7 @@
         <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>221</v>
@@ -4415,7 +4420,7 @@
         <v>17</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>219</v>
@@ -4425,13 +4430,13 @@
         <v>GithubLinkCall</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>38</v>
       </c>
@@ -4454,13 +4459,13 @@
         <v>38</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>216</v>
       </c>
@@ -4471,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>199</v>
@@ -4489,10 +4494,10 @@
         <v>216</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>81</v>
       </c>
@@ -4515,10 +4520,10 @@
         <v>81</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>218</v>
       </c>
@@ -4544,13 +4549,13 @@
         <v>218</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>222</v>
       </c>
@@ -4576,13 +4581,13 @@
         <v>222</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>140</v>
       </c>
@@ -4605,10 +4610,10 @@
         <v>140</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>92</v>
       </c>
@@ -4634,13 +4639,13 @@
         <v>92</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>227</v>
       </c>
@@ -4666,13 +4671,13 @@
         <v>227</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>229</v>
       </c>
@@ -4695,13 +4700,13 @@
         <v>229</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>230</v>
       </c>
@@ -4724,13 +4729,13 @@
         <v>230</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>231</v>
       </c>
@@ -4753,15 +4758,15 @@
         <v>231</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
@@ -4770,28 +4775,28 @@
         <v>12</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>232</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>97</v>
       </c>
@@ -4802,7 +4807,7 @@
         <v>12</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>41</v>
@@ -4817,13 +4822,13 @@
         <v>97</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>234</v>
       </c>
@@ -4834,10 +4839,10 @@
         <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>180</v>
@@ -4846,7 +4851,7 @@
         <v>41</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>232</v>
@@ -4855,15 +4860,15 @@
         <v>234</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
@@ -4872,7 +4877,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>180</v>
@@ -4881,22 +4886,22 @@
         <v>41</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>232</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>100</v>
       </c>
@@ -4919,10 +4924,10 @@
         <v>100</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>45</v>
       </c>
@@ -4945,10 +4950,10 @@
         <v>45</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>235</v>
       </c>
@@ -4968,10 +4973,10 @@
         <v>235</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>237</v>
       </c>
@@ -4982,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>192</v>
@@ -5000,15 +5005,15 @@
         <v>237</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
@@ -5017,7 +5022,7 @@
         <v>12</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>185</v>
@@ -5036,13 +5041,13 @@
         <v>ModelConfigInterface</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>239</v>
       </c>
@@ -5068,13 +5073,13 @@
         <v>239</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>241</v>
       </c>
@@ -5100,13 +5105,13 @@
         <v>241</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>243</v>
       </c>
@@ -5132,13 +5137,13 @@
         <v>243</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>245</v>
       </c>
@@ -5164,13 +5169,13 @@
         <v>245</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>247</v>
       </c>
@@ -5196,13 +5201,13 @@
         <v>247</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>249</v>
       </c>
@@ -5228,13 +5233,13 @@
         <v>249</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>251</v>
       </c>
@@ -5257,13 +5262,13 @@
         <v>251</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>154</v>
       </c>
@@ -5286,13 +5291,13 @@
         <v>154</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>64</v>
       </c>
@@ -5315,13 +5320,13 @@
         <v>64</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>254</v>
       </c>
@@ -5344,13 +5349,13 @@
         <v>254</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>256</v>
       </c>
@@ -5376,15 +5381,15 @@
         <v>256</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
@@ -5394,7 +5399,7 @@
         <v>12</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -5403,54 +5408,54 @@
         <v>41</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>186</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N85" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="I86" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>186</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>131</v>
       </c>
@@ -5476,13 +5481,13 @@
         <v>131</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>259</v>
       </c>
@@ -5508,13 +5513,13 @@
         <v>259</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>262</v>
       </c>
@@ -5537,13 +5542,13 @@
         <v>262</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>145</v>
       </c>
@@ -5569,13 +5574,13 @@
         <v>145</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>264</v>
       </c>
@@ -5598,13 +5603,13 @@
         <v>264</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>221</v>
       </c>
@@ -5630,13 +5635,13 @@
         <v>221</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>266</v>
       </c>
@@ -5662,13 +5667,13 @@
         <v>266</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>15</v>
       </c>
@@ -5691,10 +5696,10 @@
         <v>15</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>268</v>
       </c>
@@ -5717,13 +5722,13 @@
         <v>268</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>269</v>
       </c>
@@ -5746,13 +5751,13 @@
         <v>269</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>270</v>
       </c>
@@ -5778,13 +5783,13 @@
         <v>270</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>272</v>
       </c>
@@ -5813,15 +5818,15 @@
         <v>272</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="125" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>11</v>
@@ -5836,24 +5841,24 @@
         <v>17</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>219</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
@@ -5868,22 +5873,22 @@
         <v>17</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>219</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>274</v>
       </c>
@@ -5909,13 +5914,13 @@
         <v>274</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>276</v>
       </c>
@@ -5941,13 +5946,13 @@
         <v>276</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>277</v>
       </c>
@@ -5972,54 +5977,56 @@
       <c r="K103" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L103" s="2" t="s">
-        <v>277</v>
+      <c r="L103" s="2" t="str">
+        <f>A103</f>
+        <v>TemplateCall</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="I104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>610</v>
+        <v>718</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L104" s="2" t="s">
-        <v>279</v>
+      <c r="L104" s="2" t="str">
+        <f>A104</f>
+        <v>TemplateDirResourceCall</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>527</v>
+        <v>279</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
@@ -6028,160 +6035,165 @@
         <v>12</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>532</v>
+        <v>662</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>280</v>
+        <v>719</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L105" s="2" t="s">
-        <v>527</v>
+      <c r="L105" s="2" t="str">
+        <f>A105</f>
+        <v>TemplateResourceCall</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>301</v>
+        <v>526</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>403</v>
+        <v>531</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L106" s="2" t="str">
         <f>A106</f>
-        <v>TheGreetingCall</v>
+        <v>TemplateResourceStoreCall</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="118" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>302</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="L107" s="2" t="s">
-        <v>281</v>
+      <c r="L107" s="2" t="str">
+        <f>A107</f>
+        <v>TheGreetingCall</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>436</v>
+        <v>11</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>306</v>
+        <v>219</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E109" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G109" s="2" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>711</v>
+        <v>305</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>306</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>504</v>
@@ -6190,19 +6202,46 @@
         <v>170</v>
       </c>
     </row>
+    <row r="110" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N109" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="builder"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:N109">
-      <sortCondition ref="A2:A109"/>
+  <autoFilter ref="A1:N110" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
+    <sortState ref="A2:N110">
+      <sortCondition ref="A2:A110"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:N109">
-    <sortCondition ref="A2:A109"/>
+  <sortState ref="A2:N110">
+    <sortCondition ref="A2:A110"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6214,11 +6253,11 @@
   <dimension ref="A1:J944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E110" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6241,7 +6280,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -6262,7 +6301,7 @@
         <v>94</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="86" customHeight="1" x14ac:dyDescent="0.2">
@@ -6289,7 +6328,7 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="104" customHeight="1" x14ac:dyDescent="0.2">
@@ -6319,12 +6358,12 @@
         <v>256</v>
       </c>
       <c r="J3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B4" t="s">
         <v>359</v>
@@ -6348,7 +6387,7 @@
         <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -6375,12 +6414,12 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -6392,7 +6431,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -6406,7 +6445,7 @@
         <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6433,7 +6472,7 @@
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6463,7 +6502,7 @@
         <v>1000</v>
       </c>
       <c r="J8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6493,7 +6532,7 @@
         <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6523,7 +6562,7 @@
         <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6553,7 +6592,7 @@
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6583,7 +6622,7 @@
         <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6613,7 +6652,7 @@
         <v>10000</v>
       </c>
       <c r="J13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6643,7 +6682,7 @@
         <v>256</v>
       </c>
       <c r="J14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6670,7 +6709,7 @@
         <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6697,7 +6736,7 @@
         <v>308</v>
       </c>
       <c r="J16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6727,7 +6766,7 @@
         <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6754,7 +6793,7 @@
         <v>312</v>
       </c>
       <c r="J18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6785,7 +6824,7 @@
         <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6815,7 +6854,7 @@
         <v>256</v>
       </c>
       <c r="J20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6845,7 +6884,7 @@
         <v>512</v>
       </c>
       <c r="J21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6876,7 +6915,7 @@
         <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6903,12 +6942,12 @@
         <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -6920,20 +6959,20 @@
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I24">
         <v>500</v>
       </c>
       <c r="J24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6961,7 +7000,7 @@
         <v>47</v>
       </c>
       <c r="J25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6991,7 +7030,7 @@
         <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7019,7 +7058,7 @@
         <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7049,7 +7088,7 @@
         <v>1024</v>
       </c>
       <c r="J28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7079,7 +7118,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7110,7 +7149,7 @@
         <v>80</v>
       </c>
       <c r="J30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7137,7 +7176,7 @@
         <v>55</v>
       </c>
       <c r="J31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7167,12 +7206,12 @@
         <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -7184,7 +7223,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F33" t="s">
         <v>41</v>
@@ -7198,7 +7237,7 @@
         <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7228,7 +7267,7 @@
         <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7259,7 +7298,7 @@
         <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7290,7 +7329,7 @@
         <v>512</v>
       </c>
       <c r="J36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7307,7 +7346,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -7320,7 +7359,7 @@
         <v>512</v>
       </c>
       <c r="J37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7350,7 +7389,7 @@
         <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7380,7 +7419,7 @@
         <v>64</v>
       </c>
       <c r="J39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7410,7 +7449,7 @@
         <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7441,7 +7480,7 @@
         <v>16</v>
       </c>
       <c r="J41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -7468,7 +7507,7 @@
         <v>70</v>
       </c>
       <c r="J42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7498,7 +7537,7 @@
         <v>80</v>
       </c>
       <c r="J43" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7528,7 +7567,7 @@
         <v>80</v>
       </c>
       <c r="J44" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7555,7 +7594,7 @@
         <v>76</v>
       </c>
       <c r="J45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7585,7 +7624,7 @@
         <v>80</v>
       </c>
       <c r="J46" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7612,7 +7651,7 @@
         <v>80</v>
       </c>
       <c r="J47" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7642,7 +7681,7 @@
         <v>80</v>
       </c>
       <c r="J48" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7673,12 +7712,12 @@
         <v>256</v>
       </c>
       <c r="J49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -7690,7 +7729,7 @@
         <v>235</v>
       </c>
       <c r="E50" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F50" t="s">
         <v>41</v>
@@ -7700,7 +7739,7 @@
         <v>javaProperties</v>
       </c>
       <c r="J50" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7731,7 +7770,7 @@
         <v>80</v>
       </c>
       <c r="J51" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7762,7 +7801,7 @@
         <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7792,7 +7831,7 @@
         <v>80</v>
       </c>
       <c r="J53" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7809,7 +7848,7 @@
         <v>92</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -7820,7 +7859,7 @@
         <v>keepCall</v>
       </c>
       <c r="J54" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7851,7 +7890,7 @@
         <v>80</v>
       </c>
       <c r="J55" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7879,7 +7918,7 @@
         <v>length</v>
       </c>
       <c r="J56" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7910,12 +7949,12 @@
         <v>80</v>
       </c>
       <c r="J57" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -7927,17 +7966,17 @@
         <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7966,7 +8005,7 @@
         <v>logLevel</v>
       </c>
       <c r="J59" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7997,7 +8036,7 @@
         <v>80</v>
       </c>
       <c r="J60" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8027,7 +8066,7 @@
         <v>80</v>
       </c>
       <c r="J61" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8058,7 +8097,7 @@
         <v>80</v>
       </c>
       <c r="J62" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8088,7 +8127,7 @@
         <v>256</v>
       </c>
       <c r="J63" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8115,7 +8154,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8145,7 +8184,7 @@
         <v>512</v>
       </c>
       <c r="J65" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8175,12 +8214,12 @@
         <v>80</v>
       </c>
       <c r="J66" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -8192,37 +8231,37 @@
         <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I67">
         <v>10</v>
       </c>
       <c r="J67" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B68" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -8233,21 +8272,21 @@
         <v>myAnObject</v>
       </c>
       <c r="J68" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B69" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>A69</f>
@@ -8262,24 +8301,24 @@
         <v>myASubObject</v>
       </c>
       <c r="J69" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B70" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -8290,24 +8329,24 @@
         <v>myASubObjectList</v>
       </c>
       <c r="J70" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B71" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -8318,15 +8357,15 @@
         <v>myASubObjectMap</v>
       </c>
       <c r="J71" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B72" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -8347,15 +8386,15 @@
         <v>myBoolean</v>
       </c>
       <c r="J72" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B73" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -8376,15 +8415,15 @@
         <v>myDate</v>
       </c>
       <c r="J73" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B74" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -8405,15 +8444,15 @@
         <v>myDouble</v>
       </c>
       <c r="J74" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B75" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -8434,15 +8473,15 @@
         <v>myFloat</v>
       </c>
       <c r="J75" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B76" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -8462,15 +8501,15 @@
         <v>myInt</v>
       </c>
       <c r="J76" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B77" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -8491,15 +8530,15 @@
         <v>myList</v>
       </c>
       <c r="J77" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B78" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -8520,15 +8559,15 @@
         <v>myLong</v>
       </c>
       <c r="J78" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -8548,15 +8587,15 @@
         <v>myMap</v>
       </c>
       <c r="J79" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B80" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -8576,15 +8615,15 @@
         <v>myObject</v>
       </c>
       <c r="J80" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B81" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -8607,7 +8646,7 @@
         <v>20</v>
       </c>
       <c r="J81" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8637,7 +8676,7 @@
         <v>80</v>
       </c>
       <c r="J82" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8667,7 +8706,7 @@
         <v>80</v>
       </c>
       <c r="J83" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8695,12 +8734,12 @@
         <v>115</v>
       </c>
       <c r="J84" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B85" t="s">
         <v>302</v>
@@ -8724,7 +8763,7 @@
         <v>noGithub</v>
       </c>
       <c r="J85" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8752,7 +8791,7 @@
         <v>116</v>
       </c>
       <c r="J86" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8780,7 +8819,7 @@
         <v>117</v>
       </c>
       <c r="J87" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8810,7 +8849,7 @@
         <v>12</v>
       </c>
       <c r="J88" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8841,7 +8880,7 @@
         <v>124</v>
       </c>
       <c r="J89" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8871,7 +8910,7 @@
         <v>15</v>
       </c>
       <c r="J90" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -8901,7 +8940,7 @@
         <v>256</v>
       </c>
       <c r="J91" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8930,12 +8969,12 @@
         <v>port</v>
       </c>
       <c r="J92" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -8947,7 +8986,7 @@
         <v>15</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F93" t="s">
         <v>41</v>
@@ -8961,12 +9000,12 @@
         <v>256</v>
       </c>
       <c r="J93" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -8978,7 +9017,7 @@
         <v>15</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F94" t="s">
         <v>41</v>
@@ -8992,12 +9031,12 @@
         <v>256</v>
       </c>
       <c r="J94" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -9009,17 +9048,17 @@
         <v>235</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J95" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9050,7 +9089,7 @@
         <v>8</v>
       </c>
       <c r="J96" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9080,7 +9119,7 @@
         <v>256</v>
       </c>
       <c r="J97" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9111,7 +9150,7 @@
         <v>5</v>
       </c>
       <c r="J98" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9139,7 +9178,7 @@
         <v>130</v>
       </c>
       <c r="J99" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9169,7 +9208,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9197,7 +9236,7 @@
         <v>134</v>
       </c>
       <c r="J101" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9225,7 +9264,7 @@
         <v>135</v>
       </c>
       <c r="J102" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9253,7 +9292,7 @@
         <v>136</v>
       </c>
       <c r="J103" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9283,7 +9322,7 @@
         <v>80</v>
       </c>
       <c r="J104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9310,7 +9349,7 @@
         <v>5</v>
       </c>
       <c r="J105" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9337,7 +9376,7 @@
         <v>139</v>
       </c>
       <c r="J106" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9367,7 +9406,7 @@
         <v>2056</v>
       </c>
       <c r="J107" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9395,7 +9434,7 @@
         <v>144</v>
       </c>
       <c r="J108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9403,7 +9442,7 @@
         <v>323</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
@@ -9425,7 +9464,7 @@
         <v>64</v>
       </c>
       <c r="J109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9442,7 +9481,7 @@
         <v>15</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -9455,7 +9494,7 @@
         <v>80</v>
       </c>
       <c r="J110" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9486,7 +9525,7 @@
         <v>2048</v>
       </c>
       <c r="J111" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -9513,12 +9552,12 @@
         <v>326</v>
       </c>
       <c r="J112" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -9544,12 +9583,12 @@
         <v>1000</v>
       </c>
       <c r="J113" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -9561,20 +9600,20 @@
         <v>15</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I114">
         <v>500</v>
       </c>
       <c r="J114" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9604,7 +9643,7 @@
         <v>256</v>
       </c>
       <c r="J115" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -9634,12 +9673,12 @@
         <v>80</v>
       </c>
       <c r="J116" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>11</v>
@@ -9651,20 +9690,20 @@
         <v>15</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I117">
         <v>80</v>
       </c>
       <c r="J117" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -9681,7 +9720,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>407</v>
+        <v>716</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
@@ -9694,7 +9733,7 @@
         <v>80</v>
       </c>
       <c r="J118" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9725,7 +9764,7 @@
         <v>5</v>
       </c>
       <c r="J119" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9753,7 +9792,7 @@
         <v>158</v>
       </c>
       <c r="J120" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -9779,7 +9818,7 @@
         <v>160</v>
       </c>
       <c r="J121" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9809,7 +9848,7 @@
         <v>50</v>
       </c>
       <c r="J122" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9839,7 +9878,7 @@
         <v>20000</v>
       </c>
       <c r="J123" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -9868,7 +9907,7 @@
         <v>80</v>
       </c>
       <c r="J124" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9898,7 +9937,7 @@
         <v>256</v>
       </c>
       <c r="J125" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -10555,7 +10594,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>72</v>
@@ -10585,12 +10624,12 @@
         <v>14</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>359</v>
@@ -10602,14 +10641,14 @@
         <v>329</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>A2</f>
         <v>ALLImport.tpl</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>17</v>
@@ -10618,12 +10657,12 @@
         <v>340</v>
       </c>
       <c r="N2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>359</v>
@@ -10635,14 +10674,14 @@
         <v>329</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>A3</f>
         <v>ALLInstanceVars.tpl</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>17</v>
@@ -10651,12 +10690,12 @@
         <v>340</v>
       </c>
       <c r="N3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>359</v>
@@ -10668,14 +10707,14 @@
         <v>329</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>A4</f>
         <v>ALLSetter.tpl</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>17</v>
@@ -10684,12 +10723,12 @@
         <v>340</v>
       </c>
       <c r="N4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>359</v>
@@ -10701,14 +10740,14 @@
         <v>329</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>A5</f>
         <v>ALLStaticNames.tpl</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>17</v>
@@ -10717,18 +10756,18 @@
         <v>340</v>
       </c>
       <c r="N5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -10740,10 +10779,10 @@
         <v>361</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>17</v>
@@ -10755,15 +10794,15 @@
         <v>345</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -10775,10 +10814,10 @@
         <v>361</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>17</v>
@@ -10790,18 +10829,18 @@
         <v>345</v>
       </c>
       <c r="N7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -10810,13 +10849,13 @@
         <v>329</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>17</v>
@@ -10825,12 +10864,12 @@
         <v>330</v>
       </c>
       <c r="N8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>304</v>
@@ -10845,13 +10884,13 @@
         <v>329</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>17</v>
@@ -10863,7 +10902,7 @@
         <v>345</v>
       </c>
       <c r="N9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10880,14 +10919,14 @@
         <v>329</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>A10</f>
         <v>BEANCreate.tpl</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>17</v>
@@ -10896,15 +10935,15 @@
         <v>340</v>
       </c>
       <c r="N10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>302</v>
@@ -10916,13 +10955,13 @@
         <v>329</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>17</v>
@@ -10934,12 +10973,12 @@
         <v>332</v>
       </c>
       <c r="N11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>302</v>
@@ -10951,13 +10990,13 @@
         <v>329</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>17</v>
@@ -10969,12 +11008,12 @@
         <v>332</v>
       </c>
       <c r="N12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>359</v>
@@ -10986,13 +11025,13 @@
         <v>329</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>362</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>17</v>
@@ -11001,12 +11040,12 @@
         <v>330</v>
       </c>
       <c r="N13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>359</v>
@@ -11018,14 +11057,14 @@
         <v>329</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>A14</f>
         <v>CONFIGConstructor.tpl</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>17</v>
@@ -11034,12 +11073,12 @@
         <v>340</v>
       </c>
       <c r="N14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>359</v>
@@ -11051,14 +11090,14 @@
         <v>329</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>A15</f>
         <v>CONFIGCreate.tpl</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>17</v>
@@ -11067,15 +11106,15 @@
         <v>340</v>
       </c>
       <c r="N15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>302</v>
@@ -11090,10 +11129,10 @@
         <v>371</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>17</v>
@@ -11105,7 +11144,7 @@
         <v>332</v>
       </c>
       <c r="N16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -11140,7 +11179,7 @@
         <v>332</v>
       </c>
       <c r="N17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -11175,7 +11214,7 @@
         <v>332</v>
       </c>
       <c r="N18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -11210,12 +11249,12 @@
         <v>332</v>
       </c>
       <c r="N19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>304</v>
@@ -11230,13 +11269,13 @@
         <v>329</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>17</v>
@@ -11248,15 +11287,15 @@
         <v>348</v>
       </c>
       <c r="N20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>353</v>
@@ -11265,13 +11304,13 @@
         <v>329</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>41</v>
@@ -11280,15 +11319,15 @@
         <v>340</v>
       </c>
       <c r="N21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>353</v>
@@ -11297,13 +11336,13 @@
         <v>329</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>41</v>
@@ -11312,15 +11351,15 @@
         <v>340</v>
       </c>
       <c r="N22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>353</v>
@@ -11329,13 +11368,13 @@
         <v>329</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>41</v>
@@ -11344,15 +11383,15 @@
         <v>340</v>
       </c>
       <c r="N23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>353</v>
@@ -11361,13 +11400,13 @@
         <v>329</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>41</v>
@@ -11376,15 +11415,15 @@
         <v>340</v>
       </c>
       <c r="N24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>353</v>
@@ -11393,13 +11432,13 @@
         <v>329</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>41</v>
@@ -11408,15 +11447,15 @@
         <v>340</v>
       </c>
       <c r="N25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>353</v>
@@ -11425,13 +11464,13 @@
         <v>329</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>41</v>
@@ -11440,15 +11479,15 @@
         <v>340</v>
       </c>
       <c r="N26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>353</v>
@@ -11457,13 +11496,13 @@
         <v>329</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>41</v>
@@ -11472,15 +11511,15 @@
         <v>340</v>
       </c>
       <c r="N27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>353</v>
@@ -11489,13 +11528,13 @@
         <v>329</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>41</v>
@@ -11504,7 +11543,7 @@
         <v>340</v>
       </c>
       <c r="N28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -11539,7 +11578,7 @@
         <v>332</v>
       </c>
       <c r="N29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -11574,15 +11613,15 @@
         <v>330</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>302</v>
@@ -11597,10 +11636,10 @@
         <v>373</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>17</v>
@@ -11612,12 +11651,12 @@
         <v>332</v>
       </c>
       <c r="N31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>302</v>
@@ -11632,10 +11671,10 @@
         <v>373</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>17</v>
@@ -11647,12 +11686,12 @@
         <v>332</v>
       </c>
       <c r="N32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>304</v>
@@ -11667,13 +11706,13 @@
         <v>329</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>17</v>
@@ -11682,12 +11721,12 @@
         <v>330</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>304</v>
@@ -11702,13 +11741,13 @@
         <v>329</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>17</v>
@@ -11717,12 +11756,12 @@
         <v>330</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>304</v>
@@ -11737,13 +11776,13 @@
         <v>329</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>17</v>
@@ -11752,12 +11791,12 @@
         <v>330</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>304</v>
@@ -11772,13 +11811,13 @@
         <v>329</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>17</v>
@@ -11787,12 +11826,12 @@
         <v>330</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>304</v>
@@ -11807,13 +11846,13 @@
         <v>329</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>17</v>
@@ -11822,15 +11861,15 @@
         <v>330</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>302</v>
@@ -11845,10 +11884,10 @@
         <v>331</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>17</v>
@@ -11860,12 +11899,12 @@
         <v>332</v>
       </c>
       <c r="N38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>302</v>
@@ -11880,10 +11919,10 @@
         <v>331</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>17</v>
@@ -11895,15 +11934,15 @@
         <v>332</v>
       </c>
       <c r="N39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>302</v>
@@ -11915,13 +11954,13 @@
         <v>329</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>17</v>
@@ -11933,12 +11972,12 @@
         <v>332</v>
       </c>
       <c r="N40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>302</v>
@@ -11950,13 +11989,13 @@
         <v>329</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>17</v>
@@ -11968,7 +12007,7 @@
         <v>332</v>
       </c>
       <c r="N41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -11976,7 +12015,7 @@
         <v>335</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>353</v>
@@ -12003,7 +12042,7 @@
         <v>337</v>
       </c>
       <c r="N42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -12011,7 +12050,7 @@
         <v>339</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>353</v>
@@ -12035,7 +12074,7 @@
         <v>340</v>
       </c>
       <c r="N43" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -12052,14 +12091,14 @@
         <v>329</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G44" s="2" t="str">
         <f>A44</f>
         <v>Hibernate.xml.tpl</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>17</v>
@@ -12068,7 +12107,7 @@
         <v>330</v>
       </c>
       <c r="N44" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -12085,7 +12124,7 @@
         <v>329</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G45" s="2" t="str">
         <f>A45</f>
@@ -12098,12 +12137,12 @@
         <v>330</v>
       </c>
       <c r="N45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>359</v>
@@ -12115,7 +12154,7 @@
         <v>329</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G46" s="2" t="str">
         <f>A46</f>
@@ -12131,12 +12170,12 @@
         <v>330</v>
       </c>
       <c r="N46" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>359</v>
@@ -12148,14 +12187,14 @@
         <v>329</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G47" s="2" t="str">
         <f>A47</f>
         <v>INTERFACEStaticNames.tpl</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>17</v>
@@ -12164,12 +12203,12 @@
         <v>330</v>
       </c>
       <c r="N47" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>359</v>
@@ -12181,14 +12220,14 @@
         <v>329</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G48" s="2" t="str">
         <f>A48</f>
         <v>JavaBuilder.tpl</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>17</v>
@@ -12197,15 +12236,15 @@
         <v>330</v>
       </c>
       <c r="L48" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N48" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>359</v>
@@ -12217,14 +12256,14 @@
         <v>329</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G49" s="2" t="str">
         <f>A49</f>
         <v>JsonBuilder.tpl</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>17</v>
@@ -12233,10 +12272,10 @@
         <v>330</v>
       </c>
       <c r="L49" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -12253,7 +12292,7 @@
         <v>329</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>375</v>
@@ -12271,7 +12310,7 @@
         <v>345</v>
       </c>
       <c r="N50" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -12279,10 +12318,10 @@
         <v>342</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>12</v>
@@ -12309,15 +12348,15 @@
         <v>337</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>353</v>
@@ -12329,10 +12368,10 @@
         <v>377</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>41</v>
@@ -12344,18 +12383,18 @@
         <v>337</v>
       </c>
       <c r="N52" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>353</v>
@@ -12364,13 +12403,13 @@
         <v>329</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>41</v>
@@ -12382,7 +12421,7 @@
         <v>337</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -12399,13 +12438,13 @@
         <v>329</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>378</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>17</v>
@@ -12417,12 +12456,12 @@
         <v>345</v>
       </c>
       <c r="N54" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>302</v>
@@ -12434,13 +12473,13 @@
         <v>329</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>17</v>
@@ -12449,15 +12488,15 @@
         <v>330</v>
       </c>
       <c r="L55" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N55" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>302</v>
@@ -12469,13 +12508,13 @@
         <v>329</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>17</v>
@@ -12484,15 +12523,15 @@
         <v>330</v>
       </c>
       <c r="L56" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N56" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>302</v>
@@ -12504,13 +12543,13 @@
         <v>329</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>17</v>
@@ -12519,15 +12558,15 @@
         <v>330</v>
       </c>
       <c r="L57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N57" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>302</v>
@@ -12539,13 +12578,13 @@
         <v>329</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="H58" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>17</v>
@@ -12554,15 +12593,15 @@
         <v>330</v>
       </c>
       <c r="L58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>302</v>
@@ -12574,13 +12613,13 @@
         <v>329</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>17</v>
@@ -12589,10 +12628,10 @@
         <v>330</v>
       </c>
       <c r="L59" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N59" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -12609,7 +12648,7 @@
         <v>329</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>344</v>
@@ -12627,12 +12666,12 @@
         <v>345</v>
       </c>
       <c r="N60" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>302</v>
@@ -12663,7 +12702,7 @@
         <v>345</v>
       </c>
       <c r="N61" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -12680,7 +12719,7 @@
         <v>329</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>347</v>
@@ -12698,12 +12737,12 @@
         <v>348</v>
       </c>
       <c r="N62" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>302</v>
@@ -12715,14 +12754,14 @@
         <v>329</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G63" s="2" t="str">
         <f>A63</f>
         <v>table.tpl</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>17</v>
@@ -12731,10 +12770,10 @@
         <v>330</v>
       </c>
       <c r="L63" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="N63" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -12742,10 +12781,10 @@
         <v>351</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C64" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>353</v>
@@ -12772,7 +12811,7 @@
         <v>337</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -12780,7 +12819,7 @@
         <v>379</v>
       </c>
       <c r="C65" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>353</v>
@@ -12804,7 +12843,7 @@
         <v>330</v>
       </c>
       <c r="N65" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -12812,7 +12851,7 @@
         <v>355</v>
       </c>
       <c r="C66" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>353</v>
@@ -12836,18 +12875,18 @@
         <v>330</v>
       </c>
       <c r="N66" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>353</v>
@@ -12859,10 +12898,10 @@
         <v>352</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>41</v>
@@ -12874,7 +12913,7 @@
         <v>337</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -12882,7 +12921,7 @@
         <v>17</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>302</v>
@@ -12897,10 +12936,10 @@
         <v>349</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>17</v>
@@ -12912,7 +12951,7 @@
         <v>332</v>
       </c>
       <c r="N68" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -12929,7 +12968,7 @@
         <v>329</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>344</v>
@@ -12944,15 +12983,15 @@
         <v>330</v>
       </c>
       <c r="N69" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C70" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>353</v>
@@ -12961,13 +13000,13 @@
         <v>329</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>41</v>
@@ -12979,7 +13018,7 @@
         <v>332</v>
       </c>
       <c r="N70" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -13019,7 +13058,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -13037,7 +13076,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="136" x14ac:dyDescent="0.2">
@@ -13060,7 +13099,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="136" x14ac:dyDescent="0.2">
@@ -13083,7 +13122,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -13103,7 +13142,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -13123,7 +13162,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -13167,7 +13206,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -13179,7 +13218,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>325</v>
@@ -13193,7 +13232,7 @@
     </row>
     <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>291</v>
@@ -13205,16 +13244,16 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="K2" t="s">
         <v>345</v>
@@ -13237,18 +13276,18 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>291</v>
@@ -13260,16 +13299,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="K4" t="s">
         <v>345</v>
@@ -13277,7 +13316,7 @@
     </row>
     <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>287</v>
@@ -13286,19 +13325,19 @@
         <v>353</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>574</v>
-      </c>
       <c r="K5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/builder/src/main/resources/eo.xlsx
+++ b/builder/src/main/resources/eo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werner.diwischek/dev/elasticobjects/builder/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7456C731-956F-D341-A380-1AD983D2A978}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ADE5C3-90A5-4E48-9A28-25A2A523DAE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="600" windowWidth="28240" windowHeight="17100" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
+    <workbookView xWindow="500" yWindow="600" windowWidth="28240" windowHeight="17100" activeTab="2" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="2" r:id="rId1"/>
@@ -1093,9 +1093,6 @@
     <t>target.csv</t>
   </si>
   <si>
-    <t>$[@TMP]</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -2272,9 +2269,6 @@
     <t>{  "execute": "guest","read":"guest"}</t>
   </si>
   <si>
-    <t>A targetPath where the result of the execution will be mapped. Any combination of "$(path)$"  could be set as value.</t>
-  </si>
-  <si>
     <t>TemplateDirResourceCall</t>
   </si>
   <si>
@@ -2282,6 +2276,12 @@
   </si>
   <si>
     <t xml:space="preserve">Parses the content of a FileConfig configuration. </t>
+  </si>
+  <si>
+    <t>A targetPath where the result of the execution will be mapped. If value is "_asString" no mapping occured but a seralized version is returned as value to embed it in the resulting file. Path parameters could be set dynamically with =&amp;gt;[path]. in any combination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =&gt;[@TMP].</t>
   </si>
 </sst>
 </file>
@@ -2669,7 +2669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2949A4-7E1C-7F4B-A1BC-11445B521B01}">
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="F100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2699,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>55</v>
@@ -2732,7 +2732,7 @@
         <v>105</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>14</v>
@@ -2761,7 +2761,7 @@
         <v>167</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>170</v>
@@ -2769,31 +2769,31 @@
     </row>
     <row r="3" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>170</v>
@@ -2807,7 +2807,7 @@
         <v>239</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -2822,7 +2822,7 @@
         <v>48</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="177" customHeight="1" x14ac:dyDescent="0.2">
@@ -2848,7 +2848,7 @@
         <v>172</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>173</v>
@@ -2856,31 +2856,31 @@
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>170</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2906,14 +2906,14 @@
         <v>236</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>A7</f>
         <v>Base</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>170</v>
@@ -2921,16 +2921,16 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>41</v>
@@ -2939,14 +2939,14 @@
         <v>250</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>A8</f>
         <v>BaseImpl</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>170</v>
@@ -2960,7 +2960,7 @@
         <v>247</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -2975,7 +2975,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2989,7 +2989,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>41</v>
@@ -3004,7 +3004,7 @@
         <v>175</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>170</v>
@@ -3021,13 +3021,13 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>41</v>
@@ -3042,7 +3042,7 @@
         <v>178</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>170</v>
@@ -3059,7 +3059,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>178</v>
@@ -3077,7 +3077,7 @@
         <v>180</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>170</v>
@@ -3106,7 +3106,7 @@
         <v>182</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>173</v>
@@ -3135,7 +3135,7 @@
         <v>183</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>170</v>
@@ -3152,10 +3152,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>41</v>
@@ -3170,7 +3170,7 @@
         <v>185</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>170</v>
@@ -3187,7 +3187,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>178</v>
@@ -3205,7 +3205,7 @@
         <v>283</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>170</v>
@@ -3222,7 +3222,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>191</v>
@@ -3240,7 +3240,7 @@
         <v>188</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>170</v>
@@ -3257,13 +3257,13 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>41</v>
@@ -3278,7 +3278,7 @@
         <v>192</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>170</v>
@@ -3295,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>178</v>
@@ -3313,7 +3313,7 @@
         <v>191</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>170</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>302</v>
@@ -3330,13 +3330,13 @@
         <v>12</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>219</v>
@@ -3346,7 +3346,7 @@
         <v>ConfigLinkCall</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>170</v>
@@ -3363,7 +3363,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>178</v>
@@ -3381,7 +3381,7 @@
         <v>195</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>170</v>
@@ -3413,7 +3413,7 @@
         <v>197</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -3445,7 +3445,7 @@
         <v>199</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3474,7 +3474,7 @@
         <v>201</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>170</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="25" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -3491,7 +3491,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>210</v>
@@ -3500,16 +3500,16 @@
         <v>41</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>232</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>170</v>
@@ -3517,10 +3517,10 @@
     </row>
     <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
@@ -3532,16 +3532,16 @@
         <v>17</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>170</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
@@ -3574,7 +3574,7 @@
         <v>CsvSimpleReadCall</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>170</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
@@ -3597,7 +3597,7 @@
         <v>17</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>232</v>
@@ -3607,7 +3607,7 @@
         <v>CsvSimpleWriteCall</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>170</v>
@@ -3615,31 +3615,31 @@
     </row>
     <row r="29" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="I29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="K29" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="M29" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>170</v>
@@ -3653,7 +3653,7 @@
         <v>247</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>12</v>
@@ -3668,7 +3668,7 @@
         <v>36</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -3682,7 +3682,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>216</v>
@@ -3700,7 +3700,7 @@
         <v>286</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>170</v>
@@ -3723,7 +3723,7 @@
         <v>17</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>289</v>
@@ -3732,7 +3732,7 @@
         <v>290</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>170</v>
@@ -3749,7 +3749,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>199</v>
@@ -3767,7 +3767,7 @@
         <v>291</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>170</v>
@@ -3790,7 +3790,7 @@
         <v>17</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>289</v>
@@ -3799,7 +3799,7 @@
         <v>293</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>170</v>
@@ -3816,7 +3816,7 @@
         <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>199</v>
@@ -3834,7 +3834,7 @@
         <v>294</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>170</v>
@@ -3866,7 +3866,7 @@
         <v>296</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>170</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="37" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
@@ -3889,7 +3889,7 @@
         <v>41</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>211</v>
@@ -3899,7 +3899,7 @@
         <v>DirectoryConfig</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>170</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="38" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
@@ -3922,7 +3922,7 @@
         <v>17</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>211</v>
@@ -3932,7 +3932,7 @@
         <v>DirectoryListReadCall</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>170</v>
@@ -3940,25 +3940,25 @@
     </row>
     <row r="39" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="G39" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>211</v>
@@ -3968,7 +3968,7 @@
         <v>DirectoryMapReadCall</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>170</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="40" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
@@ -3985,7 +3985,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>212</v>
@@ -3994,7 +3994,7 @@
         <v>17</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>211</v>
@@ -4004,7 +4004,7 @@
         <v>DirectoryReadCall</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>170</v>
@@ -4018,7 +4018,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>12</v>
@@ -4033,7 +4033,7 @@
         <v>152</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -4062,7 +4062,7 @@
         <v>203</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>170</v>
@@ -4091,7 +4091,7 @@
         <v>205</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>170</v>
@@ -4123,7 +4123,7 @@
         <v>51</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>170</v>
@@ -4140,7 +4140,7 @@
         <v>12</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>192</v>
@@ -4158,7 +4158,7 @@
         <v>208</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>170</v>
@@ -4175,7 +4175,7 @@
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>199</v>
@@ -4184,7 +4184,7 @@
         <v>41</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>211</v>
@@ -4193,7 +4193,7 @@
         <v>210</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>170</v>
@@ -4225,7 +4225,7 @@
         <v>212</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>170</v>
@@ -4242,7 +4242,7 @@
         <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>180</v>
@@ -4260,7 +4260,7 @@
         <v>214</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>170</v>
@@ -4274,7 +4274,7 @@
         <v>247</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>12</v>
@@ -4289,21 +4289,21 @@
         <v>153</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>178</v>
@@ -4312,17 +4312,17 @@
         <v>41</v>
       </c>
       <c r="J50" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="L50" s="2" t="str">
         <f>A50</f>
         <v>GenerateCall</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>170</v>
@@ -4330,35 +4330,35 @@
     </row>
     <row r="51" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="G51" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>671</v>
-      </c>
       <c r="K51" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L51" s="2" t="str">
         <f>A51</f>
         <v>GenerateJavaCall</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>170</v>
@@ -4366,35 +4366,35 @@
     </row>
     <row r="52" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>673</v>
-      </c>
       <c r="K52" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L52" s="2" t="str">
         <f>A52</f>
         <v>GenerateJsonConfigCall</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>170</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="53" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>302</v>
@@ -4411,7 +4411,7 @@
         <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>221</v>
@@ -4420,7 +4420,7 @@
         <v>17</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>219</v>
@@ -4430,7 +4430,7 @@
         <v>GithubLinkCall</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>170</v>
@@ -4459,7 +4459,7 @@
         <v>38</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>173</v>
@@ -4476,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>199</v>
@@ -4494,7 +4494,7 @@
         <v>216</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4505,7 +4505,7 @@
         <v>247</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>12</v>
@@ -4520,7 +4520,7 @@
         <v>81</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -4549,7 +4549,7 @@
         <v>218</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>170</v>
@@ -4581,7 +4581,7 @@
         <v>222</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>170</v>
@@ -4595,7 +4595,7 @@
         <v>247</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>12</v>
@@ -4610,7 +4610,7 @@
         <v>140</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -4639,7 +4639,7 @@
         <v>92</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>170</v>
@@ -4671,7 +4671,7 @@
         <v>227</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>170</v>
@@ -4685,7 +4685,7 @@
         <v>241</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>12</v>
@@ -4700,7 +4700,7 @@
         <v>229</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>173</v>
@@ -4729,7 +4729,7 @@
         <v>230</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>173</v>
@@ -4743,7 +4743,7 @@
         <v>239</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>12</v>
@@ -4758,7 +4758,7 @@
         <v>231</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>173</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="65" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
@@ -4775,22 +4775,22 @@
         <v>12</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>232</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>170</v>
@@ -4807,7 +4807,7 @@
         <v>12</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>41</v>
@@ -4822,7 +4822,7 @@
         <v>97</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>170</v>
@@ -4839,10 +4839,10 @@
         <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>180</v>
@@ -4851,7 +4851,7 @@
         <v>41</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>232</v>
@@ -4860,7 +4860,7 @@
         <v>234</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>170</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
@@ -4877,7 +4877,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>180</v>
@@ -4886,16 +4886,16 @@
         <v>41</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>232</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>170</v>
@@ -4909,7 +4909,7 @@
         <v>247</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>12</v>
@@ -4924,7 +4924,7 @@
         <v>100</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4935,7 +4935,7 @@
         <v>247</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>12</v>
@@ -4950,7 +4950,7 @@
         <v>45</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -4958,7 +4958,7 @@
         <v>235</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>12</v>
@@ -4973,7 +4973,7 @@
         <v>235</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4987,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>192</v>
@@ -5005,7 +5005,7 @@
         <v>237</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>170</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="73" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
@@ -5022,7 +5022,7 @@
         <v>12</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>185</v>
@@ -5041,7 +5041,7 @@
         <v>ModelConfigInterface</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>170</v>
@@ -5073,7 +5073,7 @@
         <v>239</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>170</v>
@@ -5105,7 +5105,7 @@
         <v>241</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>170</v>
@@ -5137,7 +5137,7 @@
         <v>243</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>170</v>
@@ -5169,7 +5169,7 @@
         <v>245</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>170</v>
@@ -5201,7 +5201,7 @@
         <v>247</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>170</v>
@@ -5233,7 +5233,7 @@
         <v>249</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>170</v>
@@ -5262,7 +5262,7 @@
         <v>251</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>170</v>
@@ -5291,7 +5291,7 @@
         <v>154</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>173</v>
@@ -5320,7 +5320,7 @@
         <v>64</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>170</v>
@@ -5349,7 +5349,7 @@
         <v>254</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>170</v>
@@ -5381,7 +5381,7 @@
         <v>256</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>170</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="85" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
@@ -5399,7 +5399,7 @@
         <v>12</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -5408,16 +5408,16 @@
         <v>41</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>186</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N85" s="5" t="s">
         <v>170</v>
@@ -5425,31 +5425,31 @@
     </row>
     <row r="86" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="I86" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>186</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>170</v>
@@ -5481,7 +5481,7 @@
         <v>131</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>170</v>
@@ -5513,7 +5513,7 @@
         <v>259</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>170</v>
@@ -5542,7 +5542,7 @@
         <v>262</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>173</v>
@@ -5574,7 +5574,7 @@
         <v>145</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>170</v>
@@ -5603,7 +5603,7 @@
         <v>264</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>173</v>
@@ -5635,7 +5635,7 @@
         <v>221</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>170</v>
@@ -5667,7 +5667,7 @@
         <v>266</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>170</v>
@@ -5681,7 +5681,7 @@
         <v>247</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>12</v>
@@ -5696,7 +5696,7 @@
         <v>15</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -5722,7 +5722,7 @@
         <v>268</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>173</v>
@@ -5751,7 +5751,7 @@
         <v>269</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>173</v>
@@ -5783,7 +5783,7 @@
         <v>270</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>170</v>
@@ -5800,7 +5800,7 @@
         <v>12</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>221</v>
@@ -5818,7 +5818,7 @@
         <v>272</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>170</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="99" spans="1:14" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>11</v>
@@ -5841,16 +5841,16 @@
         <v>17</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>219</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>170</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="100" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
@@ -5873,16 +5873,16 @@
         <v>17</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>219</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>170</v>
@@ -5914,7 +5914,7 @@
         <v>274</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>170</v>
@@ -5946,7 +5946,7 @@
         <v>276</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>170</v>
@@ -5963,7 +5963,7 @@
         <v>12</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>178</v>
@@ -5982,7 +5982,7 @@
         <v>TemplateCall</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>170</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="104" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
@@ -5999,7 +5999,7 @@
         <v>12</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>279</v>
@@ -6008,7 +6008,7 @@
         <v>17</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>225</v>
@@ -6018,7 +6018,7 @@
         <v>TemplateDirResourceCall</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>170</v>
@@ -6035,7 +6035,7 @@
         <v>12</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>277</v>
@@ -6044,7 +6044,7 @@
         <v>17</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>225</v>
@@ -6054,7 +6054,7 @@
         <v>TemplateResourceCall</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>170</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="106" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
@@ -6071,7 +6071,7 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>279</v>
@@ -6090,7 +6090,7 @@
         <v>TemplateResourceStoreCall</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>170</v>
@@ -6107,7 +6107,7 @@
         <v>12</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>221</v>
@@ -6126,7 +6126,7 @@
         <v>TheGreetingCall</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>170</v>
@@ -6143,7 +6143,7 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>178</v>
@@ -6161,7 +6161,7 @@
         <v>281</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>170</v>
@@ -6172,13 +6172,13 @@
         <v>304</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>210</v>
@@ -6196,7 +6196,7 @@
         <v>304</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N109" s="2" t="s">
         <v>170</v>
@@ -6207,7 +6207,7 @@
         <v>307</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>12</v>
@@ -6219,7 +6219,7 @@
         <v>17</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>306</v>
@@ -6228,7 +6228,7 @@
         <v>307</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N110" s="2" t="s">
         <v>170</v>
@@ -6280,7 +6280,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -6301,7 +6301,7 @@
         <v>94</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="86" customHeight="1" x14ac:dyDescent="0.2">
@@ -6328,7 +6328,7 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="104" customHeight="1" x14ac:dyDescent="0.2">
@@ -6358,15 +6358,15 @@
         <v>256</v>
       </c>
       <c r="J3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -6387,7 +6387,7 @@
         <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -6414,12 +6414,12 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -6431,7 +6431,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -6445,7 +6445,7 @@
         <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6472,7 +6472,7 @@
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6502,7 +6502,7 @@
         <v>1000</v>
       </c>
       <c r="J8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6532,7 +6532,7 @@
         <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6562,12 +6562,12 @@
         <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -6579,20 +6579,20 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I11">
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6622,7 +6622,7 @@
         <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6652,7 +6652,7 @@
         <v>10000</v>
       </c>
       <c r="J13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6682,7 +6682,7 @@
         <v>256</v>
       </c>
       <c r="J14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6709,7 +6709,7 @@
         <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6736,7 +6736,7 @@
         <v>308</v>
       </c>
       <c r="J16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6766,7 +6766,7 @@
         <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6793,7 +6793,7 @@
         <v>312</v>
       </c>
       <c r="J18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6824,7 +6824,7 @@
         <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6854,7 +6854,7 @@
         <v>256</v>
       </c>
       <c r="J20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6884,7 +6884,7 @@
         <v>512</v>
       </c>
       <c r="J21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6915,7 +6915,7 @@
         <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6942,12 +6942,12 @@
         <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -6959,20 +6959,20 @@
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I24">
         <v>500</v>
       </c>
       <c r="J24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7000,7 +7000,7 @@
         <v>47</v>
       </c>
       <c r="J25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -7030,7 +7030,7 @@
         <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7058,7 +7058,7 @@
         <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7088,7 +7088,7 @@
         <v>1024</v>
       </c>
       <c r="J28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7118,7 +7118,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7149,7 +7149,7 @@
         <v>80</v>
       </c>
       <c r="J30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7176,7 +7176,7 @@
         <v>55</v>
       </c>
       <c r="J31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7206,12 +7206,12 @@
         <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -7223,7 +7223,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F33" t="s">
         <v>41</v>
@@ -7237,7 +7237,7 @@
         <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7267,7 +7267,7 @@
         <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7298,7 +7298,7 @@
         <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7329,7 +7329,7 @@
         <v>512</v>
       </c>
       <c r="J36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7346,7 +7346,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -7359,7 +7359,7 @@
         <v>512</v>
       </c>
       <c r="J37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7389,7 +7389,7 @@
         <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7419,7 +7419,7 @@
         <v>64</v>
       </c>
       <c r="J39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7449,7 +7449,7 @@
         <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7480,7 +7480,7 @@
         <v>16</v>
       </c>
       <c r="J41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -7507,7 +7507,7 @@
         <v>70</v>
       </c>
       <c r="J42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7537,7 +7537,7 @@
         <v>80</v>
       </c>
       <c r="J43" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7567,7 +7567,7 @@
         <v>80</v>
       </c>
       <c r="J44" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7594,7 +7594,7 @@
         <v>76</v>
       </c>
       <c r="J45" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7624,7 +7624,7 @@
         <v>80</v>
       </c>
       <c r="J46" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7651,7 +7651,7 @@
         <v>80</v>
       </c>
       <c r="J47" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7681,7 +7681,7 @@
         <v>80</v>
       </c>
       <c r="J48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7705,19 +7705,19 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="str">
-        <f>A49</f>
+        <f t="shared" ref="H49:H57" si="0">A49</f>
         <v>interfaces</v>
       </c>
       <c r="I49">
         <v>256</v>
       </c>
       <c r="J49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -7729,17 +7729,17 @@
         <v>235</v>
       </c>
       <c r="E50" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F50" t="s">
         <v>41</v>
       </c>
       <c r="H50" t="str">
-        <f>A50</f>
+        <f t="shared" si="0"/>
         <v>javaProperties</v>
       </c>
       <c r="J50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7763,14 +7763,14 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="str">
-        <f>A51</f>
+        <f t="shared" si="0"/>
         <v>jndi</v>
       </c>
       <c r="I51">
         <v>80</v>
       </c>
       <c r="J51" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7794,14 +7794,14 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="str">
-        <f>A52</f>
+        <f t="shared" si="0"/>
         <v>join</v>
       </c>
       <c r="I52">
         <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7824,14 +7824,14 @@
         <v>41</v>
       </c>
       <c r="H53" t="str">
-        <f>A53</f>
+        <f t="shared" si="0"/>
         <v>joinInverse</v>
       </c>
       <c r="I53">
         <v>80</v>
       </c>
       <c r="J53" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7848,18 +7848,18 @@
         <v>92</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="str">
-        <f>A54</f>
+        <f t="shared" si="0"/>
         <v>keepCall</v>
       </c>
       <c r="J54" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7883,14 +7883,14 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="str">
-        <f>A55</f>
+        <f t="shared" si="0"/>
         <v>key</v>
       </c>
       <c r="I55">
         <v>80</v>
       </c>
       <c r="J55" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7914,11 +7914,11 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="str">
-        <f>A56</f>
+        <f t="shared" si="0"/>
         <v>length</v>
       </c>
       <c r="J56" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7942,19 +7942,19 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="str">
-        <f>A57</f>
+        <f t="shared" si="0"/>
         <v>listParams</v>
       </c>
       <c r="I57">
         <v>80</v>
       </c>
       <c r="J57" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -7966,17 +7966,17 @@
         <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J58" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8005,7 +8005,7 @@
         <v>logLevel</v>
       </c>
       <c r="J59" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8036,7 +8036,7 @@
         <v>80</v>
       </c>
       <c r="J60" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8066,7 +8066,7 @@
         <v>80</v>
       </c>
       <c r="J61" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8097,7 +8097,7 @@
         <v>80</v>
       </c>
       <c r="J62" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8127,7 +8127,7 @@
         <v>256</v>
       </c>
       <c r="J63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8154,7 +8154,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8184,7 +8184,7 @@
         <v>512</v>
       </c>
       <c r="J65" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8214,12 +8214,12 @@
         <v>80</v>
       </c>
       <c r="J66" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -8231,62 +8231,62 @@
         <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I67">
         <v>10</v>
       </c>
       <c r="J67" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B68" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" t="str">
-        <f>A68</f>
+        <f t="shared" ref="H68:H81" si="1">A68</f>
         <v>myAnObject</v>
       </c>
       <c r="J68" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B69" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>A69</f>
@@ -8297,75 +8297,75 @@
       </c>
       <c r="G69" s="1"/>
       <c r="H69" t="str">
-        <f>A69</f>
+        <f t="shared" si="1"/>
         <v>myASubObject</v>
       </c>
       <c r="J69" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B70" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" t="str">
-        <f>A70</f>
+        <f t="shared" si="1"/>
         <v>myASubObjectList</v>
       </c>
       <c r="J70" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B71" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" t="str">
-        <f>A71</f>
+        <f t="shared" si="1"/>
         <v>myASubObjectMap</v>
       </c>
       <c r="J71" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B72" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -8374,7 +8374,7 @@
         <v>19</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>A72</f>
+        <f t="shared" ref="E72:E79" si="2">A72</f>
         <v>myBoolean</v>
       </c>
       <c r="F72" t="s">
@@ -8382,19 +8382,19 @@
       </c>
       <c r="G72" s="1"/>
       <c r="H72" t="str">
-        <f>A72</f>
+        <f t="shared" si="1"/>
         <v>myBoolean</v>
       </c>
       <c r="J72" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B73" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -8403,7 +8403,7 @@
         <v>36</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>A73</f>
+        <f t="shared" si="2"/>
         <v>myDate</v>
       </c>
       <c r="F73" t="s">
@@ -8411,19 +8411,19 @@
       </c>
       <c r="G73" s="1"/>
       <c r="H73" t="str">
-        <f>A73</f>
+        <f t="shared" si="1"/>
         <v>myDate</v>
       </c>
       <c r="J73" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B74" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -8432,7 +8432,7 @@
         <v>152</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>A74</f>
+        <f t="shared" si="2"/>
         <v>myDouble</v>
       </c>
       <c r="F74" t="s">
@@ -8440,19 +8440,19 @@
       </c>
       <c r="G74" s="1"/>
       <c r="H74" t="str">
-        <f>A74</f>
+        <f t="shared" si="1"/>
         <v>myDouble</v>
       </c>
       <c r="J74" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B75" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -8461,7 +8461,7 @@
         <v>153</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>A75</f>
+        <f t="shared" si="2"/>
         <v>myFloat</v>
       </c>
       <c r="F75" t="s">
@@ -8469,19 +8469,19 @@
       </c>
       <c r="G75" s="1"/>
       <c r="H75" t="str">
-        <f>A75</f>
+        <f t="shared" si="1"/>
         <v>myFloat</v>
       </c>
       <c r="J75" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B76" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -8490,26 +8490,26 @@
         <v>81</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>A76</f>
+        <f t="shared" si="2"/>
         <v>myInt</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
       </c>
       <c r="H76" t="str">
-        <f>A76</f>
+        <f t="shared" si="1"/>
         <v>myInt</v>
       </c>
       <c r="J76" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B77" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -8518,7 +8518,7 @@
         <v>48</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>A77</f>
+        <f t="shared" si="2"/>
         <v>myList</v>
       </c>
       <c r="F77" t="s">
@@ -8526,19 +8526,19 @@
       </c>
       <c r="G77" s="1"/>
       <c r="H77" t="str">
-        <f>A77</f>
+        <f t="shared" si="1"/>
         <v>myList</v>
       </c>
       <c r="J77" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B78" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -8547,7 +8547,7 @@
         <v>45</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>A78</f>
+        <f t="shared" si="2"/>
         <v>myLong</v>
       </c>
       <c r="F78" t="s">
@@ -8555,19 +8555,19 @@
       </c>
       <c r="G78" s="1"/>
       <c r="H78" t="str">
-        <f>A78</f>
+        <f t="shared" si="1"/>
         <v>myLong</v>
       </c>
       <c r="J78" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -8576,26 +8576,26 @@
         <v>38</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>A79</f>
+        <f t="shared" si="2"/>
         <v>myMap</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
       </c>
       <c r="H79" t="str">
-        <f>A79</f>
+        <f t="shared" si="1"/>
         <v>myMap</v>
       </c>
       <c r="J79" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B80" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -8611,19 +8611,19 @@
       </c>
       <c r="G80" s="1"/>
       <c r="H80" t="str">
-        <f>A80</f>
+        <f t="shared" si="1"/>
         <v>myObject</v>
       </c>
       <c r="J80" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B81" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -8639,14 +8639,14 @@
       </c>
       <c r="G81" s="1"/>
       <c r="H81" t="str">
-        <f>A81</f>
+        <f t="shared" si="1"/>
         <v>myString</v>
       </c>
       <c r="I81">
         <v>20</v>
       </c>
       <c r="J81" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8676,7 +8676,7 @@
         <v>80</v>
       </c>
       <c r="J82" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8706,7 +8706,7 @@
         <v>80</v>
       </c>
       <c r="J83" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8734,12 +8734,12 @@
         <v>115</v>
       </c>
       <c r="J84" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B85" t="s">
         <v>302</v>
@@ -8763,7 +8763,7 @@
         <v>noGithub</v>
       </c>
       <c r="J85" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8791,7 +8791,7 @@
         <v>116</v>
       </c>
       <c r="J86" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8819,7 +8819,7 @@
         <v>117</v>
       </c>
       <c r="J87" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8849,7 +8849,7 @@
         <v>12</v>
       </c>
       <c r="J88" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8880,7 +8880,7 @@
         <v>124</v>
       </c>
       <c r="J89" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8910,7 +8910,7 @@
         <v>15</v>
       </c>
       <c r="J90" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -8940,7 +8940,7 @@
         <v>256</v>
       </c>
       <c r="J91" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8969,12 +8969,12 @@
         <v>port</v>
       </c>
       <c r="J92" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -8986,7 +8986,7 @@
         <v>15</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F93" t="s">
         <v>41</v>
@@ -9000,12 +9000,12 @@
         <v>256</v>
       </c>
       <c r="J93" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -9017,7 +9017,7 @@
         <v>15</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F94" t="s">
         <v>41</v>
@@ -9031,12 +9031,12 @@
         <v>256</v>
       </c>
       <c r="J94" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -9048,17 +9048,17 @@
         <v>235</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J95" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9089,7 +9089,7 @@
         <v>8</v>
       </c>
       <c r="J96" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9119,7 +9119,7 @@
         <v>256</v>
       </c>
       <c r="J97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9150,7 +9150,7 @@
         <v>5</v>
       </c>
       <c r="J98" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9178,7 +9178,7 @@
         <v>130</v>
       </c>
       <c r="J99" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9208,7 +9208,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9236,7 +9236,7 @@
         <v>134</v>
       </c>
       <c r="J101" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9264,7 +9264,7 @@
         <v>135</v>
       </c>
       <c r="J102" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9292,7 +9292,7 @@
         <v>136</v>
       </c>
       <c r="J103" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9322,7 +9322,7 @@
         <v>80</v>
       </c>
       <c r="J104" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9349,7 +9349,7 @@
         <v>5</v>
       </c>
       <c r="J105" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9376,7 +9376,7 @@
         <v>139</v>
       </c>
       <c r="J106" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9406,7 +9406,7 @@
         <v>2056</v>
       </c>
       <c r="J107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9434,7 +9434,7 @@
         <v>144</v>
       </c>
       <c r="J108" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9442,7 +9442,7 @@
         <v>323</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
@@ -9464,7 +9464,7 @@
         <v>64</v>
       </c>
       <c r="J109" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9481,7 +9481,7 @@
         <v>15</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -9494,7 +9494,7 @@
         <v>80</v>
       </c>
       <c r="J110" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9525,7 +9525,7 @@
         <v>2048</v>
       </c>
       <c r="J111" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -9552,12 +9552,12 @@
         <v>326</v>
       </c>
       <c r="J112" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -9583,12 +9583,12 @@
         <v>1000</v>
       </c>
       <c r="J113" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -9600,20 +9600,20 @@
         <v>15</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I114">
         <v>500</v>
       </c>
       <c r="J114" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9643,7 +9643,7 @@
         <v>256</v>
       </c>
       <c r="J115" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -9673,12 +9673,12 @@
         <v>80</v>
       </c>
       <c r="J116" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>11</v>
@@ -9690,23 +9690,23 @@
         <v>15</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I117">
         <v>80</v>
       </c>
       <c r="J117" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="153" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>151</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
@@ -9733,7 +9733,7 @@
         <v>80</v>
       </c>
       <c r="J118" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9764,7 +9764,7 @@
         <v>5</v>
       </c>
       <c r="J119" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9792,7 +9792,7 @@
         <v>158</v>
       </c>
       <c r="J120" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -9818,7 +9818,7 @@
         <v>160</v>
       </c>
       <c r="J121" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9848,7 +9848,7 @@
         <v>50</v>
       </c>
       <c r="J122" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9878,7 +9878,7 @@
         <v>20000</v>
       </c>
       <c r="J123" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -9907,7 +9907,7 @@
         <v>80</v>
       </c>
       <c r="J124" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9937,7 +9937,7 @@
         <v>256</v>
       </c>
       <c r="J125" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -10557,14 +10557,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DAA45D-E47E-DC4B-B605-F5E89A10DC22}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10588,13 +10589,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>72</v>
@@ -10624,15 +10625,15 @@
         <v>14</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -10641,14 +10642,14 @@
         <v>329</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>A2</f>
         <v>ALLImport.tpl</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>17</v>
@@ -10657,15 +10658,15 @@
         <v>340</v>
       </c>
       <c r="N2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -10674,14 +10675,14 @@
         <v>329</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>A3</f>
         <v>ALLInstanceVars.tpl</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>17</v>
@@ -10690,15 +10691,15 @@
         <v>340</v>
       </c>
       <c r="N3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -10707,14 +10708,14 @@
         <v>329</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>A4</f>
         <v>ALLSetter.tpl</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>17</v>
@@ -10723,15 +10724,15 @@
         <v>340</v>
       </c>
       <c r="N4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -10740,14 +10741,14 @@
         <v>329</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>A5</f>
         <v>ALLStaticNames.tpl</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>17</v>
@@ -10756,18 +10757,18 @@
         <v>340</v>
       </c>
       <c r="N5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -10776,13 +10777,13 @@
         <v>329</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>17</v>
@@ -10794,15 +10795,15 @@
         <v>345</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -10811,13 +10812,13 @@
         <v>329</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>17</v>
@@ -10829,18 +10830,18 @@
         <v>345</v>
       </c>
       <c r="N7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -10849,13 +10850,13 @@
         <v>329</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>17</v>
@@ -10864,12 +10865,12 @@
         <v>330</v>
       </c>
       <c r="N8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>304</v>
@@ -10884,13 +10885,13 @@
         <v>329</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>17</v>
@@ -10902,15 +10903,15 @@
         <v>345</v>
       </c>
       <c r="N9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -10919,14 +10920,14 @@
         <v>329</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>A10</f>
         <v>BEANCreate.tpl</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>17</v>
@@ -10935,15 +10936,15 @@
         <v>340</v>
       </c>
       <c r="N10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>302</v>
@@ -10955,13 +10956,13 @@
         <v>329</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>17</v>
@@ -10973,12 +10974,12 @@
         <v>332</v>
       </c>
       <c r="N11" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>302</v>
@@ -10990,13 +10991,13 @@
         <v>329</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>17</v>
@@ -11008,15 +11009,15 @@
         <v>332</v>
       </c>
       <c r="N12" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -11025,13 +11026,13 @@
         <v>329</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>17</v>
@@ -11040,15 +11041,15 @@
         <v>330</v>
       </c>
       <c r="N13" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -11057,14 +11058,14 @@
         <v>329</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>A14</f>
         <v>CONFIGConstructor.tpl</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>17</v>
@@ -11073,15 +11074,15 @@
         <v>340</v>
       </c>
       <c r="N14" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -11090,14 +11091,14 @@
         <v>329</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>A15</f>
         <v>CONFIGCreate.tpl</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>17</v>
@@ -11106,15 +11107,15 @@
         <v>340</v>
       </c>
       <c r="N15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>302</v>
@@ -11126,13 +11127,13 @@
         <v>329</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>17</v>
@@ -11144,12 +11145,12 @@
         <v>332</v>
       </c>
       <c r="N16" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>302</v>
@@ -11164,10 +11165,10 @@
         <v>349</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>17</v>
@@ -11179,12 +11180,12 @@
         <v>332</v>
       </c>
       <c r="N17" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>302</v>
@@ -11199,10 +11200,10 @@
         <v>349</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>17</v>
@@ -11214,12 +11215,12 @@
         <v>332</v>
       </c>
       <c r="N18" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>302</v>
@@ -11234,10 +11235,10 @@
         <v>349</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>17</v>
@@ -11249,12 +11250,12 @@
         <v>332</v>
       </c>
       <c r="N19" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>304</v>
@@ -11269,13 +11270,13 @@
         <v>329</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>17</v>
@@ -11287,30 +11288,30 @@
         <v>348</v>
       </c>
       <c r="N20" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>41</v>
@@ -11319,30 +11320,30 @@
         <v>340</v>
       </c>
       <c r="N21" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>41</v>
@@ -11351,30 +11352,30 @@
         <v>340</v>
       </c>
       <c r="N22" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>41</v>
@@ -11383,30 +11384,30 @@
         <v>340</v>
       </c>
       <c r="N23" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>41</v>
@@ -11415,30 +11416,30 @@
         <v>340</v>
       </c>
       <c r="N24" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>41</v>
@@ -11447,30 +11448,30 @@
         <v>340</v>
       </c>
       <c r="N25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>41</v>
@@ -11479,30 +11480,30 @@
         <v>340</v>
       </c>
       <c r="N26" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>41</v>
@@ -11511,30 +11512,30 @@
         <v>340</v>
       </c>
       <c r="N27" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>41</v>
@@ -11543,12 +11544,12 @@
         <v>340</v>
       </c>
       <c r="N28" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>302</v>
@@ -11563,10 +11564,10 @@
         <v>349</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>17</v>
@@ -11578,10 +11579,10 @@
         <v>332</v>
       </c>
       <c r="N29" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>333</v>
       </c>
@@ -11589,7 +11590,7 @@
         <v>304</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>12</v>
@@ -11613,15 +11614,15 @@
         <v>330</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>302</v>
@@ -11633,13 +11634,13 @@
         <v>329</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>17</v>
@@ -11651,12 +11652,12 @@
         <v>332</v>
       </c>
       <c r="N31" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>302</v>
@@ -11668,13 +11669,13 @@
         <v>329</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>17</v>
@@ -11686,18 +11687,18 @@
         <v>332</v>
       </c>
       <c r="N32" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>12</v>
@@ -11706,13 +11707,13 @@
         <v>329</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>17</v>
@@ -11721,18 +11722,18 @@
         <v>330</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>12</v>
@@ -11741,13 +11742,13 @@
         <v>329</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>17</v>
@@ -11756,18 +11757,18 @@
         <v>330</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>12</v>
@@ -11776,13 +11777,13 @@
         <v>329</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>17</v>
@@ -11791,18 +11792,18 @@
         <v>330</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>12</v>
@@ -11811,13 +11812,13 @@
         <v>329</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>17</v>
@@ -11826,18 +11827,18 @@
         <v>330</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>12</v>
@@ -11846,13 +11847,13 @@
         <v>329</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>17</v>
@@ -11861,15 +11862,15 @@
         <v>330</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>302</v>
@@ -11884,10 +11885,10 @@
         <v>331</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>17</v>
@@ -11899,12 +11900,12 @@
         <v>332</v>
       </c>
       <c r="N38" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>302</v>
@@ -11919,10 +11920,10 @@
         <v>331</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>17</v>
@@ -11934,15 +11935,15 @@
         <v>332</v>
       </c>
       <c r="N39" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>302</v>
@@ -11954,13 +11955,13 @@
         <v>329</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>17</v>
@@ -11972,12 +11973,12 @@
         <v>332</v>
       </c>
       <c r="N40" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>302</v>
@@ -11989,13 +11990,13 @@
         <v>329</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>17</v>
@@ -12007,18 +12008,18 @@
         <v>332</v>
       </c>
       <c r="N41" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>335</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>329</v>
@@ -12042,18 +12043,18 @@
         <v>337</v>
       </c>
       <c r="N42" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>339</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>329</v>
@@ -12074,15 +12075,15 @@
         <v>340</v>
       </c>
       <c r="N43" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>12</v>
@@ -12091,14 +12092,14 @@
         <v>329</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f>A44</f>
+        <f t="shared" ref="G44:G49" si="0">A44</f>
         <v>Hibernate.xml.tpl</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>17</v>
@@ -12107,15 +12108,15 @@
         <v>330</v>
       </c>
       <c r="N44" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>12</v>
@@ -12124,10 +12125,10 @@
         <v>329</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f>A45</f>
+        <f t="shared" si="0"/>
         <v>INTERFACECreate.tpl</v>
       </c>
       <c r="J45" s="2" t="s">
@@ -12137,15 +12138,15 @@
         <v>330</v>
       </c>
       <c r="N45" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>12</v>
@@ -12154,14 +12155,14 @@
         <v>329</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f>A46</f>
+        <f t="shared" si="0"/>
         <v>INTERFACESetter.tpl</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>17</v>
@@ -12170,15 +12171,15 @@
         <v>330</v>
       </c>
       <c r="N46" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>12</v>
@@ -12187,14 +12188,14 @@
         <v>329</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INTERFACEStaticNames.tpl</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="G47" s="2" t="str">
-        <f>A47</f>
-        <v>INTERFACEStaticNames.tpl</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>17</v>
@@ -12203,15 +12204,15 @@
         <v>330</v>
       </c>
       <c r="N47" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>12</v>
@@ -12220,14 +12221,14 @@
         <v>329</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G48" s="2" t="str">
-        <f>A48</f>
+        <f t="shared" si="0"/>
         <v>JavaBuilder.tpl</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>17</v>
@@ -12236,18 +12237,18 @@
         <v>330</v>
       </c>
       <c r="L48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N48" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>12</v>
@@ -12256,14 +12257,14 @@
         <v>329</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f>A49</f>
+        <f t="shared" si="0"/>
         <v>JsonBuilder.tpl</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>17</v>
@@ -12272,15 +12273,15 @@
         <v>330</v>
       </c>
       <c r="L49" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N49" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>302</v>
@@ -12292,13 +12293,13 @@
         <v>329</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>17</v>
@@ -12310,18 +12311,18 @@
         <v>345</v>
       </c>
       <c r="N50" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>342</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>12</v>
@@ -12330,7 +12331,7 @@
         <v>329</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>342</v>
@@ -12348,30 +12349,30 @@
         <v>337</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>41</v>
@@ -12383,33 +12384,33 @@
         <v>337</v>
       </c>
       <c r="N52" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>41</v>
@@ -12421,12 +12422,12 @@
         <v>337</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>302</v>
@@ -12438,13 +12439,13 @@
         <v>329</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>17</v>
@@ -12456,12 +12457,12 @@
         <v>345</v>
       </c>
       <c r="N54" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>302</v>
@@ -12473,13 +12474,13 @@
         <v>329</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>17</v>
@@ -12488,15 +12489,15 @@
         <v>330</v>
       </c>
       <c r="L55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N55" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>302</v>
@@ -12508,13 +12509,13 @@
         <v>329</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G56" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>17</v>
@@ -12523,15 +12524,15 @@
         <v>330</v>
       </c>
       <c r="L56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N56" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>302</v>
@@ -12543,13 +12544,13 @@
         <v>329</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>17</v>
@@ -12558,15 +12559,15 @@
         <v>330</v>
       </c>
       <c r="L57" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N57" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>302</v>
@@ -12578,13 +12579,13 @@
         <v>329</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="H58" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>17</v>
@@ -12593,15 +12594,15 @@
         <v>330</v>
       </c>
       <c r="L58" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N58" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>302</v>
@@ -12613,13 +12614,13 @@
         <v>329</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>17</v>
@@ -12628,13 +12629,13 @@
         <v>330</v>
       </c>
       <c r="L59" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N59" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>344</v>
       </c>
@@ -12648,7 +12649,7 @@
         <v>329</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>344</v>
@@ -12666,12 +12667,12 @@
         <v>345</v>
       </c>
       <c r="N60" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>302</v>
@@ -12702,10 +12703,10 @@
         <v>345</v>
       </c>
       <c r="N61" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>347</v>
       </c>
@@ -12719,7 +12720,7 @@
         <v>329</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>347</v>
@@ -12737,12 +12738,12 @@
         <v>348</v>
       </c>
       <c r="N62" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>302</v>
@@ -12754,14 +12755,14 @@
         <v>329</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G63" s="2" t="str">
         <f>A63</f>
         <v>table.tpl</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>17</v>
@@ -12770,10 +12771,10 @@
         <v>330</v>
       </c>
       <c r="L63" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -12781,25 +12782,25 @@
         <v>351</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C64" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>352</v>
+        <v>719</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>351</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>41</v>
@@ -12811,30 +12812,30 @@
         <v>337</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C65" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>352</v>
+        <v>719</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>41</v>
@@ -12843,30 +12844,30 @@
         <v>330</v>
       </c>
       <c r="N65" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C66" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>352</v>
+        <v>719</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>41</v>
@@ -12875,33 +12876,33 @@
         <v>330</v>
       </c>
       <c r="N66" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>352</v>
+        <v>719</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>41</v>
@@ -12913,15 +12914,15 @@
         <v>337</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>302</v>
@@ -12936,10 +12937,10 @@
         <v>349</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>17</v>
@@ -12951,12 +12952,12 @@
         <v>332</v>
       </c>
       <c r="N68" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>302</v>
@@ -12968,13 +12969,13 @@
         <v>329</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>344</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>17</v>
@@ -12983,30 +12984,30 @@
         <v>330</v>
       </c>
       <c r="N69" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C70" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>41</v>
@@ -13018,11 +13019,17 @@
         <v>332</v>
       </c>
       <c r="N70" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M70" xr:uid="{3FE138CF-10D9-634A-87B2-6326254281CF}"/>
+  <autoFilter ref="A1:M70" xr:uid="{3FE138CF-10D9-634A-87B2-6326254281CF}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="$[@TMP]"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:N70">
     <sortCondition ref="A2:A70"/>
   </sortState>
@@ -13052,13 +13059,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -13076,12 +13083,12 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>286</v>
@@ -13093,18 +13100,18 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>286</v>
@@ -13116,33 +13123,33 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -13156,13 +13163,13 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -13200,13 +13207,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -13218,7 +13225,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>325</v>
@@ -13232,7 +13239,7 @@
     </row>
     <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>291</v>
@@ -13244,24 +13251,24 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="K2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>287</v>
@@ -13270,24 +13277,24 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>291</v>
@@ -13299,16 +13306,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="K4" t="s">
         <v>345</v>
@@ -13316,28 +13323,28 @@
     </row>
     <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>287</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>573</v>
-      </c>
       <c r="K5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/builder/src/main/resources/eo.xlsx
+++ b/builder/src/main/resources/eo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werner.diwischek/dev/elasticobjects/builder/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ADE5C3-90A5-4E48-9A28-25A2A523DAE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F032FB2F-EC25-4D42-ACB6-63E4390BACB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="600" windowWidth="28240" windowHeight="17100" activeTab="2" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="719">
   <si>
     <t>naturalId</t>
   </si>
@@ -577,9 +577,6 @@
     <t xml:space="preserve">Basic implementation for calls. </t>
   </si>
   <si>
-    <t>CallResource</t>
-  </si>
-  <si>
     <t xml:space="preserve">Super class for class using ResourceConfigs with permission rights. </t>
   </si>
   <si>
@@ -676,37 +673,19 @@
     <t>FileReadCall</t>
   </si>
   <si>
-    <t xml:space="preserve">Defines a file read access. </t>
-  </si>
-  <si>
     <t>FileWriteCall</t>
   </si>
   <si>
-    <t xml:space="preserve">Defines a file write access. </t>
-  </si>
-  <si>
     <t>HostConfig</t>
   </si>
   <si>
     <t xml:space="preserve">Basic host definition for file or db cache. </t>
   </si>
   <si>
-    <t>JsonAsStringCall</t>
-  </si>
-  <si>
     <t>org.fluentcodes.projects.elasticobjects.calls.values</t>
   </si>
   <si>
-    <t>For setting the string representation of eo.</t>
-  </si>
-  <si>
     <t>SimpleValueFromEoCall</t>
-  </si>
-  <si>
-    <t>JsonReadCall</t>
-  </si>
-  <si>
-    <t>Calls with configuration {@link JsonConfig} to read a file write its content to EO on targetPath.</t>
   </si>
   <si>
     <t>org.fluentcodes.projects.elasticobjects</t>
@@ -1401,9 +1380,6 @@
   </si>
   <si>
     <t>Defines the parameter listParams.</t>
-  </si>
-  <si>
-    <t>["listParams"]</t>
   </si>
   <si>
     <t>["port","protocol","hostName","user","password","configModelKey"]</t>
@@ -2055,9 +2031,6 @@
     <t>org.fluentcodes.projects.elasticobjects.domain.test</t>
   </si>
   <si>
-    <t>[  "listParams","rowHead",  "rowStart",  "rowEnd",  "length",  "filter", "colKeys"]</t>
-  </si>
-  <si>
     <t>DirectoryListReadCall</t>
   </si>
   <si>
@@ -2083,18 +2056,12 @@
     <t>Directory access for web/faq for fileNames matching *.html</t>
   </si>
   <si>
-    <t>["classPath"]</t>
-  </si>
-  <si>
     <t>faq</t>
   </si>
   <si>
     <t>elastic-objects-test</t>
   </si>
   <si>
-    <t>[  "keepCall","configKey","fileName"]</t>
-  </si>
-  <si>
     <t>buildPath</t>
   </si>
   <si>
@@ -2129,9 +2096,6 @@
   </si>
   <si>
     <t>Control directive to load ModelConfig and FieldConfig data and call GenerateJavaCall</t>
-  </si>
-  <si>
-    <t>Control directive to load a configuration sheet defined by configType in a hierarchical way and  call GenerateJsonCall</t>
   </si>
   <si>
     <t>{  "execute": "superadmin"}</t>
@@ -2282,6 +2246,39 @@
   </si>
   <si>
     <t xml:space="preserve"> =&gt;[@TMP].</t>
+  </si>
+  <si>
+    <t>[  "keepCall","configKey"]</t>
+  </si>
+  <si>
+    <t>[  "fileName"]</t>
+  </si>
+  <si>
+    <t>ResourceCall</t>
+  </si>
+  <si>
+    <t>ResourceReadCall</t>
+  </si>
+  <si>
+    <t>ResourceWriteCall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super class for class using ResourceConfigs with READ right. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super class for class using ResourceConfigs with Write right. </t>
+  </si>
+  <si>
+    <t>["classPath", "content"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write content or serialized eo to a file. </t>
+  </si>
+  <si>
+    <t>Read content of a file. Put it to targetPath in in when targetPath not equals "_asString".</t>
+  </si>
+  <si>
+    <t>Control directives to load a configuration sheet defined by configType in a hierarchical way and  call GenerateJsonCall.</t>
   </si>
 </sst>
 </file>
@@ -2670,10 +2667,10 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J104" sqref="J104"/>
+      <selection pane="bottomRight" activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2699,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>55</v>
@@ -2732,7 +2729,7 @@
         <v>105</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>14</v>
@@ -2761,7 +2758,7 @@
         <v>167</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>170</v>
@@ -2769,31 +2766,31 @@
     </row>
     <row r="3" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C3" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>170</v>
@@ -2804,10 +2801,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -2822,7 +2819,7 @@
         <v>48</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="177" customHeight="1" x14ac:dyDescent="0.2">
@@ -2830,7 +2827,7 @@
         <v>172</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -2848,7 +2845,7 @@
         <v>172</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>173</v>
@@ -2856,31 +2853,31 @@
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C6" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>170</v>
@@ -2888,7 +2885,7 @@
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2897,23 +2894,23 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>A7</f>
         <v>Base</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>170</v>
@@ -2921,7 +2918,7 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2930,23 +2927,23 @@
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>A8</f>
         <v>BaseImpl</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>170</v>
@@ -2957,10 +2954,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -2975,7 +2972,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2989,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>41</v>
@@ -3004,7 +3001,7 @@
         <v>175</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>170</v>
@@ -3021,13 +3018,13 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>41</v>
@@ -3038,11 +3035,12 @@
       <c r="K11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>178</v>
+      <c r="L11" s="2" t="str">
+        <f>A11</f>
+        <v>CallImpl</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>170</v>
@@ -3050,7 +3048,7 @@
     </row>
     <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>180</v>
+        <v>710</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -3059,7 +3057,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>178</v>
@@ -3068,16 +3066,17 @@
         <v>41</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>180</v>
+      <c r="L12" s="2" t="str">
+        <f>A12</f>
+        <v>ResourceCall</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>170</v>
@@ -3085,10 +3084,7 @@
     </row>
     <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>243</v>
+        <v>711</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -3096,25 +3092,35 @@
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I13" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>713</v>
+      </c>
       <c r="K13" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f>A13</f>
+        <v>ResourceReadCall</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>183</v>
+        <v>712</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -3122,28 +3128,38 @@
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>184</v>
+        <v>714</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f>A14</f>
+        <v>ResourceWriteCall</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -3151,34 +3167,26 @@
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="I15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f>A15</f>
+        <v>Class</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -3186,34 +3194,29 @@
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>284</v>
+        <v>183</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>283</v>
+        <v>168</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f>A16</f>
+        <v>Condition</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
@@ -3222,33 +3225,34 @@
         <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>393</v>
+        <v>511</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>191</v>
+        <v>638</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f>A17</f>
+        <v>Config</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="204" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
@@ -3257,28 +3261,26 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>185</v>
+        <v>385</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>645</v>
+        <v>178</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f>A18</f>
+        <v>ConfigAsFlatListCall</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>170</v>
@@ -3286,7 +3288,7 @@
     </row>
     <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
@@ -3295,58 +3297,65 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f>A19</f>
+        <v>ConfigCall</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>593</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>594</v>
+        <v>637</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>597</v>
+        <v>192</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="L20" s="2" t="str">
         <f>A20</f>
-        <v>ConfigLinkCall</v>
+        <v>ConfigImpl</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>170</v>
@@ -3354,7 +3363,7 @@
     </row>
     <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
@@ -3363,7 +3372,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>178</v>
@@ -3372,184 +3381,186 @@
         <v>17</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
+      </c>
+      <c r="L21" s="2" t="str">
+        <f>A21</f>
+        <v>ConfigKeysCall</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22" s="2" t="str">
+        <f>A22</f>
+        <v>ConfigLinkCall</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="2" t="s">
+      <c r="K24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="L25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="K26" s="2" t="s">
-        <v>447</v>
+        <v>188</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>444</v>
+        <v>200</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>701</v>
+        <v>436</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
@@ -3557,24 +3568,26 @@
       <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E27" s="2" t="s">
+        <v>439</v>
+      </c>
       <c r="G27" s="2" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>261</v>
+        <v>692</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L27" s="2" t="str">
-        <f>A27</f>
-        <v>CsvSimpleReadCall</v>
+        <v>225</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>170</v>
@@ -3582,32 +3595,31 @@
     </row>
     <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>702</v>
+        <v>437</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>438</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>703</v>
+        <v>444</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L28" s="2" t="str">
-        <f>A28</f>
-        <v>CsvSimpleWriteCall</v>
+        <v>440</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>170</v>
@@ -3615,31 +3627,32 @@
     </row>
     <row r="29" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>448</v>
+        <v>689</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>445</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>449</v>
+        <v>227</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>450</v>
+        <v>254</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>448</v>
+        <v>225</v>
+      </c>
+      <c r="L29" s="2" t="str">
+        <f>A29</f>
+        <v>CsvSimpleReadCall</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>170</v>
@@ -3647,60 +3660,64 @@
     </row>
     <row r="30" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>247</v>
+        <v>690</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>405</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G30" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="I30" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>36</v>
+        <v>225</v>
+      </c>
+      <c r="L30" s="2" t="str">
+        <f>A30</f>
+        <v>CsvSimpleWriteCall</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>286</v>
+        <v>441</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>287</v>
+        <v>438</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>216</v>
+        <v>442</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>288</v>
+        <v>443</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>289</v>
+        <v>440</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>286</v>
+        <v>441</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>170</v>
@@ -3708,66 +3725,60 @@
     </row>
     <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>290</v>
+        <v>36</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="I32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>706</v>
+        <v>41</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>289</v>
+        <v>171</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>290</v>
+        <v>36</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>170</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>170</v>
@@ -3775,31 +3786,31 @@
     </row>
     <row r="34" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>170</v>
@@ -3807,34 +3818,34 @@
     </row>
     <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>170</v>
@@ -3842,105 +3853,106 @@
     </row>
     <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G36" s="2" t="s">
+        <v>710</v>
+      </c>
       <c r="I36" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>297</v>
+        <v>693</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>600</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E37" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="G37" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>602</v>
+        <v>288</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L37" s="2" t="str">
-        <f>A37</f>
-        <v>DirectoryConfig</v>
+        <v>282</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>650</v>
+        <v>289</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="I38" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>651</v>
+        <v>290</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L38" s="2" t="str">
-        <f>A38</f>
-        <v>DirectoryListReadCall</v>
+        <v>282</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>679</v>
+        <v>592</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
@@ -3948,35 +3960,32 @@
       <c r="D39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>680</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>650</v>
+        <v>209</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>681</v>
+        <v>594</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L39" s="2" t="str">
         <f>A39</f>
-        <v>DirectoryMapReadCall</v>
+        <v>DirectoryConfig</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>598</v>
+        <v>641</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
@@ -3984,61 +3993,68 @@
       <c r="D40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>599</v>
+        <v>642</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L40" s="2" t="str">
         <f>A40</f>
-        <v>DirectoryReadCall</v>
+        <v>DirectoryListReadCall</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>247</v>
+        <v>667</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>405</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E41" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>641</v>
+      </c>
       <c r="I41" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>669</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>152</v>
+        <v>210</v>
+      </c>
+      <c r="L41" s="2" t="str">
+        <f>A41</f>
+        <v>DirectoryMapReadCall</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>203</v>
+        <v>590</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
@@ -4046,23 +4062,27 @@
       <c r="D42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>183</v>
+      <c r="E42" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>204</v>
+        <v>591</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
+      </c>
+      <c r="L42" s="2" t="str">
+        <f>A42</f>
+        <v>DirectoryReadCall</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>170</v>
@@ -4070,10 +4090,13 @@
     </row>
     <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>205</v>
+        <v>152</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>398</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>12</v>
@@ -4081,28 +4104,19 @@
       <c r="I43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="K43" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
@@ -4110,28 +4124,31 @@
       <c r="D44" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F44" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="I44" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>11</v>
@@ -4139,26 +4156,20 @@
       <c r="D45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="I45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>170</v>
@@ -4166,7 +4177,10 @@
     </row>
     <row r="46" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>210</v>
+        <v>51</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
@@ -4174,34 +4188,28 @@
       <c r="D46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="I46" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>603</v>
+        <v>206</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
@@ -4209,23 +4217,26 @@
       <c r="D47" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E47" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="G47" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>170</v>
@@ -4233,7 +4244,7 @@
     </row>
     <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
@@ -4242,25 +4253,25 @@
         <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>658</v>
+        <v>392</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>215</v>
+        <v>595</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>170</v>
@@ -4268,133 +4279,128 @@
     </row>
     <row r="49" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>405</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G49" s="2" t="s">
+        <v>711</v>
+      </c>
       <c r="I49" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>717</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>664</v>
+        <v>212</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>358</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>665</v>
+        <v>715</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>178</v>
+        <v>712</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>666</v>
+        <v>716</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="L50" s="2" t="str">
-        <f>A50</f>
-        <v>GenerateCall</v>
+        <v>210</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>668</v>
+        <v>153</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="I51" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>670</v>
-      </c>
       <c r="K51" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="L51" s="2" t="str">
-        <f>A51</f>
-        <v>GenerateJavaCall</v>
+        <v>174</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>170</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>710</v>
+        <v>653</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>664</v>
+        <v>178</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="L52" s="2" t="str">
         <f>A52</f>
-        <v>GenerateJsonConfigCall</v>
+        <v>GenerateCall</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>170</v>
@@ -4402,110 +4408,121 @@
     </row>
     <row r="53" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>594</v>
+        <v>657</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>595</v>
+        <v>658</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>221</v>
+        <v>653</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>596</v>
+        <v>659</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>219</v>
+        <v>656</v>
       </c>
       <c r="L53" s="2" t="str">
         <f>A53</f>
-        <v>GithubLinkCall</v>
+        <v>GenerateJavaCall</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>241</v>
+        <v>698</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E54" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>653</v>
+      </c>
       <c r="I54" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J54" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="K54" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>38</v>
+        <v>656</v>
+      </c>
+      <c r="L54" s="2" t="str">
+        <f>A54</f>
+        <v>GenerateJsonConfigCall</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="I55" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>217</v>
+        <v>588</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="L55" s="2" t="str">
+        <f>A55</f>
+        <v>GithubLinkCall</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>405</v>
+        <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>12</v>
@@ -4514,18 +4531,21 @@
         <v>41</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
@@ -4533,58 +4553,52 @@
       <c r="D57" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E57" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="G57" s="2" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>222</v>
+        <v>81</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>398</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="I58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>170</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4592,10 +4606,10 @@
         <v>140</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>12</v>
@@ -4604,13 +4618,13 @@
         <v>41</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>140</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -4618,7 +4632,7 @@
         <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
@@ -4630,16 +4644,16 @@
         <v>41</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>92</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>170</v>
@@ -4647,7 +4661,7 @@
     </row>
     <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
@@ -4656,22 +4670,22 @@
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>168</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>170</v>
@@ -4679,13 +4693,13 @@
     </row>
     <row r="62" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>12</v>
@@ -4697,10 +4711,10 @@
         <v>171</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>173</v>
@@ -4708,10 +4722,10 @@
     </row>
     <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
@@ -4726,10 +4740,10 @@
         <v>171</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>173</v>
@@ -4737,13 +4751,13 @@
     </row>
     <row r="64" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>12</v>
@@ -4755,10 +4769,10 @@
         <v>171</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>173</v>
@@ -4766,7 +4780,7 @@
     </row>
     <row r="65" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
@@ -4775,22 +4789,22 @@
         <v>12</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>649</v>
+        <v>400</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>170</v>
@@ -4807,22 +4821,22 @@
         <v>12</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>97</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>170</v>
@@ -4830,7 +4844,7 @@
     </row>
     <row r="67" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
@@ -4838,29 +4852,26 @@
       <c r="D67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>180</v>
+        <v>711</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>170</v>
@@ -4868,7 +4879,7 @@
     </row>
     <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
@@ -4876,26 +4887,26 @@
       <c r="D68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>455</v>
+      <c r="F68" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>180</v>
+        <v>712</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>170</v>
@@ -4906,10 +4917,10 @@
         <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>12</v>
@@ -4918,13 +4929,13 @@
         <v>41</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>100</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4932,10 +4943,10 @@
         <v>45</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>12</v>
@@ -4950,15 +4961,15 @@
         <v>45</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>12</v>
@@ -4970,15 +4981,15 @@
         <v>171</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>11</v>
@@ -4987,25 +4998,25 @@
         <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>170</v>
@@ -5013,7 +5024,7 @@
     </row>
     <row r="73" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
@@ -5022,26 +5033,26 @@
         <v>12</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G73" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="L73" s="2" t="str">
         <f>A73</f>
         <v>ModelConfigInterface</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>170</v>
@@ -5049,7 +5060,7 @@
     </row>
     <row r="74" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>11</v>
@@ -5058,22 +5069,22 @@
         <v>12</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>170</v>
@@ -5081,7 +5092,7 @@
     </row>
     <row r="75" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>11</v>
@@ -5090,22 +5101,22 @@
         <v>12</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>170</v>
@@ -5113,7 +5124,7 @@
     </row>
     <row r="76" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>11</v>
@@ -5122,22 +5133,22 @@
         <v>12</v>
       </c>
       <c r="G76" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="K76" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>170</v>
@@ -5145,7 +5156,7 @@
     </row>
     <row r="77" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>11</v>
@@ -5154,22 +5165,22 @@
         <v>12</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>170</v>
@@ -5177,7 +5188,7 @@
     </row>
     <row r="78" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>11</v>
@@ -5186,22 +5197,22 @@
         <v>12</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>170</v>
@@ -5209,7 +5220,7 @@
     </row>
     <row r="79" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
@@ -5218,22 +5229,22 @@
         <v>12</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>170</v>
@@ -5241,7 +5252,7 @@
     </row>
     <row r="80" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>11</v>
@@ -5253,16 +5264,16 @@
         <v>41</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>170</v>
@@ -5273,7 +5284,7 @@
         <v>154</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
@@ -5291,7 +5302,7 @@
         <v>154</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>173</v>
@@ -5311,7 +5322,7 @@
         <v>41</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>168</v>
@@ -5320,7 +5331,7 @@
         <v>64</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>170</v>
@@ -5328,7 +5339,7 @@
     </row>
     <row r="83" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>11</v>
@@ -5340,16 +5351,16 @@
         <v>41</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>170</v>
@@ -5357,7 +5368,7 @@
     </row>
     <row r="84" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>11</v>
@@ -5366,22 +5377,22 @@
         <v>12</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>170</v>
@@ -5389,7 +5400,7 @@
     </row>
     <row r="85" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
@@ -5399,7 +5410,7 @@
         <v>12</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -5408,16 +5419,16 @@
         <v>41</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N85" s="5" t="s">
         <v>170</v>
@@ -5425,7 +5436,7 @@
     </row>
     <row r="86" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>11</v>
@@ -5434,22 +5445,22 @@
         <v>12</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>170</v>
@@ -5466,13 +5477,13 @@
         <v>12</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>176</v>
@@ -5481,7 +5492,7 @@
         <v>131</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>170</v>
@@ -5489,10 +5500,10 @@
     </row>
     <row r="88" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
@@ -5504,16 +5515,16 @@
         <v>41</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>170</v>
@@ -5521,10 +5532,10 @@
     </row>
     <row r="89" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>11</v>
@@ -5539,10 +5550,10 @@
         <v>171</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>173</v>
@@ -5553,7 +5564,7 @@
         <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>11</v>
@@ -5565,16 +5576,16 @@
         <v>41</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>145</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>170</v>
@@ -5582,10 +5593,10 @@
     </row>
     <row r="91" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>11</v>
@@ -5600,10 +5611,10 @@
         <v>174</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>173</v>
@@ -5611,7 +5622,7 @@
     </row>
     <row r="92" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>11</v>
@@ -5626,16 +5637,16 @@
         <v>17</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>170</v>
@@ -5643,7 +5654,7 @@
     </row>
     <row r="93" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>11</v>
@@ -5658,16 +5669,16 @@
         <v>17</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>170</v>
@@ -5678,10 +5689,10 @@
         <v>15</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>12</v>
@@ -5696,15 +5707,15 @@
         <v>15</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>11</v>
@@ -5719,10 +5730,10 @@
         <v>174</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>173</v>
@@ -5730,10 +5741,10 @@
     </row>
     <row r="96" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>11</v>
@@ -5748,10 +5759,10 @@
         <v>174</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>173</v>
@@ -5759,7 +5770,7 @@
     </row>
     <row r="97" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>11</v>
@@ -5768,22 +5779,22 @@
         <v>12</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>170</v>
@@ -5791,7 +5802,7 @@
     </row>
     <row r="98" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>11</v>
@@ -5800,25 +5811,25 @@
         <v>12</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>170</v>
@@ -5826,7 +5837,7 @@
     </row>
     <row r="99" spans="1:14" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>11</v>
@@ -5835,22 +5846,22 @@
         <v>12</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>170</v>
@@ -5858,7 +5869,7 @@
     </row>
     <row r="100" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
@@ -5867,22 +5878,22 @@
         <v>12</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J100" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L100" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="K100" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="M100" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>170</v>
@@ -5890,7 +5901,7 @@
     </row>
     <row r="101" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>11</v>
@@ -5899,22 +5910,22 @@
         <v>12</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>170</v>
@@ -5922,7 +5933,7 @@
     </row>
     <row r="102" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
@@ -5931,22 +5942,22 @@
         <v>12</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>170</v>
@@ -5954,7 +5965,7 @@
     </row>
     <row r="103" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
@@ -5963,7 +5974,7 @@
         <v>12</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>178</v>
@@ -5972,17 +5983,17 @@
         <v>17</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L103" s="2" t="str">
         <f>A103</f>
         <v>TemplateCall</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>170</v>
@@ -5990,7 +6001,7 @@
     </row>
     <row r="104" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
@@ -5999,26 +6010,26 @@
         <v>12</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>661</v>
+        <v>709</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L104" s="2" t="str">
         <f>A104</f>
         <v>TemplateDirResourceCall</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>170</v>
@@ -6026,7 +6037,7 @@
     </row>
     <row r="105" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
@@ -6035,26 +6046,26 @@
         <v>12</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>661</v>
+        <v>708</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L105" s="2" t="str">
         <f>A105</f>
         <v>TemplateResourceCall</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>170</v>
@@ -6062,7 +6073,7 @@
     </row>
     <row r="106" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
@@ -6071,26 +6082,26 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L106" s="2" t="str">
         <f>A106</f>
         <v>TemplateResourceStoreCall</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>170</v>
@@ -6098,35 +6109,35 @@
     </row>
     <row r="107" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L107" s="2" t="str">
         <f>A107</f>
         <v>TheGreetingCall</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>170</v>
@@ -6134,7 +6145,7 @@
     </row>
     <row r="108" spans="1:14" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>11</v>
@@ -6143,7 +6154,7 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>178</v>
@@ -6152,16 +6163,16 @@
         <v>17</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>170</v>
@@ -6169,34 +6180,34 @@
     </row>
     <row r="109" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N109" s="2" t="s">
         <v>170</v>
@@ -6204,31 +6215,31 @@
     </row>
     <row r="110" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N110" s="2" t="s">
         <v>170</v>
@@ -6280,7 +6291,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -6301,7 +6312,7 @@
         <v>94</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="86" customHeight="1" x14ac:dyDescent="0.2">
@@ -6328,7 +6339,7 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="104" customHeight="1" x14ac:dyDescent="0.2">
@@ -6358,15 +6369,15 @@
         <v>256</v>
       </c>
       <c r="J3" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -6387,7 +6398,7 @@
         <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -6414,12 +6425,12 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -6431,7 +6442,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -6445,7 +6456,7 @@
         <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6472,7 +6483,7 @@
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6502,7 +6513,7 @@
         <v>1000</v>
       </c>
       <c r="J8" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6532,7 +6543,7 @@
         <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6562,12 +6573,12 @@
         <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -6579,20 +6590,20 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="I11">
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6622,7 +6633,7 @@
         <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6652,7 +6663,7 @@
         <v>10000</v>
       </c>
       <c r="J13" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6682,7 +6693,7 @@
         <v>256</v>
       </c>
       <c r="J14" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6709,42 +6720,42 @@
         <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F16" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="J16" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -6753,47 +6764,47 @@
         <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F17" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I17">
         <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F18" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="J18" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6824,7 +6835,7 @@
         <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6854,7 +6865,7 @@
         <v>256</v>
       </c>
       <c r="J20" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6884,15 +6895,15 @@
         <v>512</v>
       </c>
       <c r="J21" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -6909,13 +6920,13 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I22">
         <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6942,12 +6953,12 @@
         <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -6959,20 +6970,20 @@
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="I24">
         <v>500</v>
       </c>
       <c r="J24" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7000,7 +7011,7 @@
         <v>47</v>
       </c>
       <c r="J25" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -7030,7 +7041,7 @@
         <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7058,15 +7069,15 @@
         <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -7075,20 +7086,20 @@
         <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F28" t="s">
         <v>41</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I28">
         <v>1024</v>
       </c>
       <c r="J28" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7118,7 +7129,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7149,7 +7160,7 @@
         <v>80</v>
       </c>
       <c r="J30" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7176,7 +7187,7 @@
         <v>55</v>
       </c>
       <c r="J31" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7206,12 +7217,12 @@
         <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -7223,7 +7234,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="F33" t="s">
         <v>41</v>
@@ -7237,7 +7248,7 @@
         <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7267,7 +7278,7 @@
         <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7298,7 +7309,7 @@
         <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7329,7 +7340,7 @@
         <v>512</v>
       </c>
       <c r="J36" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7346,7 +7357,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -7359,7 +7370,7 @@
         <v>512</v>
       </c>
       <c r="J37" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7389,7 +7400,7 @@
         <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7419,15 +7430,15 @@
         <v>64</v>
       </c>
       <c r="J39" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -7436,20 +7447,20 @@
         <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I40">
         <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7480,7 +7491,7 @@
         <v>16</v>
       </c>
       <c r="J41" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -7507,7 +7518,7 @@
         <v>70</v>
       </c>
       <c r="J42" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7537,7 +7548,7 @@
         <v>80</v>
       </c>
       <c r="J43" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7567,7 +7578,7 @@
         <v>80</v>
       </c>
       <c r="J44" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7594,7 +7605,7 @@
         <v>76</v>
       </c>
       <c r="J45" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7624,7 +7635,7 @@
         <v>80</v>
       </c>
       <c r="J46" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7651,7 +7662,7 @@
         <v>80</v>
       </c>
       <c r="J47" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7681,7 +7692,7 @@
         <v>80</v>
       </c>
       <c r="J48" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7712,24 +7723,24 @@
         <v>256</v>
       </c>
       <c r="J49" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>449</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" t="s">
         <v>457</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" t="s">
-        <v>235</v>
-      </c>
-      <c r="E50" t="s">
-        <v>465</v>
       </c>
       <c r="F50" t="s">
         <v>41</v>
@@ -7739,15 +7750,15 @@
         <v>javaProperties</v>
       </c>
       <c r="J50" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -7756,7 +7767,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F51" t="s">
         <v>41</v>
@@ -7770,7 +7781,7 @@
         <v>80</v>
       </c>
       <c r="J51" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7801,7 +7812,7 @@
         <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7831,7 +7842,7 @@
         <v>80</v>
       </c>
       <c r="J53" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7848,7 +7859,7 @@
         <v>92</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -7859,7 +7870,7 @@
         <v>keepCall</v>
       </c>
       <c r="J54" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7890,7 +7901,7 @@
         <v>80</v>
       </c>
       <c r="J55" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7918,7 +7929,7 @@
         <v>length</v>
       </c>
       <c r="J56" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7949,12 +7960,12 @@
         <v>80</v>
       </c>
       <c r="J57" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -7966,17 +7977,17 @@
         <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="J58" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8005,7 +8016,7 @@
         <v>logLevel</v>
       </c>
       <c r="J59" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8036,7 +8047,7 @@
         <v>80</v>
       </c>
       <c r="J60" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8066,7 +8077,7 @@
         <v>80</v>
       </c>
       <c r="J61" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8097,7 +8108,7 @@
         <v>80</v>
       </c>
       <c r="J62" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8127,7 +8138,7 @@
         <v>256</v>
       </c>
       <c r="J63" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8154,7 +8165,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8184,7 +8195,7 @@
         <v>512</v>
       </c>
       <c r="J65" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8214,12 +8225,12 @@
         <v>80</v>
       </c>
       <c r="J66" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -8231,37 +8242,37 @@
         <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="I67">
         <v>10</v>
       </c>
       <c r="J67" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B68" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -8272,21 +8283,21 @@
         <v>myAnObject</v>
       </c>
       <c r="J68" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B69" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>A69</f>
@@ -8301,24 +8312,24 @@
         <v>myASubObject</v>
       </c>
       <c r="J69" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B70" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -8329,24 +8340,24 @@
         <v>myASubObjectList</v>
       </c>
       <c r="J70" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B71" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -8357,15 +8368,15 @@
         <v>myASubObjectMap</v>
       </c>
       <c r="J71" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B72" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -8386,15 +8397,15 @@
         <v>myBoolean</v>
       </c>
       <c r="J72" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B73" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -8415,15 +8426,15 @@
         <v>myDate</v>
       </c>
       <c r="J73" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B74" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -8444,15 +8455,15 @@
         <v>myDouble</v>
       </c>
       <c r="J74" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B75" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -8473,15 +8484,15 @@
         <v>myFloat</v>
       </c>
       <c r="J75" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B76" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -8501,15 +8512,15 @@
         <v>myInt</v>
       </c>
       <c r="J76" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B77" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -8530,15 +8541,15 @@
         <v>myList</v>
       </c>
       <c r="J77" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B78" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -8559,15 +8570,15 @@
         <v>myLong</v>
       </c>
       <c r="J78" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B79" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -8587,15 +8598,15 @@
         <v>myMap</v>
       </c>
       <c r="J79" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B80" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -8615,15 +8626,15 @@
         <v>myObject</v>
       </c>
       <c r="J80" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B81" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -8646,7 +8657,7 @@
         <v>20</v>
       </c>
       <c r="J81" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8676,7 +8687,7 @@
         <v>80</v>
       </c>
       <c r="J82" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8706,7 +8717,7 @@
         <v>80</v>
       </c>
       <c r="J83" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8734,15 +8745,15 @@
         <v>115</v>
       </c>
       <c r="J84" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="B85" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
@@ -8763,7 +8774,7 @@
         <v>noGithub</v>
       </c>
       <c r="J85" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8791,7 +8802,7 @@
         <v>116</v>
       </c>
       <c r="J86" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8819,7 +8830,7 @@
         <v>117</v>
       </c>
       <c r="J87" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8849,7 +8860,7 @@
         <v>12</v>
       </c>
       <c r="J88" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8880,7 +8891,7 @@
         <v>124</v>
       </c>
       <c r="J89" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8910,7 +8921,7 @@
         <v>15</v>
       </c>
       <c r="J90" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -8940,7 +8951,7 @@
         <v>256</v>
       </c>
       <c r="J91" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8969,12 +8980,12 @@
         <v>port</v>
       </c>
       <c r="J92" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -8986,7 +8997,7 @@
         <v>15</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="F93" t="s">
         <v>41</v>
@@ -9000,12 +9011,12 @@
         <v>256</v>
       </c>
       <c r="J93" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -9017,7 +9028,7 @@
         <v>15</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F94" t="s">
         <v>41</v>
@@ -9031,12 +9042,12 @@
         <v>256</v>
       </c>
       <c r="J94" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -9045,20 +9056,20 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="J95" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9089,7 +9100,7 @@
         <v>8</v>
       </c>
       <c r="J96" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9119,7 +9130,7 @@
         <v>256</v>
       </c>
       <c r="J97" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9150,7 +9161,7 @@
         <v>5</v>
       </c>
       <c r="J98" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9178,7 +9189,7 @@
         <v>130</v>
       </c>
       <c r="J99" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9208,7 +9219,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9236,7 +9247,7 @@
         <v>134</v>
       </c>
       <c r="J101" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9264,7 +9275,7 @@
         <v>135</v>
       </c>
       <c r="J102" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9292,15 +9303,15 @@
         <v>136</v>
       </c>
       <c r="J103" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B104" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
@@ -9309,20 +9320,20 @@
         <v>15</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F104" t="s">
         <v>41</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="I104">
         <v>80</v>
       </c>
       <c r="J104" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9349,7 +9360,7 @@
         <v>5</v>
       </c>
       <c r="J105" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9376,7 +9387,7 @@
         <v>139</v>
       </c>
       <c r="J106" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9406,7 +9417,7 @@
         <v>2056</v>
       </c>
       <c r="J107" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9434,15 +9445,15 @@
         <v>144</v>
       </c>
       <c r="J108" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
@@ -9451,20 +9462,20 @@
         <v>15</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F109" t="s">
         <v>41</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I109">
         <v>64</v>
       </c>
       <c r="J109" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9481,7 +9492,7 @@
         <v>15</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -9494,15 +9505,15 @@
         <v>80</v>
       </c>
       <c r="J110" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B111" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
@@ -9519,21 +9530,21 @@
       </c>
       <c r="G111" s="1"/>
       <c r="H111" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I111">
         <v>2048</v>
       </c>
       <c r="J111" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B112" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C112" t="s">
         <v>12</v>
@@ -9542,22 +9553,22 @@
         <v>10</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F112" t="s">
         <v>41</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J112" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -9583,12 +9594,12 @@
         <v>1000</v>
       </c>
       <c r="J113" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -9600,20 +9611,20 @@
         <v>15</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="I114">
         <v>500</v>
       </c>
       <c r="J114" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9643,7 +9654,7 @@
         <v>256</v>
       </c>
       <c r="J115" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -9673,12 +9684,12 @@
         <v>80</v>
       </c>
       <c r="J116" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>11</v>
@@ -9690,20 +9701,20 @@
         <v>15</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="I117">
         <v>80</v>
       </c>
       <c r="J117" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="153" x14ac:dyDescent="0.2">
@@ -9720,7 +9731,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
@@ -9733,7 +9744,7 @@
         <v>80</v>
       </c>
       <c r="J118" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9764,7 +9775,7 @@
         <v>5</v>
       </c>
       <c r="J119" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9792,7 +9803,7 @@
         <v>158</v>
       </c>
       <c r="J120" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -9818,7 +9829,7 @@
         <v>160</v>
       </c>
       <c r="J121" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9848,7 +9859,7 @@
         <v>50</v>
       </c>
       <c r="J122" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9878,7 +9889,7 @@
         <v>20000</v>
       </c>
       <c r="J123" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -9907,7 +9918,7 @@
         <v>80</v>
       </c>
       <c r="J124" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9937,7 +9948,7 @@
         <v>256</v>
       </c>
       <c r="J125" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -10561,11 +10572,11 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10589,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>72</v>
@@ -10625,1507 +10636,1507 @@
         <v>14</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>A2</f>
         <v>ALLImport.tpl</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>A3</f>
         <v>ALLInstanceVars.tpl</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>A4</f>
         <v>ALLSetter.tpl</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>A5</f>
         <v>ALLStaticNames.tpl</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N5" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L6" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="N8" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>A10</f>
         <v>BEANCreate.tpl</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N10" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L11" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N11" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="N13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>A14</f>
         <v>CONFIGConstructor.tpl</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N14" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>A15</f>
         <v>CONFIGCreate.tpl</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N15" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L16" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N16" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L17" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N17" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L18" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N18" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L19" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N19" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L20" t="s">
+        <v>341</v>
+      </c>
+      <c r="N20" t="s">
         <v>529</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="L20" t="s">
-        <v>348</v>
-      </c>
-      <c r="N20" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N21" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N22" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N23" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N24" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N25" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N26" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N27" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N28" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L29" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N29" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L31" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N31" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L32" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>699</v>
-      </c>
       <c r="H38" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N38" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L39" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N39" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>608</v>
-      </c>
       <c r="H40" s="2" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N40" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N41" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K42" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L42" t="s">
         <v>330</v>
       </c>
-      <c r="L42" t="s">
-        <v>337</v>
-      </c>
       <c r="N42" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N43" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" ref="G44:G49" si="0">A44</f>
         <v>Hibernate.xml.tpl</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="N44" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="0"/>
@@ -12135,786 +12146,786 @@
         <v>17</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="N45" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>INTERFACESetter.tpl</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="N46" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>INTERFACEStaticNames.tpl</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="N47" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>JavaBuilder.tpl</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L48" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="N48" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="85" hidden="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>JsonBuilder.tpl</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>674</v>
+        <v>718</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L49" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="N49" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L50" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N50" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K51" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L51" t="s">
         <v>330</v>
       </c>
-      <c r="L51" t="s">
-        <v>337</v>
-      </c>
       <c r="N51" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K52" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L52" t="s">
         <v>330</v>
       </c>
-      <c r="L52" t="s">
-        <v>337</v>
-      </c>
       <c r="N52" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K53" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L53" t="s">
         <v>330</v>
       </c>
-      <c r="L53" t="s">
-        <v>337</v>
-      </c>
       <c r="N53" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L54" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N54" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L55" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="N55" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L56" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="N56" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L57" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="N57" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L58" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="N58" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L59" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="N59" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L60" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N60" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G61" s="2" t="str">
         <f>A61</f>
         <v>Responsive.svg</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L61" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N61" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L62" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="N62" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G63" s="2" t="str">
         <f>A63</f>
         <v>table.tpl</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K63" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L63" t="s">
+        <v>702</v>
+      </c>
+      <c r="N63" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C64" t="s">
+        <v>650</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L64" t="s">
         <v>330</v>
       </c>
-      <c r="L63" t="s">
-        <v>714</v>
-      </c>
-      <c r="N63" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C64" t="s">
-        <v>660</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="N64" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C65" t="s">
+        <v>650</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N65" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C66" t="s">
+        <v>650</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N66" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L67" t="s">
         <v>330</v>
       </c>
-      <c r="L64" t="s">
-        <v>337</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C65" t="s">
-        <v>660</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="N65" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C66" t="s">
-        <v>660</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="N66" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="L67" t="s">
-        <v>337</v>
-      </c>
       <c r="N67" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -12922,111 +12933,111 @@
         <v>17</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>608</v>
-      </c>
       <c r="H68" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L68" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N68" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="N69" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="C70" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L70" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N70" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M70" xr:uid="{3FE138CF-10D9-634A-87B2-6326254281CF}">
-    <filterColumn colId="5">
+    <filterColumn colId="2">
       <filters>
-        <filter val="$[@TMP]"/>
+        <filter val="builder"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13059,13 +13070,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -13083,58 +13094,58 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -13143,18 +13154,18 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -13163,13 +13174,13 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -13207,13 +13218,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -13225,13 +13236,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>130</v>
@@ -13239,112 +13250,112 @@
     </row>
     <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="K2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="K3" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="K4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="K5" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/builder/src/main/resources/eo.xlsx
+++ b/builder/src/main/resources/eo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werner.diwischek/dev/elasticobjects/builder/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F032FB2F-EC25-4D42-ACB6-63E4390BACB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088BFC66-0628-4A48-8216-F7E16CACB725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="600" windowWidth="28240" windowHeight="17100" activeTab="2" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
+    <workbookView xWindow="500" yWindow="600" windowWidth="28240" windowHeight="17100" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DbSqlConfig!$A$1:$J$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FieldConfig!$A$1:$I$125</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FileConfig!$A$1:$M$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelConfig!$A$1:$N$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelConfig!$A$1:$N$111</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="720">
   <si>
     <t>naturalId</t>
   </si>
@@ -1223,9 +1223,6 @@
   </si>
   <si>
     <t>[  "greeting"]</t>
-  </si>
-  <si>
-    <t>[  "value"]</t>
   </si>
   <si>
     <t>[  "sheetName"]</t>
@@ -2248,9 +2245,6 @@
     <t xml:space="preserve"> =&gt;[@TMP].</t>
   </si>
   <si>
-    <t>[  "keepCall","configKey"]</t>
-  </si>
-  <si>
     <t>[  "fileName"]</t>
   </si>
   <si>
@@ -2279,6 +2273,15 @@
   </si>
   <si>
     <t>Control directives to load a configuration sheet defined by configType in a hierarchical way and  call GenerateJsonCall.</t>
+  </si>
+  <si>
+    <t>KeepCall</t>
+  </si>
+  <si>
+    <t>[  "keepCall"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface for call implementing keepCall attribute. </t>
   </si>
 </sst>
 </file>
@@ -2664,13 +2667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2949A4-7E1C-7F4B-A1BC-11445B521B01}">
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E73" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F111" sqref="F111"/>
+      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2702,7 +2705,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>55</v>
@@ -2729,7 +2732,7 @@
         <v>105</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>14</v>
@@ -2758,7 +2761,7 @@
         <v>167</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>170</v>
@@ -2766,31 +2769,31 @@
     </row>
     <row r="3" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>170</v>
@@ -2804,7 +2807,7 @@
         <v>232</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -2819,7 +2822,7 @@
         <v>48</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="177" customHeight="1" x14ac:dyDescent="0.2">
@@ -2845,7 +2848,7 @@
         <v>172</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>173</v>
@@ -2853,31 +2856,31 @@
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>170</v>
@@ -2885,7 +2888,7 @@
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2903,14 +2906,14 @@
         <v>229</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>A7</f>
         <v>Base</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>170</v>
@@ -2918,16 +2921,16 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>41</v>
@@ -2936,14 +2939,14 @@
         <v>243</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>A8</f>
         <v>BaseImpl</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>170</v>
@@ -2957,7 +2960,7 @@
         <v>240</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -2972,7 +2975,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2986,7 +2989,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>41</v>
@@ -3001,7 +3004,7 @@
         <v>175</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>170</v>
@@ -3018,13 +3021,13 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>41</v>
@@ -3040,7 +3043,7 @@
         <v>CallImpl</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>170</v>
@@ -3048,7 +3051,7 @@
     </row>
     <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -3058,6 +3061,9 @@
       </c>
       <c r="E12" s="2" t="s">
         <v>384</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>717</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>178</v>
@@ -3076,7 +3082,7 @@
         <v>ResourceCall</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>170</v>
@@ -3084,7 +3090,7 @@
     </row>
     <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -3096,13 +3102,13 @@
         <v>384</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>178</v>
+        <v>708</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>176</v>
@@ -3112,7 +3118,7 @@
         <v>ResourceReadCall</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>170</v>
@@ -3120,7 +3126,7 @@
     </row>
     <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -3132,13 +3138,13 @@
         <v>384</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>178</v>
+        <v>708</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>176</v>
@@ -3148,7 +3154,7 @@
         <v>ResourceWriteCall</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>170</v>
@@ -3156,10 +3162,7 @@
     </row>
     <row r="15" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>236</v>
+        <v>717</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -3167,26 +3170,35 @@
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>718</v>
+      </c>
       <c r="I15" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J15" s="2" t="s">
+        <v>719</v>
+      </c>
       <c r="K15" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L15" s="2" t="str">
         <f>A15</f>
-        <v>Class</v>
+        <v>KeepCall</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -3197,26 +3209,23 @@
       <c r="I16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="K16" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>A16</f>
-        <v>Condition</v>
+        <v>Class</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
@@ -3224,35 +3233,29 @@
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>638</v>
-      </c>
       <c r="I17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="L17" s="2" t="str">
         <f>A17</f>
-        <v>Config</v>
+        <v>Condition</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
@@ -3261,26 +3264,26 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>385</v>
+        <v>510</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>178</v>
+        <v>637</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>277</v>
+        <v>186</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L18" s="2" t="str">
         <f>A18</f>
-        <v>ConfigAsFlatListCall</v>
+        <v>Config</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>170</v>
@@ -3288,7 +3291,7 @@
     </row>
     <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
@@ -3297,34 +3300,34 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>188</v>
       </c>
       <c r="L19" s="2" t="str">
         <f>A19</f>
-        <v>ConfigCall</v>
+        <v>ConfigAsFlatListCall</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="204" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
@@ -3333,37 +3336,34 @@
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>184</v>
+        <v>386</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>637</v>
+        <v>190</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L20" s="2" t="str">
         <f>A20</f>
-        <v>ConfigImpl</v>
+        <v>ConfigCall</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
@@ -3372,23 +3372,26 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>387</v>
+        <v>603</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>178</v>
+        <v>636</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L21" s="2" t="str">
         <f>A21</f>
-        <v>ConfigKeysCall</v>
+        <v>ConfigImpl</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>494</v>
@@ -3399,32 +3402,35 @@
     </row>
     <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>585</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E22" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>586</v>
+        <v>178</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>589</v>
+        <v>193</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="L22" s="2" t="str">
         <f>A22</f>
-        <v>ConfigLinkCall</v>
+        <v>ConfigKeysCall</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>170</v>
@@ -3432,42 +3438,40 @@
     </row>
     <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>194</v>
+        <v>584</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>178</v>
+        <v>585</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>195</v>
+        <v>588</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>194</v>
+        <v>215</v>
+      </c>
+      <c r="L23" s="2" t="str">
+        <f>A23</f>
+        <v>ConfigLinkCall</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
@@ -3476,27 +3480,33 @@
         <v>12</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>278</v>
+        <v>388</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -3504,63 +3514,60 @@
       <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>191</v>
+      <c r="E25" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>176</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F26" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>436</v>
+        <v>200</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
@@ -3568,55 +3575,55 @@
       <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>692</v>
+        <v>201</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>436</v>
+        <v>200</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>444</v>
+        <v>691</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>440</v>
+        <v>225</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>494</v>
@@ -3627,10 +3634,10 @@
     </row>
     <row r="29" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>689</v>
+        <v>436</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>437</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
@@ -3642,17 +3649,16 @@
         <v>17</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>254</v>
+        <v>443</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L29" s="2" t="str">
-        <f>A29</f>
-        <v>CsvSimpleReadCall</v>
+        <v>439</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>170</v>
@@ -3660,7 +3666,7 @@
     </row>
     <row r="30" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
@@ -3675,17 +3681,17 @@
         <v>17</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>691</v>
+        <v>254</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>225</v>
       </c>
       <c r="L30" s="2" t="str">
         <f>A30</f>
-        <v>CsvSimpleWriteCall</v>
+        <v>CsvSimpleReadCall</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>170</v>
@@ -3693,31 +3699,32 @@
     </row>
     <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>441</v>
+        <v>689</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>438</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>442</v>
+        <v>227</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>443</v>
+        <v>690</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>441</v>
+        <v>225</v>
+      </c>
+      <c r="L31" s="2" t="str">
+        <f>A31</f>
+        <v>CsvSimpleWriteCall</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>170</v>
@@ -3725,68 +3732,65 @@
     </row>
     <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G32" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="I32" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>171</v>
+        <v>439</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>36</v>
+        <v>440</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>279</v>
+        <v>36</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>280</v>
+        <v>397</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="I33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="K33" s="2" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>170</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>280</v>
@@ -3794,20 +3798,23 @@
       <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E34" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="G34" s="2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>694</v>
+        <v>281</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>282</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>494</v>
@@ -3818,7 +3825,7 @@
     </row>
     <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>280</v>
@@ -3826,26 +3833,23 @@
       <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>285</v>
+        <v>693</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>282</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>170</v>
@@ -3853,7 +3857,7 @@
     </row>
     <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>280</v>
@@ -3861,20 +3865,23 @@
       <c r="D36" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E36" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="G36" s="2" t="s">
-        <v>710</v>
+        <v>198</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>693</v>
+        <v>285</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>282</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>494</v>
@@ -3885,7 +3892,7 @@
     </row>
     <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>280</v>
@@ -3893,26 +3900,23 @@
       <c r="D37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>198</v>
+        <v>708</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>288</v>
+        <v>692</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>282</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>170</v>
@@ -3920,10 +3924,7 @@
     </row>
     <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>280</v>
@@ -3931,50 +3932,55 @@
       <c r="D38" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E38" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="I38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>282</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>592</v>
+        <v>289</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="I39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>594</v>
+        <v>290</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="L39" s="2" t="str">
-        <f>A39</f>
-        <v>DirectoryConfig</v>
+        <v>282</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>495</v>
@@ -3983,9 +3989,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
@@ -3994,20 +4000,20 @@
         <v>12</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>642</v>
+        <v>593</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>210</v>
       </c>
       <c r="L40" s="2" t="str">
         <f>A40</f>
-        <v>DirectoryListReadCall</v>
+        <v>DirectoryConfig</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>494</v>
@@ -4016,9 +4022,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
@@ -4026,35 +4032,32 @@
       <c r="D41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>668</v>
-      </c>
       <c r="G41" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>210</v>
       </c>
       <c r="L41" s="2" t="str">
         <f>A41</f>
-        <v>DirectoryMapReadCall</v>
+        <v>DirectoryListReadCall</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>590</v>
+        <v>666</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
@@ -4063,26 +4066,26 @@
         <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>593</v>
+        <v>667</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>211</v>
+        <v>640</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>210</v>
       </c>
       <c r="L42" s="2" t="str">
         <f>A42</f>
-        <v>DirectoryReadCall</v>
+        <v>DirectoryMapReadCall</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>170</v>
@@ -4090,86 +4093,93 @@
     </row>
     <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L43" s="2" t="str">
+        <f>A43</f>
+        <v>DirectoryReadCall</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="M44" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J44" s="2" t="s">
+      <c r="I45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="M45" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>170</v>
@@ -4177,10 +4187,7 @@
     </row>
     <row r="46" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
@@ -4192,24 +4199,27 @@
         <v>41</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>207</v>
+        <v>51</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
@@ -4217,34 +4227,28 @@
       <c r="D47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="I47" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>185</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>207</v>
+        <v>51</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
@@ -4253,25 +4257,25 @@
         <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>595</v>
+        <v>208</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>170</v>
@@ -4279,7 +4283,7 @@
     </row>
     <row r="49" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
@@ -4287,20 +4291,23 @@
       <c r="D49" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E49" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="G49" s="2" t="s">
-        <v>711</v>
+        <v>198</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>717</v>
+        <v>594</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>210</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>494</v>
@@ -4311,7 +4318,7 @@
     </row>
     <row r="50" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
@@ -4319,26 +4326,23 @@
       <c r="D50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="G50" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>210</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>170</v>
@@ -4346,69 +4350,68 @@
     </row>
     <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="L52" s="2" t="str">
-        <f>A52</f>
-        <v>GenerateCall</v>
-      </c>
       <c r="M52" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>170</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>351</v>
@@ -4417,26 +4420,26 @@
         <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>653</v>
+        <v>178</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L53" s="2" t="str">
         <f>A53</f>
-        <v>GenerateJavaCall</v>
+        <v>GenerateCall</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>170</v>
@@ -4444,7 +4447,7 @@
     </row>
     <row r="54" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>351</v>
@@ -4453,26 +4456,26 @@
         <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L54" s="2" t="str">
         <f>A54</f>
-        <v>GenerateJsonConfigCall</v>
+        <v>GenerateJavaCall</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>170</v>
@@ -4480,136 +4483,146 @@
     </row>
     <row r="55" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>586</v>
+        <v>697</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>216</v>
+        <v>652</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>215</v>
+        <v>655</v>
       </c>
       <c r="L55" s="2" t="str">
         <f>A55</f>
-        <v>GithubLinkCall</v>
+        <v>GenerateJsonConfigCall</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L56" s="2" t="str">
+        <f>A56</f>
+        <v>GithubLinkCall</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M56" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="N56" s="2" t="s">
+      <c r="M57" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="N57" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J57" s="2" t="s">
+      <c r="I58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="M57" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="M58" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>12</v>
@@ -4618,24 +4631,24 @@
         <v>41</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="L59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>12</v>
@@ -4643,25 +4656,22 @@
       <c r="I60" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="K60" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>170</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>220</v>
+        <v>92</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
@@ -4669,23 +4679,20 @@
       <c r="D61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="I61" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>170</v>
@@ -4693,42 +4700,45 @@
     </row>
     <row r="62" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>12</v>
@@ -4740,24 +4750,24 @@
         <v>171</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>12</v>
@@ -4769,10 +4779,10 @@
         <v>171</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>173</v>
@@ -4780,39 +4790,36 @@
     </row>
     <row r="65" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>401</v>
+        <v>224</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="I65" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="K65" s="2" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>491</v>
+        <v>224</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
@@ -4821,30 +4828,30 @@
         <v>12</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>226</v>
+        <v>444</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>225</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>489</v>
+        <v>400</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
@@ -4852,26 +4859,23 @@
       <c r="D67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>711</v>
+      <c r="E67" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>447</v>
+        <v>226</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>225</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>170</v>
@@ -4879,7 +4883,7 @@
     </row>
     <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>442</v>
+        <v>227</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
@@ -4888,25 +4892,25 @@
         <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>695</v>
+        <v>446</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>225</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>442</v>
+        <v>227</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>170</v>
@@ -4914,129 +4918,129 @@
     </row>
     <row r="69" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>240</v>
+        <v>441</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F69" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>710</v>
+      </c>
       <c r="I69" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J69" s="2" t="s">
+        <v>694</v>
+      </c>
       <c r="K69" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>100</v>
+        <v>441</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B71" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="C71" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K71" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M70" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="M71" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="M71" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="M72" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="G72" s="2" t="s">
+      <c r="C73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>41</v>
@@ -5047,20 +5051,19 @@
       <c r="K73" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L73" s="2" t="str">
-        <f>A73</f>
-        <v>ModelConfigInterface</v>
+      <c r="L73" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>232</v>
+        <v>633</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>11</v>
@@ -5068,23 +5071,27 @@
       <c r="D74" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E74" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="G74" s="2" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L74" s="2" t="s">
-        <v>232</v>
+      <c r="L74" s="2" t="str">
+        <f>A74</f>
+        <v>ModelConfigInterface</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>170</v>
@@ -5092,7 +5099,7 @@
     </row>
     <row r="75" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>11</v>
@@ -5107,16 +5114,16 @@
         <v>41</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>185</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>170</v>
@@ -5124,7 +5131,7 @@
     </row>
     <row r="76" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>11</v>
@@ -5139,16 +5146,16 @@
         <v>41</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>185</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>170</v>
@@ -5156,7 +5163,7 @@
     </row>
     <row r="77" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>11</v>
@@ -5171,16 +5178,16 @@
         <v>41</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>185</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>170</v>
@@ -5188,7 +5195,7 @@
     </row>
     <row r="78" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>11</v>
@@ -5203,16 +5210,16 @@
         <v>41</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>185</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>170</v>
@@ -5220,7 +5227,7 @@
     </row>
     <row r="79" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
@@ -5241,10 +5248,10 @@
         <v>185</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>170</v>
@@ -5252,7 +5259,7 @@
     </row>
     <row r="80" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>11</v>
@@ -5260,20 +5267,23 @@
       <c r="D80" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G80" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="I80" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>185</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>170</v>
@@ -5281,86 +5291,86 @@
     </row>
     <row r="81" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L82" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M81" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="N81" s="2" t="s">
+      <c r="M82" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="N82" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J82" s="2" t="s">
+      <c r="C83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M82" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="M83" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>170</v>
@@ -5368,7 +5378,7 @@
     </row>
     <row r="84" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>11</v>
@@ -5376,99 +5386,96 @@
       <c r="D84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="I84" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>217</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="5" t="s">
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J86" s="5" t="s">
         <v>485</v>
-      </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L85" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="N85" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L86" s="2" t="s">
+      <c r="L86" s="5" t="s">
         <v>483</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="N86" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="N86" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>482</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>11</v>
@@ -5476,34 +5483,31 @@
       <c r="D87" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>293</v>
+      <c r="G87" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>251</v>
+        <v>445</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>131</v>
+        <v>482</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
@@ -5511,89 +5515,92 @@
       <c r="D88" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E88" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="I88" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K90" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="L90" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="M89" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="N89" s="2" t="s">
+      <c r="M90" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="N90" s="2" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>257</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>240</v>
@@ -5607,54 +5614,54 @@
       <c r="I91" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J91" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="K91" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K92" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="L92" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M91" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="N91" s="2" t="s">
+      <c r="M92" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="N92" s="2" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>11</v>
@@ -5669,56 +5676,62 @@
         <v>17</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>215</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G94" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I94" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>12</v>
@@ -5730,18 +5743,15 @@
         <v>174</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>173</v>
+        <v>489</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>240</v>
@@ -5759,59 +5769,53 @@
         <v>174</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="C98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>216</v>
@@ -5820,30 +5824,33 @@
         <v>17</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>215</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>528</v>
+        <v>265</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>216</v>
@@ -5852,24 +5859,24 @@
         <v>17</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>527</v>
+        <v>266</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>215</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>528</v>
+        <v>265</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
@@ -5884,16 +5891,16 @@
         <v>17</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>215</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>170</v>
@@ -5901,7 +5908,7 @@
     </row>
     <row r="101" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>267</v>
+        <v>534</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>11</v>
@@ -5916,16 +5923,16 @@
         <v>17</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>268</v>
+        <v>526</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>215</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>267</v>
+        <v>534</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>170</v>
@@ -5933,7 +5940,7 @@
     </row>
     <row r="102" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
@@ -5954,10 +5961,10 @@
         <v>215</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>170</v>
@@ -5965,7 +5972,7 @@
     </row>
     <row r="103" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
@@ -5973,27 +5980,23 @@
       <c r="D103" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="G103" s="2" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L103" s="2" t="str">
-        <f>A103</f>
-        <v>TemplateCall</v>
+        <v>215</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>170</v>
@@ -6001,7 +6004,7 @@
     </row>
     <row r="104" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>703</v>
+        <v>270</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
@@ -6010,26 +6013,26 @@
         <v>12</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>709</v>
+        <v>394</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>704</v>
+        <v>271</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>218</v>
       </c>
       <c r="L104" s="2" t="str">
         <f>A104</f>
-        <v>TemplateDirResourceCall</v>
+        <v>TemplateCall</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>170</v>
@@ -6037,35 +6040,35 @@
     </row>
     <row r="105" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="I105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>218</v>
       </c>
       <c r="L105" s="2" t="str">
         <f>A105</f>
-        <v>TemplateResourceCall</v>
+        <v>TemplateDirResourceCall</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>170</v>
@@ -6073,7 +6076,7 @@
     </row>
     <row r="106" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>517</v>
+        <v>272</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
@@ -6082,26 +6085,29 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>522</v>
+        <v>384</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>717</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>273</v>
+        <v>704</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>218</v>
       </c>
       <c r="L106" s="2" t="str">
         <f>A106</f>
-        <v>TemplateResourceStoreCall</v>
+        <v>TemplateResourceCall</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>170</v>
@@ -6109,105 +6115,106 @@
     </row>
     <row r="107" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>294</v>
+        <v>516</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>395</v>
+        <v>521</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L107" s="2" t="str">
         <f>A107</f>
-        <v>TheGreetingCall</v>
+        <v>TemplateResourceStoreCall</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="L108" s="2" t="s">
-        <v>274</v>
+      <c r="L108" s="2" t="str">
+        <f>A108</f>
+        <v>TheGreetingCall</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>427</v>
+        <v>11</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>299</v>
+        <v>215</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N109" s="2" t="s">
         <v>170</v>
@@ -6215,28 +6222,31 @@
     </row>
     <row r="110" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E110" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="G110" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>696</v>
+        <v>298</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>299</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>494</v>
@@ -6245,14 +6255,46 @@
         <v>170</v>
       </c>
     </row>
+    <row r="111" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N110" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
-    <sortState ref="A2:N110">
-      <sortCondition ref="A2:A110"/>
+  <autoFilter ref="A1:N111" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
+    <sortState ref="A2:N111">
+      <sortCondition ref="A2:A111"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:N110">
-    <sortCondition ref="A2:A110"/>
+  <sortState ref="A2:N111">
+    <sortCondition ref="A2:A111"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6291,7 +6333,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -6312,7 +6354,7 @@
         <v>94</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="86" customHeight="1" x14ac:dyDescent="0.2">
@@ -6339,7 +6381,7 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="104" customHeight="1" x14ac:dyDescent="0.2">
@@ -6369,12 +6411,12 @@
         <v>256</v>
       </c>
       <c r="J3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B4" t="s">
         <v>351</v>
@@ -6398,7 +6440,7 @@
         <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -6425,12 +6467,12 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -6442,7 +6484,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -6456,7 +6498,7 @@
         <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6483,7 +6525,7 @@
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6513,7 +6555,7 @@
         <v>1000</v>
       </c>
       <c r="J8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6543,7 +6585,7 @@
         <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6573,7 +6615,7 @@
         <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6603,7 +6645,7 @@
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6633,7 +6675,7 @@
         <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6663,7 +6705,7 @@
         <v>10000</v>
       </c>
       <c r="J13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6693,7 +6735,7 @@
         <v>256</v>
       </c>
       <c r="J14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6720,7 +6762,7 @@
         <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6747,7 +6789,7 @@
         <v>301</v>
       </c>
       <c r="J16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6777,7 +6819,7 @@
         <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6804,7 +6846,7 @@
         <v>305</v>
       </c>
       <c r="J18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6835,7 +6877,7 @@
         <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6865,7 +6907,7 @@
         <v>256</v>
       </c>
       <c r="J20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6895,7 +6937,7 @@
         <v>512</v>
       </c>
       <c r="J21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6926,7 +6968,7 @@
         <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6953,12 +6995,12 @@
         <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -6970,20 +7012,20 @@
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I24">
         <v>500</v>
       </c>
       <c r="J24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7011,7 +7053,7 @@
         <v>47</v>
       </c>
       <c r="J25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -7041,7 +7083,7 @@
         <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7069,7 +7111,7 @@
         <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7099,7 +7141,7 @@
         <v>1024</v>
       </c>
       <c r="J28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7129,7 +7171,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7160,7 +7202,7 @@
         <v>80</v>
       </c>
       <c r="J30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7187,7 +7229,7 @@
         <v>55</v>
       </c>
       <c r="J31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7217,12 +7259,12 @@
         <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -7234,7 +7276,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F33" t="s">
         <v>41</v>
@@ -7248,7 +7290,7 @@
         <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7278,7 +7320,7 @@
         <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7309,7 +7351,7 @@
         <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7340,7 +7382,7 @@
         <v>512</v>
       </c>
       <c r="J36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7357,7 +7399,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -7370,7 +7412,7 @@
         <v>512</v>
       </c>
       <c r="J37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7400,7 +7442,7 @@
         <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7430,7 +7472,7 @@
         <v>64</v>
       </c>
       <c r="J39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7460,7 +7502,7 @@
         <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7491,7 +7533,7 @@
         <v>16</v>
       </c>
       <c r="J41" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -7518,7 +7560,7 @@
         <v>70</v>
       </c>
       <c r="J42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7548,7 +7590,7 @@
         <v>80</v>
       </c>
       <c r="J43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7578,7 +7620,7 @@
         <v>80</v>
       </c>
       <c r="J44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7605,7 +7647,7 @@
         <v>76</v>
       </c>
       <c r="J45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7635,7 +7677,7 @@
         <v>80</v>
       </c>
       <c r="J46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7662,7 +7704,7 @@
         <v>80</v>
       </c>
       <c r="J47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7692,7 +7734,7 @@
         <v>80</v>
       </c>
       <c r="J48" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7723,12 +7765,12 @@
         <v>256</v>
       </c>
       <c r="J49" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -7740,7 +7782,7 @@
         <v>228</v>
       </c>
       <c r="E50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F50" t="s">
         <v>41</v>
@@ -7750,7 +7792,7 @@
         <v>javaProperties</v>
       </c>
       <c r="J50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7781,7 +7823,7 @@
         <v>80</v>
       </c>
       <c r="J51" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7812,7 +7854,7 @@
         <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7842,7 +7884,7 @@
         <v>80</v>
       </c>
       <c r="J53" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7859,7 +7901,7 @@
         <v>92</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -7870,7 +7912,7 @@
         <v>keepCall</v>
       </c>
       <c r="J54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7901,7 +7943,7 @@
         <v>80</v>
       </c>
       <c r="J55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7929,7 +7971,7 @@
         <v>length</v>
       </c>
       <c r="J56" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7960,12 +8002,12 @@
         <v>80</v>
       </c>
       <c r="J57" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -7977,17 +8019,17 @@
         <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J58" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8016,7 +8058,7 @@
         <v>logLevel</v>
       </c>
       <c r="J59" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8047,7 +8089,7 @@
         <v>80</v>
       </c>
       <c r="J60" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8077,7 +8119,7 @@
         <v>80</v>
       </c>
       <c r="J61" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8108,7 +8150,7 @@
         <v>80</v>
       </c>
       <c r="J62" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8138,7 +8180,7 @@
         <v>256</v>
       </c>
       <c r="J63" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8165,7 +8207,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8195,7 +8237,7 @@
         <v>512</v>
       </c>
       <c r="J65" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8225,12 +8267,12 @@
         <v>80</v>
       </c>
       <c r="J66" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -8242,37 +8284,37 @@
         <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I67">
         <v>10</v>
       </c>
       <c r="J67" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B68" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -8283,21 +8325,21 @@
         <v>myAnObject</v>
       </c>
       <c r="J68" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B69" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>A69</f>
@@ -8312,24 +8354,24 @@
         <v>myASubObject</v>
       </c>
       <c r="J69" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B70" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -8340,24 +8382,24 @@
         <v>myASubObjectList</v>
       </c>
       <c r="J70" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B71" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -8368,15 +8410,15 @@
         <v>myASubObjectMap</v>
       </c>
       <c r="J71" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B72" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -8397,15 +8439,15 @@
         <v>myBoolean</v>
       </c>
       <c r="J72" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B73" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -8426,15 +8468,15 @@
         <v>myDate</v>
       </c>
       <c r="J73" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B74" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -8455,15 +8497,15 @@
         <v>myDouble</v>
       </c>
       <c r="J74" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B75" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -8484,15 +8526,15 @@
         <v>myFloat</v>
       </c>
       <c r="J75" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B76" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -8512,15 +8554,15 @@
         <v>myInt</v>
       </c>
       <c r="J76" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B77" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -8541,15 +8583,15 @@
         <v>myList</v>
       </c>
       <c r="J77" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B78" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -8570,15 +8612,15 @@
         <v>myLong</v>
       </c>
       <c r="J78" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B79" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -8598,15 +8640,15 @@
         <v>myMap</v>
       </c>
       <c r="J79" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B80" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -8626,15 +8668,15 @@
         <v>myObject</v>
       </c>
       <c r="J80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B81" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -8657,7 +8699,7 @@
         <v>20</v>
       </c>
       <c r="J81" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8687,7 +8729,7 @@
         <v>80</v>
       </c>
       <c r="J82" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8717,7 +8759,7 @@
         <v>80</v>
       </c>
       <c r="J83" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8745,12 +8787,12 @@
         <v>115</v>
       </c>
       <c r="J84" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B85" t="s">
         <v>295</v>
@@ -8774,7 +8816,7 @@
         <v>noGithub</v>
       </c>
       <c r="J85" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8802,7 +8844,7 @@
         <v>116</v>
       </c>
       <c r="J86" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8830,7 +8872,7 @@
         <v>117</v>
       </c>
       <c r="J87" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8860,7 +8902,7 @@
         <v>12</v>
       </c>
       <c r="J88" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8891,7 +8933,7 @@
         <v>124</v>
       </c>
       <c r="J89" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8921,7 +8963,7 @@
         <v>15</v>
       </c>
       <c r="J90" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -8951,7 +8993,7 @@
         <v>256</v>
       </c>
       <c r="J91" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8980,12 +9022,12 @@
         <v>port</v>
       </c>
       <c r="J92" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -8997,7 +9039,7 @@
         <v>15</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F93" t="s">
         <v>41</v>
@@ -9011,12 +9053,12 @@
         <v>256</v>
       </c>
       <c r="J93" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -9028,7 +9070,7 @@
         <v>15</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F94" t="s">
         <v>41</v>
@@ -9042,12 +9084,12 @@
         <v>256</v>
       </c>
       <c r="J94" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -9059,17 +9101,17 @@
         <v>228</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J95" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9100,7 +9142,7 @@
         <v>8</v>
       </c>
       <c r="J96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9130,7 +9172,7 @@
         <v>256</v>
       </c>
       <c r="J97" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9161,7 +9203,7 @@
         <v>5</v>
       </c>
       <c r="J98" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9189,7 +9231,7 @@
         <v>130</v>
       </c>
       <c r="J99" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9219,7 +9261,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9247,7 +9289,7 @@
         <v>134</v>
       </c>
       <c r="J101" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9275,7 +9317,7 @@
         <v>135</v>
       </c>
       <c r="J102" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9303,7 +9345,7 @@
         <v>136</v>
       </c>
       <c r="J103" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9333,7 +9375,7 @@
         <v>80</v>
       </c>
       <c r="J104" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9360,7 +9402,7 @@
         <v>5</v>
       </c>
       <c r="J105" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9387,7 +9429,7 @@
         <v>139</v>
       </c>
       <c r="J106" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9417,7 +9459,7 @@
         <v>2056</v>
       </c>
       <c r="J107" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9445,7 +9487,7 @@
         <v>144</v>
       </c>
       <c r="J108" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9453,7 +9495,7 @@
         <v>316</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
@@ -9475,7 +9517,7 @@
         <v>64</v>
       </c>
       <c r="J109" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9492,7 +9534,7 @@
         <v>15</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -9505,7 +9547,7 @@
         <v>80</v>
       </c>
       <c r="J110" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9536,7 +9578,7 @@
         <v>2048</v>
       </c>
       <c r="J111" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -9563,12 +9605,12 @@
         <v>319</v>
       </c>
       <c r="J112" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -9594,12 +9636,12 @@
         <v>1000</v>
       </c>
       <c r="J113" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -9611,20 +9653,20 @@
         <v>15</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I114">
         <v>500</v>
       </c>
       <c r="J114" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9654,7 +9696,7 @@
         <v>256</v>
       </c>
       <c r="J115" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -9684,12 +9726,12 @@
         <v>80</v>
       </c>
       <c r="J116" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>11</v>
@@ -9701,20 +9743,20 @@
         <v>15</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I117">
         <v>80</v>
       </c>
       <c r="J117" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="153" x14ac:dyDescent="0.2">
@@ -9731,7 +9773,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
@@ -9744,7 +9786,7 @@
         <v>80</v>
       </c>
       <c r="J118" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9775,7 +9817,7 @@
         <v>5</v>
       </c>
       <c r="J119" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9803,7 +9845,7 @@
         <v>158</v>
       </c>
       <c r="J120" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -9829,7 +9871,7 @@
         <v>160</v>
       </c>
       <c r="J121" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9859,7 +9901,7 @@
         <v>50</v>
       </c>
       <c r="J122" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9889,7 +9931,7 @@
         <v>20000</v>
       </c>
       <c r="J123" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -9918,7 +9960,7 @@
         <v>80</v>
       </c>
       <c r="J124" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -9948,7 +9990,7 @@
         <v>256</v>
       </c>
       <c r="J125" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -10571,7 +10613,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+    <sheetView zoomScale="94" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
@@ -10606,7 +10648,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>72</v>
@@ -10636,12 +10678,12 @@
         <v>14</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>351</v>
@@ -10653,14 +10695,14 @@
         <v>322</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>A2</f>
         <v>ALLImport.tpl</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>17</v>
@@ -10669,12 +10711,12 @@
         <v>333</v>
       </c>
       <c r="N2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>351</v>
@@ -10686,14 +10728,14 @@
         <v>322</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>A3</f>
         <v>ALLInstanceVars.tpl</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>17</v>
@@ -10702,12 +10744,12 @@
         <v>333</v>
       </c>
       <c r="N3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>351</v>
@@ -10719,14 +10761,14 @@
         <v>322</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>A4</f>
         <v>ALLSetter.tpl</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>17</v>
@@ -10735,12 +10777,12 @@
         <v>333</v>
       </c>
       <c r="N4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>351</v>
@@ -10752,14 +10794,14 @@
         <v>322</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>A5</f>
         <v>ALLStaticNames.tpl</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>17</v>
@@ -10768,18 +10810,18 @@
         <v>333</v>
       </c>
       <c r="N5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -10791,10 +10833,10 @@
         <v>353</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>17</v>
@@ -10806,15 +10848,15 @@
         <v>338</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -10826,10 +10868,10 @@
         <v>353</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>17</v>
@@ -10841,18 +10883,18 @@
         <v>338</v>
       </c>
       <c r="N7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>297</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -10861,13 +10903,13 @@
         <v>322</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>17</v>
@@ -10876,12 +10918,12 @@
         <v>323</v>
       </c>
       <c r="N8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>297</v>
@@ -10896,13 +10938,13 @@
         <v>322</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>17</v>
@@ -10914,7 +10956,7 @@
         <v>338</v>
       </c>
       <c r="N9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10931,14 +10973,14 @@
         <v>322</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>A10</f>
         <v>BEANCreate.tpl</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>17</v>
@@ -10947,15 +10989,15 @@
         <v>333</v>
       </c>
       <c r="N10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>295</v>
@@ -10967,13 +11009,13 @@
         <v>322</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>17</v>
@@ -10985,12 +11027,12 @@
         <v>325</v>
       </c>
       <c r="N11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>295</v>
@@ -11002,13 +11044,13 @@
         <v>322</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>17</v>
@@ -11020,12 +11062,12 @@
         <v>325</v>
       </c>
       <c r="N12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>351</v>
@@ -11037,13 +11079,13 @@
         <v>322</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>354</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>17</v>
@@ -11052,12 +11094,12 @@
         <v>323</v>
       </c>
       <c r="N13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>351</v>
@@ -11069,14 +11111,14 @@
         <v>322</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>A14</f>
         <v>CONFIGConstructor.tpl</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>17</v>
@@ -11085,12 +11127,12 @@
         <v>333</v>
       </c>
       <c r="N14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>351</v>
@@ -11102,14 +11144,14 @@
         <v>322</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>A15</f>
         <v>CONFIGCreate.tpl</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>17</v>
@@ -11118,15 +11160,15 @@
         <v>333</v>
       </c>
       <c r="N15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>295</v>
@@ -11141,10 +11183,10 @@
         <v>363</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>17</v>
@@ -11156,7 +11198,7 @@
         <v>325</v>
       </c>
       <c r="N16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -11191,7 +11233,7 @@
         <v>325</v>
       </c>
       <c r="N17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -11226,7 +11268,7 @@
         <v>325</v>
       </c>
       <c r="N18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -11261,12 +11303,12 @@
         <v>325</v>
       </c>
       <c r="N19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>297</v>
@@ -11281,13 +11323,13 @@
         <v>322</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>17</v>
@@ -11299,15 +11341,15 @@
         <v>341</v>
       </c>
       <c r="N20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>345</v>
@@ -11316,13 +11358,13 @@
         <v>322</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>41</v>
@@ -11331,15 +11373,15 @@
         <v>333</v>
       </c>
       <c r="N21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>345</v>
@@ -11348,13 +11390,13 @@
         <v>322</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>41</v>
@@ -11363,15 +11405,15 @@
         <v>333</v>
       </c>
       <c r="N22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>345</v>
@@ -11380,13 +11422,13 @@
         <v>322</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>41</v>
@@ -11395,15 +11437,15 @@
         <v>333</v>
       </c>
       <c r="N23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>345</v>
@@ -11412,13 +11454,13 @@
         <v>322</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>41</v>
@@ -11427,15 +11469,15 @@
         <v>333</v>
       </c>
       <c r="N24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>345</v>
@@ -11444,13 +11486,13 @@
         <v>322</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>41</v>
@@ -11459,15 +11501,15 @@
         <v>333</v>
       </c>
       <c r="N25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>345</v>
@@ -11476,13 +11518,13 @@
         <v>322</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>41</v>
@@ -11491,15 +11533,15 @@
         <v>333</v>
       </c>
       <c r="N26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>345</v>
@@ -11508,13 +11550,13 @@
         <v>322</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>41</v>
@@ -11523,15 +11565,15 @@
         <v>333</v>
       </c>
       <c r="N27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>345</v>
@@ -11540,13 +11582,13 @@
         <v>322</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>41</v>
@@ -11555,7 +11597,7 @@
         <v>333</v>
       </c>
       <c r="N28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
@@ -11590,7 +11632,7 @@
         <v>325</v>
       </c>
       <c r="N29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -11625,15 +11667,15 @@
         <v>323</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>295</v>
@@ -11648,10 +11690,10 @@
         <v>365</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>17</v>
@@ -11663,12 +11705,12 @@
         <v>325</v>
       </c>
       <c r="N31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>295</v>
@@ -11683,10 +11725,10 @@
         <v>365</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>17</v>
@@ -11698,12 +11740,12 @@
         <v>325</v>
       </c>
       <c r="N32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>297</v>
@@ -11718,13 +11760,13 @@
         <v>322</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>17</v>
@@ -11733,12 +11775,12 @@
         <v>323</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>297</v>
@@ -11753,13 +11795,13 @@
         <v>322</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>17</v>
@@ -11768,12 +11810,12 @@
         <v>323</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>297</v>
@@ -11788,13 +11830,13 @@
         <v>322</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>17</v>
@@ -11803,12 +11845,12 @@
         <v>323</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>297</v>
@@ -11823,13 +11865,13 @@
         <v>322</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>17</v>
@@ -11838,12 +11880,12 @@
         <v>323</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>297</v>
@@ -11858,13 +11900,13 @@
         <v>322</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>17</v>
@@ -11873,15 +11915,15 @@
         <v>323</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>295</v>
@@ -11896,10 +11938,10 @@
         <v>324</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>17</v>
@@ -11911,12 +11953,12 @@
         <v>325</v>
       </c>
       <c r="N38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>295</v>
@@ -11931,10 +11973,10 @@
         <v>324</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>17</v>
@@ -11946,15 +11988,15 @@
         <v>325</v>
       </c>
       <c r="N39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>295</v>
@@ -11966,13 +12008,13 @@
         <v>322</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>17</v>
@@ -11984,12 +12026,12 @@
         <v>325</v>
       </c>
       <c r="N40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>295</v>
@@ -12001,13 +12043,13 @@
         <v>322</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>17</v>
@@ -12019,7 +12061,7 @@
         <v>325</v>
       </c>
       <c r="N41" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -12027,7 +12069,7 @@
         <v>328</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>345</v>
@@ -12054,7 +12096,7 @@
         <v>330</v>
       </c>
       <c r="N42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -12062,7 +12104,7 @@
         <v>332</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>345</v>
@@ -12086,7 +12128,7 @@
         <v>333</v>
       </c>
       <c r="N43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -12103,14 +12145,14 @@
         <v>322</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" ref="G44:G49" si="0">A44</f>
         <v>Hibernate.xml.tpl</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>17</v>
@@ -12119,7 +12161,7 @@
         <v>323</v>
       </c>
       <c r="N44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -12136,7 +12178,7 @@
         <v>322</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="0"/>
@@ -12149,12 +12191,12 @@
         <v>323</v>
       </c>
       <c r="N45" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>351</v>
@@ -12166,7 +12208,7 @@
         <v>322</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="0"/>
@@ -12182,12 +12224,12 @@
         <v>323</v>
       </c>
       <c r="N46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>351</v>
@@ -12199,14 +12241,14 @@
         <v>322</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>INTERFACEStaticNames.tpl</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>17</v>
@@ -12215,12 +12257,12 @@
         <v>323</v>
       </c>
       <c r="N47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>351</v>
@@ -12232,14 +12274,14 @@
         <v>322</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>JavaBuilder.tpl</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>17</v>
@@ -12248,15 +12290,15 @@
         <v>323</v>
       </c>
       <c r="L48" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N48" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>351</v>
@@ -12268,14 +12310,14 @@
         <v>322</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>JsonBuilder.tpl</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>17</v>
@@ -12284,10 +12326,10 @@
         <v>323</v>
       </c>
       <c r="L49" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N49" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -12304,7 +12346,7 @@
         <v>322</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>367</v>
@@ -12322,7 +12364,7 @@
         <v>338</v>
       </c>
       <c r="N50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -12330,10 +12372,10 @@
         <v>335</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>12</v>
@@ -12360,15 +12402,15 @@
         <v>330</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>345</v>
@@ -12380,10 +12422,10 @@
         <v>369</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>41</v>
@@ -12395,18 +12437,18 @@
         <v>330</v>
       </c>
       <c r="N52" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>297</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>345</v>
@@ -12415,13 +12457,13 @@
         <v>322</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>41</v>
@@ -12433,7 +12475,7 @@
         <v>330</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -12450,13 +12492,13 @@
         <v>322</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>370</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>17</v>
@@ -12468,12 +12510,12 @@
         <v>338</v>
       </c>
       <c r="N54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>295</v>
@@ -12485,13 +12527,13 @@
         <v>322</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>17</v>
@@ -12500,15 +12542,15 @@
         <v>323</v>
       </c>
       <c r="L55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>295</v>
@@ -12520,13 +12562,13 @@
         <v>322</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G56" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>17</v>
@@ -12535,15 +12577,15 @@
         <v>323</v>
       </c>
       <c r="L56" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N56" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>295</v>
@@ -12555,13 +12597,13 @@
         <v>322</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>17</v>
@@ -12570,15 +12612,15 @@
         <v>323</v>
       </c>
       <c r="L57" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N57" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>295</v>
@@ -12590,13 +12632,13 @@
         <v>322</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="H58" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>17</v>
@@ -12605,15 +12647,15 @@
         <v>323</v>
       </c>
       <c r="L58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N58" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>295</v>
@@ -12625,13 +12667,13 @@
         <v>322</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>17</v>
@@ -12640,10 +12682,10 @@
         <v>323</v>
       </c>
       <c r="L59" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N59" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -12660,7 +12702,7 @@
         <v>322</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>337</v>
@@ -12678,12 +12720,12 @@
         <v>338</v>
       </c>
       <c r="N60" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>295</v>
@@ -12714,7 +12756,7 @@
         <v>338</v>
       </c>
       <c r="N61" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -12731,7 +12773,7 @@
         <v>322</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>340</v>
@@ -12749,12 +12791,12 @@
         <v>341</v>
       </c>
       <c r="N62" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>295</v>
@@ -12766,14 +12808,14 @@
         <v>322</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G63" s="2" t="str">
         <f>A63</f>
         <v>table.tpl</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>17</v>
@@ -12782,10 +12824,10 @@
         <v>323</v>
       </c>
       <c r="L63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N63" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
@@ -12793,10 +12835,10 @@
         <v>344</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C64" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>345</v>
@@ -12805,7 +12847,7 @@
         <v>322</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>344</v>
@@ -12823,7 +12865,7 @@
         <v>330</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -12831,7 +12873,7 @@
         <v>371</v>
       </c>
       <c r="C65" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>345</v>
@@ -12840,7 +12882,7 @@
         <v>322</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>371</v>
@@ -12855,7 +12897,7 @@
         <v>323</v>
       </c>
       <c r="N65" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
@@ -12863,7 +12905,7 @@
         <v>347</v>
       </c>
       <c r="C66" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>345</v>
@@ -12872,7 +12914,7 @@
         <v>322</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>347</v>
@@ -12887,18 +12929,18 @@
         <v>323</v>
       </c>
       <c r="N66" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>297</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>345</v>
@@ -12907,13 +12949,13 @@
         <v>322</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>41</v>
@@ -12925,7 +12967,7 @@
         <v>330</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -12933,7 +12975,7 @@
         <v>17</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>295</v>
@@ -12948,10 +12990,10 @@
         <v>342</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>17</v>
@@ -12963,7 +13005,7 @@
         <v>325</v>
       </c>
       <c r="N68" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -12980,7 +13022,7 @@
         <v>322</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>337</v>
@@ -12995,15 +13037,15 @@
         <v>323</v>
       </c>
       <c r="N69" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C70" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>345</v>
@@ -13012,13 +13054,13 @@
         <v>322</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>41</v>
@@ -13030,7 +13072,7 @@
         <v>325</v>
       </c>
       <c r="N70" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -13076,7 +13118,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -13094,7 +13136,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="136" x14ac:dyDescent="0.2">
@@ -13117,7 +13159,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="136" x14ac:dyDescent="0.2">
@@ -13140,7 +13182,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -13160,7 +13202,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -13180,7 +13222,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -13224,7 +13266,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -13236,7 +13278,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>318</v>
@@ -13250,7 +13292,7 @@
     </row>
     <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>284</v>
@@ -13262,16 +13304,16 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="K2" t="s">
         <v>338</v>
@@ -13294,18 +13336,18 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>284</v>
@@ -13317,16 +13359,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="K4" t="s">
         <v>338</v>
@@ -13334,7 +13376,7 @@
     </row>
     <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>280</v>
@@ -13343,19 +13385,19 @@
         <v>345</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>564</v>
-      </c>
       <c r="K5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/builder/src/main/resources/eo.xlsx
+++ b/builder/src/main/resources/eo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werner.diwischek/dev/elasticobjects/builder/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3675390-2969-9B40-A486-0ED59291798B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3CDF95-54C4-E34F-A725-8CECDD330BD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="600" windowWidth="28240" windowHeight="17100" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
   </bookViews>
@@ -21,9 +21,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DbSqlConfig!$A$1:$I$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FieldConfig!$A$1:$I$125</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FileConfig!$A$1:$M$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelConfig!$A$1:$N$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FieldConfig!$A$1:$J$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FileConfig!$A$1:$N$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelConfig!$A$1:$N$124</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="747">
   <si>
     <t>naturalId</t>
   </si>
@@ -1324,10 +1324,6 @@
     <t>eo-csv</t>
   </si>
   <si>
-    <t>[  "fieldDelimiter",
-      "rowDelimiter"]</t>
-  </si>
-  <si>
     <t>org.fluentcodes.projects.elasticobjects.calls.csv</t>
   </si>
   <si>
@@ -1346,9 +1342,6 @@
     <t>Defines default access values for ListParams</t>
   </si>
   <si>
-    <t>Defines default common methods for List configuration</t>
-  </si>
-  <si>
     <t>Defines the parameter listParams.</t>
   </si>
   <si>
@@ -1394,12 +1387,6 @@
     <t>moduleScope</t>
   </si>
   <si>
-    <t>{
-"classPath":"src.main.resources",
-"hostName":"localhost"
-}</t>
-  </si>
-  <si>
     <t>Json configurations for FieldConfig.</t>
   </si>
   <si>
@@ -1415,81 +1402,12 @@
     <t>Json configurations for  ModelConfig.</t>
   </si>
   <si>
-    <t>{"classPath":"src.main.resources"}</t>
-  </si>
-  <si>
-    <t>{"classPath":"src.test.resources"}</t>
-  </si>
-  <si>
-    <t>{
-"classPath":"src.main.resources",
-"rowHead": 0
-}</t>
-  </si>
-  <si>
-    <t>{
-"classPath":"src.test.resources",
-"rowHead": 0
-}</t>
-  </si>
-  <si>
-    <t>{"classPath":"src.main.resources",
- "rowHead": 0,  "rowStart": 1,  "rowEnd": 3}</t>
-  </si>
-  <si>
-    <t>{
-"classPath":"src.main.resources",
-"rowHead": 0,  "rowStart": 1,  "rowEnd": 4
-}</t>
-  </si>
-  <si>
-    <t>{"classPath":"src.main.resources",
-"rowHead": 0,
-"sheetName":"FileConfig"}</t>
-  </si>
-  <si>
-    <t>{"classPath":"src.main.resources",
-"rowHead": 0,
-"sheetName":"HostConfig"}</t>
-  </si>
-  <si>
-    <t>{"classPath":"src.main.resources",
-"rowHead": 0,
-"sheetName":"ModelConfig"}</t>
-  </si>
-  <si>
-    <t>{"classPath":"src.main.resources",
-"rowHead": 0,
-"sheetName":"FieldConfig"}</t>
-  </si>
-  <si>
-    <t>{"classPath":"src.main.resources",
-"rowHead": 0,
-"sheetName":"DbSqlConfig"}</t>
-  </si>
-  <si>
-    <t>{"classPath":"src.test.resources",
- "rowHead": 0,
-"sheetName":"test"}</t>
-  </si>
-  <si>
-    <t>{"classPath":"src/main/resources",
-"dbKey":"h2:mem:basic",
-"modelKey":""}</t>
-  </si>
-  <si>
     <t>Properties for configurations.</t>
   </si>
   <si>
     <t>[  "fieldKey",  "modelKeys",   "modelList"]</t>
   </si>
   <si>
-    <t>["properties"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Root interface for properties access. </t>
-  </si>
-  <si>
     <t>{"classPath":"src.main.java", "create": true,  "shapeType": "LIST",  "defaultImplementation": "ArrayList"}</t>
   </si>
   <si>
@@ -1544,53 +1462,12 @@
     <t>{"classPath":"src.main.java", "create": false,  "shapeType": "SET",  "defaultImplementation": "LinkedHashSet"}</t>
   </si>
   <si>
-    <t>{ "unique": true,  "notNull": true,  "classPath":"src.main.resources"}</t>
-  </si>
-  <si>
-    <t>{ "unique": true,  "notNull": true, "classPath":"src.main.resources"}</t>
-  </si>
-  <si>
-    <t>{ "fieldName": "ID",  "unique": true,  "notNull": true, "classPath":"src.main.resources"}</t>
-  </si>
-  <si>
     <t>[  "packagePath",  "modelKey",  "localFieldKeys",  "superKey",  "interfaces",  "fieldKeys"]</t>
   </si>
   <si>
-    <t>{
-"classPath":"src.main.resources",
-"schema":"mem:basic",
-"dbType":"H2",
-"extension":"DATABASE_TO_UPPER=false;",
-"driver":"org.h2.Driver",
-"protocol":"jdbc",
-"hostName":"h2"}</t>
-  </si>
-  <si>
-    <t>{
-"classPath":"src.main.resources",
-"schema":"file:basic",
-"dbType":"H2",
-"extension":"DATABASE_TO_UPPER=false;",
-"driver":"org.h2.Driver",
-"protocol":"jdbc",
-"hostName":"h2"}</t>
-  </si>
-  <si>
-    <t>[
- "scope",
- "expose",
-"properties",
-"module",
-"moduleScope"
-]</t>
-  </si>
-  <si>
     <t>Defines scope of the configuration within module, eg 'test' or 'main' .</t>
   </si>
   <si>
-    <t>{"classPath":"src.main.resources", "rowHead":0}</t>
-  </si>
-  <si>
     <t>content.xlsx</t>
   </si>
   <si>
@@ -1634,9 +1511,6 @@
   </si>
   <si>
     <t>StringReplaceWhiteSpaceCall</t>
-  </si>
-  <si>
-    <t>{"classPath":"src.main.resources", "rowHead":0, "sheetName":"intro"}</t>
   </si>
   <si>
     <t>templates</t>
@@ -1743,11 +1617,6 @@
   </si>
   <si>
     <t>Query for ASubObject</t>
-  </si>
-  <si>
-    <t>{"classPath":"src/main/resources",
-"dbKey":"h2:mem:basic",
-"modelKey":"ASubObject"}</t>
   </si>
   <si>
     <t>Example simple map which has the same field names as AnObject, so its mapable.</t>
@@ -2138,9 +2007,6 @@
     <t xml:space="preserve">Defines a primitive csv file write operation. </t>
   </si>
   <si>
-    <t xml:space="preserve">Configuration for csv files with fieldDelimiter and rowDelimiter fields. Will be used by CsvSimpleReadCall and CsvSimpleWriteCall in base package. </t>
-  </si>
-  <si>
     <t>Executes a list of sql statements within DbSqlConfig.</t>
   </si>
   <si>
@@ -2270,9 +2136,6 @@
     <t>ResourceConfig</t>
   </si>
   <si>
-    <t>ResourceProperties</t>
-  </si>
-  <si>
     <t>PermissionRole</t>
   </si>
   <si>
@@ -2280,12 +2143,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lists for the different roles e.g. guest for write. Central point add permissions to a configuration. Dependent of the permission type of a call a certain list wll be selected. When ist write with role guest then no exception is thrown. </t>
-  </si>
-  <si>
-    <t>Properties</t>
-  </si>
-  <si>
-    <t>ModuleProperties</t>
   </si>
   <si>
     <t>[  "permissionRole"]</t>
@@ -2320,6 +2177,195 @@
       "insert into AnObject (naturalId, myString,myInt,myBoolean) values ('key1', 'value1',1, true)",
       "insert into AnObject (naturalId, myString,myInt,myBoolean) values ('key2', 'value2',2, false)",
       "insert into AnObject (naturalId, myString,myInt,myBoolean) values ('key3', 'value3',3, true)"    ]</t>
+  </si>
+  <si>
+    <t>DbSqlProperties</t>
+  </si>
+  <si>
+    <t>Methods to get the dbKey property from properties map.</t>
+  </si>
+  <si>
+    <t>{"classPath":"src.main.java", "create": true,  "shapeType": "INTERFACE"}</t>
+  </si>
+  <si>
+    <t>DbProperties</t>
+  </si>
+  <si>
+    <t>Methods to get the properties schema from properties map.</t>
+  </si>
+  <si>
+    <t>HostProperties</t>
+  </si>
+  <si>
+    <t>ModelConfigProperties</t>
+  </si>
+  <si>
+    <t>Elementary model propeties.</t>
+  </si>
+  <si>
+    <t>FieldProperties</t>
+  </si>
+  <si>
+    <t>[  "unique",  "notNull",   "fieldName"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access methods for field properties map. </t>
+  </si>
+  <si>
+    <t>{
+"rowHead": 0,  "rowStart": 1,  "rowEnd": 4
+}</t>
+  </si>
+  <si>
+    <t>{ "rowHead":0}</t>
+  </si>
+  <si>
+    <t>{"rowHead":0, "sheetName":"intro"}</t>
+  </si>
+  <si>
+    <t>{
+"rowHead": 0
+}</t>
+  </si>
+  <si>
+    <t>{
+"rowHead": 0,
+"sheetName":"DbSqlConfig"}</t>
+  </si>
+  <si>
+    <t>{
+"rowHead": 0,
+"sheetName":"FieldConfig"}</t>
+  </si>
+  <si>
+    <t>{
+"rowHead": 0,
+"sheetName":"FileConfig"}</t>
+  </si>
+  <si>
+    <t>{
+"rowHead": 0,
+"sheetName":"HostConfig"}</t>
+  </si>
+  <si>
+    <t>{
+"rowHead": 0,
+"sheetName":"ModelConfig"}</t>
+  </si>
+  <si>
+    <t>{
+ "rowHead": 0,  "rowStart": 1,  "rowEnd": 3}</t>
+  </si>
+  <si>
+    <t>{
+ "rowHead": 0,
+"sheetName":"test"}</t>
+  </si>
+  <si>
+    <t>{
+"schema":"file:basic",
+"dbType":"H2",
+"extension":"DATABASE_TO_UPPER=false;",
+"driver":"org.h2.Driver",
+"protocol":"jdbc",
+"hostName":"h2"}</t>
+  </si>
+  <si>
+    <t>{
+"schema":"mem:basic",
+"dbType":"H2",
+"extension":"DATABASE_TO_UPPER=false;",
+"driver":"org.h2.Driver",
+"protocol":"jdbc",
+"hostName":"h2"}</t>
+  </si>
+  <si>
+    <t>{
+"hostName":"localhost"
+}</t>
+  </si>
+  <si>
+    <t>{
+"dbKey":"h2:mem:basic",
+"modelKey":""}</t>
+  </si>
+  <si>
+    <t>{
+"dbKey":"h2:mem:basic",
+"modelKey":"ASubObject"}</t>
+  </si>
+  <si>
+    <t>{
+"dbKey":"h2:mem:basic",
+"modelKey":"AnObject"}</t>
+  </si>
+  <si>
+    <t>{ "unique": true,  "notNull": true}</t>
+  </si>
+  <si>
+    <t>{ "fieldName": "ID",  "unique": true,  "notNull": true}</t>
+  </si>
+  <si>
+    <t>[
+ "scope",
+ "expose",
+"module",
+"moduleScope"
+]</t>
+  </si>
+  <si>
+    <t>ListProperties</t>
+  </si>
+  <si>
+    <t>CsvProperties</t>
+  </si>
+  <si>
+    <t>[
+      "fieldDelimiter",
+      "rowDelimiter"
+    ]</t>
+  </si>
+  <si>
+    <t>Defines access to list properties in configurations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration for csv files with fieldDelimiter and rowDelimiter fields. </t>
+  </si>
+  <si>
+    <t>Defines acces to csv properties with fieldDelimiter and rowDelimiter fields in CsvConfig.</t>
+  </si>
+  <si>
+    <t>{
+      "read": "guest"
+    }</t>
+  </si>
+  <si>
+    <t>PermissionProperties</t>
+  </si>
+  <si>
+    <t>ModelConfigDbObject</t>
+  </si>
+  <si>
+    <t>ModelConfigDbProperties</t>
+  </si>
+  <si>
+    <t>[
+      "table", "naturalKeys", "idKey"
+]</t>
+  </si>
+  <si>
+    <t>[
+      "shapeType",
+      "defaultImplementation",
+      "create",
+      "classPath"
+]</t>
+  </si>
+  <si>
+    <t>ModelConfigDbProperties,PermissionProperties</t>
+  </si>
+  <si>
+    <t>CsvProperties,ListProperties</t>
   </si>
 </sst>
 </file>
@@ -2705,13 +2751,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2949A4-7E1C-7F4B-A1BC-11445B521B01}">
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2732,7 +2778,7 @@
     <col min="14" max="14" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2743,7 +2789,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>55</v>
@@ -2770,13 +2816,16 @@
         <v>105</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>166</v>
       </c>
@@ -2799,45 +2848,51 @@
         <v>166</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>526</v>
+        <v>500</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>741</v>
       </c>
       <c r="C3" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="O3" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -2860,10 +2915,10 @@
         <v>48</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="177" customHeight="1" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>171</v>
       </c>
@@ -2886,47 +2941,53 @@
         <v>171</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>527</v>
+        <v>501</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>741</v>
       </c>
       <c r="C6" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>585</v>
+        <v>558</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="O6" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2944,22 +3005,22 @@
         <v>226</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>A7</f>
         <v>Base</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2968,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>41</v>
@@ -2977,20 +3038,20 @@
         <v>240</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>A8</f>
         <v>BaseImpl</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -3013,10 +3074,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>174</v>
       </c>
@@ -3027,7 +3088,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>41</v>
@@ -3042,15 +3103,15 @@
         <v>174</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -3065,7 +3126,7 @@
         <v>41</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>175</v>
@@ -3075,13 +3136,13 @@
         <v>CallContent</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="204" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="204" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>177</v>
       </c>
@@ -3092,13 +3153,13 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>174</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>41</v>
@@ -3114,15 +3175,15 @@
         <v>CallImpl</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -3131,13 +3192,13 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>175</v>
@@ -3147,13 +3208,13 @@
         <v>CallKeep</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>180</v>
       </c>
@@ -3177,13 +3238,13 @@
         <v>Class</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>181</v>
       </c>
@@ -3207,13 +3268,13 @@
         <v>Condition</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>183</v>
       </c>
@@ -3224,10 +3285,10 @@
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>499</v>
+        <v>732</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>41</v>
@@ -3243,7 +3304,7 @@
         <v>Config</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>169</v>
@@ -3279,7 +3340,7 @@
         <v>ConfigAsFlatListCall</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>169</v>
@@ -3315,7 +3376,7 @@
         <v>ConfigCall</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>169</v>
@@ -3332,13 +3393,13 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>183</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>41</v>
@@ -3354,7 +3415,7 @@
         <v>ConfigImpl</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>169</v>
@@ -3390,7 +3451,7 @@
         <v>ConfigKeysCall</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>169</v>
@@ -3398,7 +3459,7 @@
     </row>
     <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>288</v>
@@ -3407,13 +3468,13 @@
         <v>12</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>212</v>
@@ -3423,7 +3484,7 @@
         <v>ConfigLinkCall</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>169</v>
@@ -3458,7 +3519,7 @@
         <v>193</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>169</v>
@@ -3490,13 +3551,13 @@
         <v>197</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>426</v>
       </c>
@@ -3506,8 +3567,8 @@
       <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>429</v>
+      <c r="F24" s="2" t="s">
+        <v>746</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>206</v>
@@ -3516,7 +3577,7 @@
         <v>41</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>676</v>
+        <v>737</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>222</v>
@@ -3525,47 +3586,48 @@
         <v>426</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>427</v>
+        <v>734</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>428</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>224</v>
+      <c r="E25" s="2" t="s">
+        <v>735</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>434</v>
+        <v>738</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>482</v>
+        <v>222</v>
+      </c>
+      <c r="L25" s="2" t="str">
+        <f>A25</f>
+        <v>CsvProperties</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>673</v>
+        <v>733</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
@@ -3573,24 +3635,24 @@
       <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>224</v>
+      <c r="E26" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>251</v>
+        <v>736</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>222</v>
       </c>
       <c r="L26" s="2" t="str">
         <f>A26</f>
-        <v>CsvSimpleReadCall</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>482</v>
+        <v>ListProperties</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>169</v>
@@ -3598,10 +3660,10 @@
     </row>
     <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>674</v>
+        <v>427</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
@@ -3613,17 +3675,16 @@
         <v>17</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>675</v>
+        <v>433</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L27" s="2" t="str">
-        <f>A27</f>
-        <v>CsvSimpleWriteCall</v>
+        <v>429</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>169</v>
@@ -3631,31 +3692,32 @@
     </row>
     <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>431</v>
+        <v>646</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>428</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>432</v>
+        <v>224</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>433</v>
+        <v>251</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>431</v>
+        <v>222</v>
+      </c>
+      <c r="L28" s="2" t="str">
+        <f>A28</f>
+        <v>CsvSimpleReadCall</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>169</v>
@@ -3663,58 +3725,64 @@
     </row>
     <row r="29" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>237</v>
+        <v>647</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G29" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="I29" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>36</v>
+        <v>222</v>
+      </c>
+      <c r="L29" s="2" t="str">
+        <f>A29</f>
+        <v>CsvSimpleWriteCall</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>478</v>
+        <v>464</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>708</v>
+        <v>430</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>276</v>
+        <v>428</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>692</v>
+        <v>431</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>678</v>
+        <v>432</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L30" s="2" t="str">
-        <f>A30</f>
-        <v>DbCall</v>
+        <v>429</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>169</v>
@@ -3722,43 +3790,33 @@
     </row>
     <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>275</v>
+        <v>36</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>276</v>
+        <v>388</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="I31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="K31" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L31" s="2" t="str">
-        <f>A31</f>
-        <v>DbConfig</v>
+        <v>170</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>169</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>711</v>
+        <v>680</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>276</v>
@@ -3767,23 +3825,23 @@
         <v>12</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>708</v>
+        <v>664</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>278</v>
       </c>
       <c r="L32" s="2" t="str">
         <f>A32</f>
-        <v>DbModelCall</v>
+        <v>DbCall</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>169</v>
@@ -3791,7 +3849,7 @@
     </row>
     <row r="33" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>712</v>
+        <v>275</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>276</v>
@@ -3799,24 +3857,30 @@
       <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E33" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>705</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>711</v>
+        <v>210</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>714</v>
+        <v>277</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>278</v>
       </c>
       <c r="L33" s="2" t="str">
         <f>A33</f>
-        <v>DbModelDeleteCall</v>
+        <v>DbConfig</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>169</v>
@@ -3824,7 +3888,7 @@
     </row>
     <row r="34" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>276</v>
@@ -3832,27 +3896,24 @@
       <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>711</v>
+        <v>680</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>716</v>
+        <v>649</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>278</v>
       </c>
       <c r="L34" s="2" t="str">
         <f>A34</f>
-        <v>DbModelReadCall</v>
+        <v>DbModelCall</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>169</v>
@@ -3860,7 +3921,7 @@
     </row>
     <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>276</v>
@@ -3869,23 +3930,23 @@
         <v>12</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>715</v>
+        <v>686</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>278</v>
       </c>
       <c r="L35" s="2" t="str">
         <f>A35</f>
-        <v>DbModelWriteCall</v>
+        <v>DbModelDeleteCall</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>169</v>
@@ -3893,7 +3954,7 @@
     </row>
     <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>279</v>
+        <v>681</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>276</v>
@@ -3901,27 +3962,27 @@
       <c r="D36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>713</v>
+      <c r="F36" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>278</v>
       </c>
       <c r="L36" s="2" t="str">
         <f>A36</f>
-        <v>DbSqlCall</v>
+        <v>DbModelReadCall</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>169</v>
@@ -3929,7 +3990,7 @@
     </row>
     <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>280</v>
+        <v>682</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>276</v>
@@ -3937,27 +3998,24 @@
       <c r="D37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>719</v>
+        <v>683</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>281</v>
+        <v>687</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>278</v>
       </c>
       <c r="L37" s="2" t="str">
         <f>A37</f>
-        <v>DbSqlConfig</v>
+        <v>DbModelWriteCall</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>169</v>
@@ -3965,7 +4023,7 @@
     </row>
     <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>276</v>
@@ -3974,23 +4032,23 @@
         <v>12</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>279</v>
+        <v>183</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>278</v>
       </c>
       <c r="L38" s="2" t="str">
         <f>A38</f>
-        <v>DbSqlExecuteCall</v>
+        <v>DbProperties</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>482</v>
+        <v>704</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>169</v>
@@ -3998,7 +4056,7 @@
     </row>
     <row r="39" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>731</v>
+        <v>279</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>276</v>
@@ -4006,27 +4064,27 @@
       <c r="D39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>391</v>
+      <c r="E39" s="2" t="s">
+        <v>685</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>279</v>
+        <v>680</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>278</v>
       </c>
       <c r="L39" s="2" t="str">
         <f>A39</f>
-        <v>DbSqlReadCall</v>
+        <v>DbSqlCall</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>169</v>
@@ -4034,10 +4092,7 @@
     </row>
     <row r="40" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>276</v>
@@ -4045,123 +4100,132 @@
       <c r="D40" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E40" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>691</v>
+      </c>
       <c r="I40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>278</v>
       </c>
       <c r="L40" s="2" t="str">
         <f>A40</f>
-        <v>DbTypes</v>
+        <v>DbSqlConfig</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>576</v>
+        <v>679</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="L41" s="2" t="str">
         <f>A41</f>
-        <v>DirectoryConfig</v>
+        <v>DbSqlExecuteCall</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>625</v>
+        <v>702</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="L42" s="2" t="str">
         <f>A42</f>
-        <v>DirectoryListReadCall</v>
+        <v>DbSqlProperties</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>482</v>
+        <v>704</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>651</v>
+        <v>700</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>652</v>
+      <c r="F43" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>625</v>
+        <v>279</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="L43" s="2" t="str">
         <f>A43</f>
-        <v>DirectoryMapReadCall</v>
+        <v>DbSqlReadCall</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>169</v>
@@ -4169,69 +4233,73 @@
     </row>
     <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>574</v>
+        <v>282</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="I44" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>575</v>
+        <v>283</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="L44" s="2" t="str">
         <f>A44</f>
-        <v>DirectoryReadCall</v>
+        <v>DbTypes</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>237</v>
+        <v>549</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G45" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="I45" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J45" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="K45" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>151</v>
+        <v>207</v>
+      </c>
+      <c r="L45" s="2" t="str">
+        <f>A45</f>
+        <v>DirectoryConfig</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>199</v>
+        <v>598</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
@@ -4239,31 +4307,32 @@
       <c r="D46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>181</v>
+      <c r="G46" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>200</v>
+        <v>599</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
+      </c>
+      <c r="L46" s="2" t="str">
+        <f>A46</f>
+        <v>DirectoryListReadCall</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>201</v>
+        <v>624</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
@@ -4271,20 +4340,27 @@
       <c r="D47" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E47" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>598</v>
+      </c>
       <c r="I47" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>202</v>
+        <v>626</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
+      </c>
+      <c r="L47" s="2" t="str">
+        <f>A47</f>
+        <v>DirectoryMapReadCall</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>169</v>
@@ -4292,10 +4368,7 @@
     </row>
     <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>237</v>
+        <v>547</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
@@ -4303,63 +4376,61 @@
       <c r="D48" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E48" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="I48" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>203</v>
+        <v>548</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>51</v>
+        <v>207</v>
+      </c>
+      <c r="L48" s="2" t="str">
+        <f>A48</f>
+        <v>DirectoryReadCall</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>204</v>
+        <v>151</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="I49" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="K49" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
@@ -4367,26 +4438,23 @@
       <c r="D50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>719</v>
+      <c r="F50" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>579</v>
+        <v>200</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>169</v>
@@ -4394,7 +4462,7 @@
     </row>
     <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
@@ -4402,23 +4470,20 @@
       <c r="D51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>693</v>
-      </c>
       <c r="I51" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>698</v>
+        <v>202</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>169</v>
@@ -4426,7 +4491,10 @@
     </row>
     <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>209</v>
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
@@ -4434,199 +4502,199 @@
       <c r="D52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>694</v>
-      </c>
       <c r="I52" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>697</v>
+        <v>203</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E53" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="I53" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J53" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="K53" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>639</v>
+        <v>712</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>640</v>
+        <v>184</v>
       </c>
       <c r="L54" s="2" t="str">
         <f>A54</f>
-        <v>GenerateCall</v>
+        <v>FieldProperties</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>641</v>
+        <v>206</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>642</v>
+        <v>383</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>637</v>
+        <v>691</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>643</v>
+        <v>552</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="L55" s="2" t="str">
-        <f>A55</f>
-        <v>GenerateJavaCall</v>
+        <v>207</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>682</v>
+        <v>208</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>644</v>
-      </c>
       <c r="G56" s="2" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>645</v>
+        <v>670</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="L56" s="2" t="str">
-        <f>A56</f>
-        <v>GenerateJsonConfigCall</v>
+        <v>207</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>570</v>
+        <v>209</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>571</v>
+        <v>696</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>213</v>
+        <v>666</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>572</v>
+        <v>669</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="L57" s="2" t="str">
-        <f>A57</f>
-        <v>GithubLinkCall</v>
+        <v>207</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>169</v>
@@ -4634,13 +4702,13 @@
     </row>
     <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>12</v>
@@ -4649,137 +4717,165 @@
         <v>41</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>172</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>210</v>
+        <v>610</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>438</v>
+        <v>611</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>719</v>
+        <v>177</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>211</v>
+        <v>612</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>210</v>
+        <v>613</v>
+      </c>
+      <c r="L59" s="2" t="str">
+        <f>A59</f>
+        <v>GenerateCall</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>237</v>
+        <v>614</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E60" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>610</v>
+      </c>
       <c r="I60" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J60" s="2" t="s">
+        <v>616</v>
+      </c>
       <c r="K60" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>81</v>
+        <v>613</v>
+      </c>
+      <c r="L60" s="2" t="str">
+        <f>A60</f>
+        <v>GenerateJavaCall</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>237</v>
+        <v>654</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E61" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>610</v>
+      </c>
       <c r="I61" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J61" s="2" t="s">
+        <v>618</v>
+      </c>
       <c r="K61" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>139</v>
+        <v>613</v>
+      </c>
+      <c r="L61" s="2" t="str">
+        <f>A61</f>
+        <v>GenerateJsonConfigCall</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>478</v>
+        <v>464</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>237</v>
+        <v>543</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E62" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="I62" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>216</v>
+        <v>545</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>92</v>
+        <v>212</v>
+      </c>
+      <c r="L62" s="2" t="str">
+        <f>A62</f>
+        <v>GithubLinkCall</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>217</v>
+        <v>38</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
@@ -4787,63 +4883,60 @@
       <c r="D63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="I63" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="K63" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E64" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>691</v>
+      </c>
       <c r="I64" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J64" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="K64" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>172</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>239</v>
+        <v>707</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
@@ -4851,28 +4944,35 @@
       <c r="D65" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G65" s="2" t="s">
+        <v>691</v>
+      </c>
       <c r="I65" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J65" s="2" t="s">
+        <v>706</v>
+      </c>
       <c r="K65" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>220</v>
+        <v>175</v>
+      </c>
+      <c r="L65" s="2" t="str">
+        <f>A65</f>
+        <v>HostProperties</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>388</v>
@@ -4884,53 +4984,47 @@
         <v>41</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>391</v>
+        <v>139</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="I67" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="K67" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
@@ -4938,31 +5032,28 @@
       <c r="D68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="I68" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
@@ -4971,74 +5062,65 @@
         <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>693</v>
+        <v>181</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>437</v>
+        <v>218</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>432</v>
+        <v>219</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>694</v>
-      </c>
       <c r="I70" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>679</v>
-      </c>
       <c r="K70" s="2" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>432</v>
+        <v>219</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>12</v>
@@ -5047,21 +5129,24 @@
         <v>41</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>237</v>
+        <v>221</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>388</v>
@@ -5073,41 +5158,53 @@
         <v>41</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>478</v>
+        <v>457</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>225</v>
+        <v>391</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E73" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="I73" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J73" s="2" t="s">
+        <v>434</v>
+      </c>
       <c r="K73" s="2" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>11</v>
@@ -5115,34 +5212,31 @@
       <c r="D74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>190</v>
+      <c r="E74" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>618</v>
+        <v>224</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>11</v>
@@ -5150,27 +5244,26 @@
       <c r="D75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>496</v>
+      <c r="F75" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>183</v>
+        <v>665</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>228</v>
+        <v>435</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L75" s="2" t="str">
-        <f>A75</f>
-        <v>ModelConfigInterface</v>
+        <v>222</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>169</v>
@@ -5178,7 +5271,7 @@
     </row>
     <row r="76" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>229</v>
+        <v>431</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>11</v>
@@ -5186,23 +5279,26 @@
       <c r="D76" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F76" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="G76" s="2" t="s">
-        <v>227</v>
+        <v>666</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>230</v>
+        <v>651</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>229</v>
+        <v>431</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>169</v>
@@ -5210,103 +5306,82 @@
     </row>
     <row r="77" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>231</v>
+        <v>100</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="I77" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="K77" s="2" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>169</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>233</v>
+        <v>45</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="I78" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="K78" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="I79" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="K79" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>169</v>
+        <v>470</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>11</v>
@@ -5314,31 +5389,34 @@
       <c r="D80" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F80" s="2" t="s">
+        <v>708</v>
+      </c>
       <c r="G80" s="2" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>184</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>239</v>
+        <v>741</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
@@ -5346,31 +5424,35 @@
       <c r="D81" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F81" s="2" t="s">
+        <v>745</v>
+      </c>
       <c r="G81" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L81" s="2" t="s">
-        <v>239</v>
+      <c r="L81" s="2" t="str">
+        <f>A81</f>
+        <v>ModelConfigDbObject</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>241</v>
+        <v>742</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>11</v>
@@ -5378,28 +5460,35 @@
       <c r="D82" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E82" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>591</v>
+      </c>
       <c r="I82" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>242</v>
+        <v>709</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L82" s="2" t="s">
-        <v>241</v>
+      <c r="L82" s="2" t="str">
+        <f>A82</f>
+        <v>ModelConfigDbProperties</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>725</v>
+        <v>591</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>11</v>
@@ -5407,24 +5496,27 @@
       <c r="D83" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E83" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="G83" s="2" t="s">
-        <v>724</v>
+        <v>183</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>436</v>
+        <v>228</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>184</v>
       </c>
       <c r="L83" s="2" t="str">
         <f>A83</f>
-        <v>ModuleProperties</v>
+        <v>ModelConfigInterface</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>169</v>
@@ -5432,10 +5524,7 @@
     </row>
     <row r="84" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>11</v>
@@ -5443,25 +5532,31 @@
       <c r="D84" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G84" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="I84" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J84" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="K84" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>11</v>
@@ -5469,20 +5564,23 @@
       <c r="D85" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G85" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="I85" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>169</v>
@@ -5490,7 +5588,7 @@
     </row>
     <row r="86" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>11</v>
@@ -5498,20 +5596,23 @@
       <c r="D86" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G86" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="I86" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>169</v>
@@ -5519,7 +5620,7 @@
     </row>
     <row r="87" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>11</v>
@@ -5527,31 +5628,31 @@
       <c r="D87" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>285</v>
+      <c r="G87" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
@@ -5560,68 +5661,66 @@
         <v>12</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>286</v>
+        <v>744</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>591</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>248</v>
+        <v>709</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="L88" s="2" t="str">
         <f>A88</f>
-        <v>PermissionRole</v>
+        <v>ModelConfigProperties</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>474</v>
+      <c r="A89" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L89" s="2" t="str">
-        <f>A89</f>
-        <v>Properties</v>
+      <c r="L89" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="N89" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="N89" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>692</v>
+        <v>239</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>11</v>
@@ -5629,30 +5728,23 @@
       <c r="D90" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>704</v>
-      </c>
       <c r="G90" s="2" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L90" s="2" t="str">
-        <f>A90</f>
-        <v>ResourceCall</v>
+        <v>184</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>169</v>
@@ -5660,7 +5752,7 @@
     </row>
     <row r="91" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>719</v>
+        <v>241</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>11</v>
@@ -5668,32 +5760,31 @@
       <c r="D91" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="I91" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L91" s="2" t="str">
-        <f>A91</f>
-        <v>ResourceConfig</v>
+        <v>184</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>483</v>
+        <v>465</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>720</v>
+        <v>153</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>11</v>
@@ -5701,29 +5792,25 @@
       <c r="D92" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>726</v>
-      </c>
       <c r="I92" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="K92" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L92" s="2" t="str">
-        <f>A92</f>
-        <v>ResourceProperties</v>
+        <v>173</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>693</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>11</v>
@@ -5731,27 +5818,20 @@
       <c r="D93" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>692</v>
-      </c>
       <c r="I93" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>695</v>
+        <v>243</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L93" s="2" t="str">
-        <f>A93</f>
-        <v>ResourceReadCall</v>
+        <v>167</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>169</v>
@@ -5759,7 +5839,7 @@
     </row>
     <row r="94" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>694</v>
+        <v>244</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>11</v>
@@ -5767,30 +5847,20 @@
       <c r="D94" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>692</v>
-      </c>
       <c r="I94" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>696</v>
+        <v>245</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L94" s="2" t="str">
-        <f>A94</f>
-        <v>ResourceWriteCall</v>
+        <v>214</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>169</v>
@@ -5798,10 +5868,7 @@
     </row>
     <row r="95" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>11</v>
@@ -5809,20 +5876,23 @@
       <c r="D95" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E95" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="I95" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>169</v>
@@ -5830,10 +5900,7 @@
     </row>
     <row r="96" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>239</v>
+        <v>692</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>11</v>
@@ -5841,28 +5908,32 @@
       <c r="D96" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E96" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="I96" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J96" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="K96" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>252</v>
+        <v>175</v>
+      </c>
+      <c r="L96" s="2" t="str">
+        <f>A96</f>
+        <v>PermissionRole</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>237</v>
+        <v>664</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>11</v>
@@ -5870,20 +5941,30 @@
       <c r="D97" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E97" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="I97" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>144</v>
+        <v>175</v>
+      </c>
+      <c r="L97" s="2" t="str">
+        <f>A97</f>
+        <v>ResourceCall</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>169</v>
@@ -5891,10 +5972,7 @@
     </row>
     <row r="98" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>237</v>
+        <v>691</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>11</v>
@@ -5902,25 +5980,32 @@
       <c r="D98" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F98" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="I98" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J98" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="K98" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>254</v>
+        <v>175</v>
+      </c>
+      <c r="L98" s="2" t="str">
+        <f>A98</f>
+        <v>ResourceConfig</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>213</v>
+        <v>740</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>11</v>
@@ -5928,31 +6013,29 @@
       <c r="D99" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>177</v>
+      <c r="E99" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>213</v>
+        <v>175</v>
+      </c>
+      <c r="L99" s="2" t="str">
+        <f>A99</f>
+        <v>PermissionProperties</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>256</v>
+        <v>665</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
@@ -5960,23 +6043,27 @@
       <c r="D100" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E100" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="G100" s="2" t="s">
-        <v>177</v>
+        <v>664</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>257</v>
+        <v>667</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>256</v>
+        <v>175</v>
+      </c>
+      <c r="L100" s="2" t="str">
+        <f>A100</f>
+        <v>ResourceReadCall</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>169</v>
@@ -5984,33 +6071,46 @@
     </row>
     <row r="101" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>237</v>
+        <v>666</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E101" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>664</v>
+      </c>
       <c r="I101" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J101" s="2" t="s">
+        <v>668</v>
+      </c>
       <c r="K101" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>15</v>
+        <v>175</v>
+      </c>
+      <c r="L101" s="2" t="str">
+        <f>A101</f>
+        <v>ResourceWriteCall</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>478</v>
+        <v>462</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>237</v>
@@ -6024,25 +6124,28 @@
       <c r="I102" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J102" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="K102" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
@@ -6054,21 +6157,24 @@
         <v>41</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>260</v>
+        <v>144</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
@@ -6076,31 +6182,31 @@
       <c r="D104" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="I104" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
@@ -6108,35 +6214,26 @@
       <c r="D105" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G105" s="2" t="s">
+      <c r="I105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
       </c>
@@ -6144,22 +6241,22 @@
         <v>12</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>515</v>
+        <v>255</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>212</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>516</v>
+        <v>213</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>169</v>
@@ -6167,7 +6264,7 @@
     </row>
     <row r="107" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>523</v>
+        <v>256</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>11</v>
@@ -6176,62 +6273,59 @@
         <v>12</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>515</v>
+        <v>257</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>212</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>523</v>
+        <v>256</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>264</v>
+        <v>15</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="I108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>11</v>
@@ -6239,31 +6333,28 @@
       <c r="D109" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="I109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
@@ -6271,38 +6362,25 @@
       <c r="D110" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="I110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L110" s="2" t="str">
-        <f>A110</f>
-        <v>TemplateCall</v>
+        <v>173</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>686</v>
+        <v>260</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>11</v>
@@ -6310,35 +6388,31 @@
       <c r="D111" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>691</v>
-      </c>
       <c r="G111" s="2" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>687</v>
+        <v>261</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L111" s="2" t="str">
-        <f>A111</f>
-        <v>TemplateDirResourceCall</v>
+        <v>212</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
@@ -6347,37 +6421,33 @@
         <v>12</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>704</v>
+        <v>384</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>688</v>
+        <v>263</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L112" s="2" t="str">
-        <f>A112</f>
-        <v>TemplateResourceCall</v>
+        <v>212</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N112" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
@@ -6385,27 +6455,23 @@
       <c r="D113" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="G113" s="2" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>270</v>
+        <v>490</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L113" s="2" t="str">
-        <f>A113</f>
-        <v>TemplateResourceStoreCall</v>
+        <v>212</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>491</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N113" s="2" t="s">
         <v>169</v>
@@ -6413,16 +6479,13 @@
     </row>
     <row r="114" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>287</v>
+        <v>497</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>213</v>
@@ -6431,25 +6494,24 @@
         <v>17</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>289</v>
+        <v>490</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="L114" s="2" t="str">
-        <f>A114</f>
-        <v>TheGreetingCall</v>
+      <c r="L114" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
@@ -6457,106 +6519,356 @@
       <c r="D115" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>702</v>
-      </c>
       <c r="G115" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>212</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>417</v>
+        <v>11</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="G116" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>417</v>
+        <v>11</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E117" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>674</v>
+      </c>
       <c r="G117" s="2" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>680</v>
+        <v>268</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>293</v>
+        <v>215</v>
+      </c>
+      <c r="L117" s="2" t="str">
+        <f>A117</f>
+        <v>TemplateCall</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>169</v>
       </c>
     </row>
+    <row r="118" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L118" s="2" t="str">
+        <f>A118</f>
+        <v>TemplateDirResourceCall</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L119" s="2" t="str">
+        <f>A119</f>
+        <v>TemplateResourceCall</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L120" s="2" t="str">
+        <f>A120</f>
+        <v>TemplateResourceStoreCall</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L121" s="2" t="str">
+        <f>A121</f>
+        <v>TheGreetingCall</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N117" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
-    <sortState ref="A2:N117">
-      <sortCondition ref="A2:A117"/>
+  <autoFilter ref="A1:N124" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
+    <sortState ref="A2:N124">
+      <sortCondition ref="A2:A124"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:N117">
-    <sortCondition ref="A2:A117"/>
+  <sortState ref="A2:N124">
+    <sortCondition ref="A2:A124"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6568,23 +6880,24 @@
   <dimension ref="A1:J944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E106" sqref="E106"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="48.6640625" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -6595,7 +6908,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -6616,7 +6929,7 @@
         <v>94</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="86" customHeight="1" x14ac:dyDescent="0.2">
@@ -6642,9 +6955,6 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="3" spans="1:10" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -6672,13 +6982,10 @@
       <c r="I3">
         <v>256</v>
       </c>
-      <c r="J3" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="B4" t="s">
         <v>343</v>
@@ -6701,9 +7008,6 @@
       <c r="I4">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="5" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -6728,13 +7032,10 @@
       <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="6" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -6746,7 +7047,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -6759,9 +7060,6 @@
       <c r="I6">
         <v>64</v>
       </c>
-      <c r="J6" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -6786,9 +7084,6 @@
       <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -6816,9 +7111,6 @@
       <c r="I8">
         <v>1000</v>
       </c>
-      <c r="J8" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -6846,9 +7138,6 @@
       <c r="I9">
         <v>64</v>
       </c>
-      <c r="J9" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -6876,9 +7165,6 @@
       <c r="I10">
         <v>64</v>
       </c>
-      <c r="J10" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -6906,9 +7192,6 @@
       <c r="I11">
         <v>80</v>
       </c>
-      <c r="J11" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -6936,9 +7219,6 @@
       <c r="I12">
         <v>64</v>
       </c>
-      <c r="J12" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -6966,9 +7246,6 @@
       <c r="I13">
         <v>10000</v>
       </c>
-      <c r="J13" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -6996,9 +7273,6 @@
       <c r="I14">
         <v>256</v>
       </c>
-      <c r="J14" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -7023,9 +7297,6 @@
       <c r="H15" t="s">
         <v>35</v>
       </c>
-      <c r="J15" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -7050,9 +7321,6 @@
       <c r="H16" t="s">
         <v>294</v>
       </c>
-      <c r="J16" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -7081,7 +7349,7 @@
         <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>493</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -7107,9 +7375,6 @@
       <c r="H18" t="s">
         <v>298</v>
       </c>
-      <c r="J18" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -7138,9 +7403,6 @@
       <c r="I19">
         <v>80</v>
       </c>
-      <c r="J19" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -7168,9 +7430,6 @@
       <c r="I20">
         <v>256</v>
       </c>
-      <c r="J20" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -7198,9 +7457,6 @@
       <c r="I21">
         <v>512</v>
       </c>
-      <c r="J21" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -7229,9 +7485,6 @@
       <c r="I22">
         <v>80</v>
       </c>
-      <c r="J22" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -7256,13 +7509,10 @@
       <c r="H23" t="s">
         <v>44</v>
       </c>
-      <c r="J23" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -7274,20 +7524,17 @@
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="I24">
         <v>500</v>
-      </c>
-      <c r="J24" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7314,9 +7561,6 @@
       <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="J25" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -7344,9 +7588,6 @@
       <c r="I26">
         <v>256</v>
       </c>
-      <c r="J26" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -7372,9 +7613,6 @@
       <c r="H27" t="s">
         <v>6</v>
       </c>
-      <c r="J27" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="28" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -7402,9 +7640,6 @@
       <c r="I28">
         <v>1024</v>
       </c>
-      <c r="J28" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="29" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -7432,9 +7667,6 @@
       <c r="I29">
         <v>4</v>
       </c>
-      <c r="J29" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -7463,9 +7695,6 @@
       <c r="I30">
         <v>80</v>
       </c>
-      <c r="J30" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="31" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -7490,9 +7719,6 @@
       <c r="H31" t="s">
         <v>55</v>
       </c>
-      <c r="J31" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="32" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -7520,13 +7746,10 @@
       <c r="I32">
         <v>80</v>
       </c>
-      <c r="J32" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="33" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -7538,7 +7761,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="F33" t="s">
         <v>41</v>
@@ -7551,9 +7774,6 @@
       <c r="I33">
         <v>16</v>
       </c>
-      <c r="J33" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -7581,9 +7801,6 @@
       <c r="I34">
         <v>80</v>
       </c>
-      <c r="J34" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -7612,9 +7829,6 @@
       <c r="I35">
         <v>80</v>
       </c>
-      <c r="J35" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -7643,9 +7857,6 @@
       <c r="I36">
         <v>512</v>
       </c>
-      <c r="J36" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -7673,9 +7884,6 @@
       <c r="I37">
         <v>512</v>
       </c>
-      <c r="J37" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -7703,9 +7911,6 @@
       <c r="I38">
         <v>64</v>
       </c>
-      <c r="J38" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="39" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -7733,9 +7938,6 @@
       <c r="I39">
         <v>64</v>
       </c>
-      <c r="J39" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="40" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -7763,9 +7965,6 @@
       <c r="I40">
         <v>15</v>
       </c>
-      <c r="J40" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -7794,9 +7993,6 @@
       <c r="I41">
         <v>16</v>
       </c>
-      <c r="J41" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="42" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -7821,9 +8017,6 @@
       <c r="H42" t="s">
         <v>70</v>
       </c>
-      <c r="J42" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -7851,9 +8044,6 @@
       <c r="I43">
         <v>80</v>
       </c>
-      <c r="J43" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -7881,9 +8071,6 @@
       <c r="I44">
         <v>80</v>
       </c>
-      <c r="J44" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -7909,7 +8096,7 @@
         <v>76</v>
       </c>
       <c r="J45" t="s">
-        <v>494</v>
+        <v>730</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7938,9 +8125,6 @@
       <c r="I46">
         <v>80</v>
       </c>
-      <c r="J46" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -7965,9 +8149,6 @@
       <c r="H47" t="s">
         <v>80</v>
       </c>
-      <c r="J47" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -7995,11 +8176,8 @@
       <c r="I48">
         <v>80</v>
       </c>
-      <c r="J48" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -8026,13 +8204,10 @@
       <c r="I49">
         <v>256</v>
       </c>
-      <c r="J49" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -8044,7 +8219,7 @@
         <v>225</v>
       </c>
       <c r="E50" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F50" t="s">
         <v>41</v>
@@ -8053,11 +8228,8 @@
         <f>A50</f>
         <v>javaProperties</v>
       </c>
-      <c r="J50" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>305</v>
       </c>
@@ -8084,11 +8256,8 @@
       <c r="I51">
         <v>80</v>
       </c>
-      <c r="J51" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -8115,11 +8284,8 @@
       <c r="I52">
         <v>80</v>
       </c>
-      <c r="J52" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -8145,11 +8311,8 @@
       <c r="I53">
         <v>80</v>
       </c>
-      <c r="J53" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -8163,7 +8326,7 @@
         <v>92</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -8173,11 +8336,8 @@
         <f>A54</f>
         <v>keepCall</v>
       </c>
-      <c r="J54" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -8204,11 +8364,8 @@
       <c r="I55">
         <v>80</v>
       </c>
-      <c r="J55" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -8232,11 +8389,8 @@
         <f>A56</f>
         <v>length</v>
       </c>
-      <c r="J56" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -8263,11 +8417,8 @@
       <c r="I57">
         <v>80</v>
       </c>
-      <c r="J57" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>424</v>
       </c>
@@ -8290,11 +8441,8 @@
       <c r="H58" t="s">
         <v>424</v>
       </c>
-      <c r="J58" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -8319,11 +8467,8 @@
         <f>A59</f>
         <v>logLevel</v>
       </c>
-      <c r="J59" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -8350,11 +8495,8 @@
       <c r="I60">
         <v>80</v>
       </c>
-      <c r="J60" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -8380,11 +8522,8 @@
       <c r="I61">
         <v>80</v>
       </c>
-      <c r="J61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -8411,11 +8550,8 @@
       <c r="I62">
         <v>80</v>
       </c>
-      <c r="J62" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -8441,11 +8577,8 @@
       <c r="I63">
         <v>256</v>
       </c>
-      <c r="J63" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -8468,11 +8601,8 @@
       <c r="H64" t="s">
         <v>3</v>
       </c>
-      <c r="J64" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -8498,11 +8628,8 @@
       <c r="I65">
         <v>512</v>
       </c>
-      <c r="J65" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -8528,13 +8655,10 @@
       <c r="I66">
         <v>80</v>
       </c>
-      <c r="J66" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -8546,37 +8670,34 @@
         <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I67">
         <v>10</v>
       </c>
-      <c r="J67" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="B68" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -8586,22 +8707,19 @@
         <f>A68</f>
         <v>myAnObject</v>
       </c>
-      <c r="J68" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="B69" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>A69</f>
@@ -8615,25 +8733,22 @@
         <f>A69</f>
         <v>myASubObject</v>
       </c>
-      <c r="J69" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="B70" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -8643,25 +8758,22 @@
         <f>A70</f>
         <v>myASubObjectList</v>
       </c>
-      <c r="J70" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="B71" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -8671,16 +8783,13 @@
         <f>A71</f>
         <v>myASubObjectMap</v>
       </c>
-      <c r="J71" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="B72" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -8700,16 +8809,13 @@
         <f>A72</f>
         <v>myBoolean</v>
       </c>
-      <c r="J72" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="B73" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -8729,16 +8835,13 @@
         <f>A73</f>
         <v>myDate</v>
       </c>
-      <c r="J73" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="B74" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -8758,16 +8861,13 @@
         <f>A74</f>
         <v>myDouble</v>
       </c>
-      <c r="J74" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="B75" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -8787,16 +8887,13 @@
         <f>A75</f>
         <v>myFloat</v>
       </c>
-      <c r="J75" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="B76" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -8815,16 +8912,13 @@
         <f>A76</f>
         <v>myInt</v>
       </c>
-      <c r="J76" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="B77" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -8844,16 +8938,13 @@
         <f>A77</f>
         <v>myList</v>
       </c>
-      <c r="J77" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="B78" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -8873,16 +8964,13 @@
         <f>A78</f>
         <v>myLong</v>
       </c>
-      <c r="J78" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="B79" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -8901,16 +8989,13 @@
         <f>A79</f>
         <v>myMap</v>
       </c>
-      <c r="J79" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="B80" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -8929,16 +9014,13 @@
         <f>A80</f>
         <v>myObject</v>
       </c>
-      <c r="J80" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="81" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="B81" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -8960,9 +9042,6 @@
       <c r="I81">
         <v>20</v>
       </c>
-      <c r="J81" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -8990,9 +9069,6 @@
       <c r="I82">
         <v>80</v>
       </c>
-      <c r="J82" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="83" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -9021,7 +9097,7 @@
         <v>80</v>
       </c>
       <c r="J83" t="s">
-        <v>494</v>
+        <v>730</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9048,13 +9124,10 @@
       <c r="H84" t="s">
         <v>115</v>
       </c>
-      <c r="J84" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>681</v>
+        <v>653</v>
       </c>
       <c r="B85" t="s">
         <v>288</v>
@@ -9077,9 +9150,6 @@
         <f>A85</f>
         <v>noGithub</v>
       </c>
-      <c r="J85" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -9105,9 +9175,6 @@
       <c r="H86" t="s">
         <v>116</v>
       </c>
-      <c r="J86" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -9133,9 +9200,6 @@
       <c r="H87" t="s">
         <v>117</v>
       </c>
-      <c r="J87" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="88" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -9163,9 +9227,6 @@
       <c r="I88">
         <v>12</v>
       </c>
-      <c r="J88" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -9194,9 +9255,6 @@
       <c r="I89">
         <v>124</v>
       </c>
-      <c r="J89" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -9224,13 +9282,10 @@
       <c r="I90">
         <v>15</v>
       </c>
-      <c r="J90" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="91" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>722</v>
+        <v>693</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -9239,10 +9294,10 @@
         <v>12</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>721</v>
+        <v>692</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>723</v>
+        <v>694</v>
       </c>
       <c r="F91" t="s">
         <v>41</v>
@@ -9252,9 +9307,6 @@
         <f>A91</f>
         <v>permissionRole</v>
       </c>
-      <c r="J91" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="92" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -9281,9 +9333,6 @@
       </c>
       <c r="I92">
         <v>256</v>
-      </c>
-      <c r="J92" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9311,13 +9360,10 @@
         <f>A93</f>
         <v>port</v>
       </c>
-      <c r="J93" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="94" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -9329,7 +9375,7 @@
         <v>15</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="F94" t="s">
         <v>41</v>
@@ -9342,13 +9388,10 @@
       <c r="I94">
         <v>256</v>
       </c>
-      <c r="J94" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="95" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -9360,7 +9403,7 @@
         <v>15</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="F95" t="s">
         <v>41</v>
@@ -9373,13 +9416,10 @@
       <c r="I95">
         <v>256</v>
       </c>
-      <c r="J95" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="96" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -9391,20 +9431,17 @@
         <v>225</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" t="s">
-        <v>450</v>
-      </c>
-      <c r="J96" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -9431,11 +9468,8 @@
       <c r="I97">
         <v>8</v>
       </c>
-      <c r="J97" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -9461,11 +9495,8 @@
       <c r="I98">
         <v>256</v>
       </c>
-      <c r="J98" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>129</v>
       </c>
@@ -9492,11 +9523,8 @@
       <c r="I99">
         <v>5</v>
       </c>
-      <c r="J99" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>131</v>
       </c>
@@ -9522,11 +9550,8 @@
       <c r="I100">
         <v>4</v>
       </c>
-      <c r="J100" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>133</v>
       </c>
@@ -9550,11 +9575,8 @@
       <c r="H101" t="s">
         <v>133</v>
       </c>
-      <c r="J101" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>134</v>
       </c>
@@ -9578,11 +9600,8 @@
       <c r="H102" t="s">
         <v>134</v>
       </c>
-      <c r="J102" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>135</v>
       </c>
@@ -9606,11 +9625,8 @@
       <c r="H103" t="s">
         <v>135</v>
       </c>
-      <c r="J103" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>307</v>
       </c>
@@ -9636,11 +9652,8 @@
       <c r="I104">
         <v>80</v>
       </c>
-      <c r="J104" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -9663,11 +9676,8 @@
       <c r="H105" t="s">
         <v>5</v>
       </c>
-      <c r="J105" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>138</v>
       </c>
@@ -9690,11 +9700,8 @@
       <c r="H106" t="s">
         <v>138</v>
       </c>
-      <c r="J106" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>141</v>
       </c>
@@ -9720,11 +9727,8 @@
       <c r="I107">
         <v>2056</v>
       </c>
-      <c r="J107" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>143</v>
       </c>
@@ -9748,11 +9752,8 @@
       <c r="H108" t="s">
         <v>143</v>
       </c>
-      <c r="J108" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>309</v>
       </c>
@@ -9778,11 +9779,8 @@
       <c r="I109">
         <v>64</v>
       </c>
-      <c r="J109" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>145</v>
       </c>
@@ -9808,13 +9806,10 @@
       <c r="I110">
         <v>80</v>
       </c>
-      <c r="J110" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>729</v>
+        <v>698</v>
       </c>
       <c r="B111" t="s">
         <v>276</v>
@@ -9826,23 +9821,20 @@
         <v>15</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>730</v>
+        <v>699</v>
       </c>
       <c r="F111" t="s">
         <v>41</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" t="s">
-        <v>729</v>
+        <v>698</v>
       </c>
       <c r="I111">
         <v>128</v>
       </c>
-      <c r="J111" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>311</v>
       </c>
@@ -9865,13 +9857,10 @@
       <c r="H112" t="s">
         <v>311</v>
       </c>
-      <c r="J112" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="113" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -9896,13 +9885,10 @@
       <c r="I113">
         <v>1000</v>
       </c>
-      <c r="J113" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="114" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -9914,20 +9900,17 @@
         <v>15</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="I114">
         <v>500</v>
-      </c>
-      <c r="J114" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -9956,9 +9939,6 @@
       <c r="I115">
         <v>256</v>
       </c>
-      <c r="J115" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="116" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -9986,13 +9966,10 @@
       <c r="I116">
         <v>80</v>
       </c>
-      <c r="J116" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="117" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>11</v>
@@ -10004,20 +9981,17 @@
         <v>15</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="I117">
         <v>80</v>
-      </c>
-      <c r="J117" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="153" x14ac:dyDescent="0.2">
@@ -10034,7 +10008,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
@@ -10046,9 +10020,6 @@
       <c r="I118">
         <v>80</v>
       </c>
-      <c r="J118" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -10077,9 +10048,6 @@
       <c r="I119">
         <v>5</v>
       </c>
-      <c r="J119" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -10105,9 +10073,6 @@
       <c r="H120" t="s">
         <v>157</v>
       </c>
-      <c r="J120" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -10132,7 +10097,7 @@
         <v>159</v>
       </c>
       <c r="J121" t="s">
-        <v>495</v>
+        <v>731</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10161,9 +10126,6 @@
       <c r="I122">
         <v>50</v>
       </c>
-      <c r="J122" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="123" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -10191,9 +10153,6 @@
       <c r="I123">
         <v>20000</v>
       </c>
-      <c r="J123" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -10220,9 +10179,6 @@
       <c r="I124">
         <v>80</v>
       </c>
-      <c r="J124" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="125" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -10250,9 +10206,6 @@
       <c r="I125">
         <v>256</v>
       </c>
-      <c r="J125" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E126" s="1"/>
@@ -10861,7 +10814,7 @@
       <c r="D944" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I125" xr:uid="{D69F739B-BFAA-8744-89E3-48A1C7C59643}"/>
+  <autoFilter ref="A1:J125" xr:uid="{6C611045-4503-C64B-983F-8B1EAA47F1F9}"/>
   <sortState ref="A2:J125">
     <sortCondition ref="A2:A125"/>
   </sortState>
@@ -10875,11 +10828,11 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView zoomScale="94" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10909,7 +10862,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>72</v>
@@ -10939,12 +10892,12 @@
         <v>14</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>343</v>
@@ -10956,14 +10909,14 @@
         <v>314</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>A2</f>
         <v>ALLImport.tpl</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>17</v>
@@ -10971,13 +10924,10 @@
       <c r="K2" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="N2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>343</v>
@@ -10989,14 +10939,14 @@
         <v>314</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>A3</f>
         <v>ALLInstanceVars.tpl</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>17</v>
@@ -11004,13 +10954,10 @@
       <c r="K3" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="N3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>343</v>
@@ -11022,14 +10969,14 @@
         <v>314</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>A4</f>
         <v>ALLSetter.tpl</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>17</v>
@@ -11037,13 +10984,10 @@
       <c r="K4" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="N4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>343</v>
@@ -11055,14 +10999,14 @@
         <v>314</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>A5</f>
         <v>ALLStaticNames.tpl</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>17</v>
@@ -11070,19 +11014,16 @@
       <c r="K5" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="N5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>426</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -11094,10 +11035,10 @@
         <v>345</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>17</v>
@@ -11109,15 +11050,15 @@
         <v>330</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>463</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -11129,10 +11070,10 @@
         <v>345</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>17</v>
@@ -11143,13 +11084,10 @@
       <c r="L7" t="s">
         <v>330</v>
       </c>
-      <c r="N7" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="8" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>290</v>
@@ -11164,13 +11102,13 @@
         <v>314</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>17</v>
@@ -11178,13 +11116,10 @@
       <c r="K8" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="N8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>290</v>
@@ -11199,13 +11134,13 @@
         <v>314</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>17</v>
@@ -11217,10 +11152,10 @@
         <v>330</v>
       </c>
       <c r="N9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>346</v>
       </c>
@@ -11234,14 +11169,14 @@
         <v>314</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>A10</f>
         <v>BEANCreate.tpl</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>17</v>
@@ -11249,16 +11184,13 @@
       <c r="K10" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="N10" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="11" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>288</v>
@@ -11270,13 +11202,13 @@
         <v>314</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>17</v>
@@ -11287,13 +11219,10 @@
       <c r="L11" t="s">
         <v>317</v>
       </c>
-      <c r="N11" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="12" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>288</v>
@@ -11305,13 +11234,13 @@
         <v>314</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>17</v>
@@ -11322,13 +11251,10 @@
       <c r="L12" t="s">
         <v>317</v>
       </c>
-      <c r="N12" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>343</v>
@@ -11340,13 +11266,13 @@
         <v>314</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>346</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>17</v>
@@ -11354,13 +11280,10 @@
       <c r="K13" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="N13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>343</v>
@@ -11372,14 +11295,14 @@
         <v>314</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>A14</f>
         <v>CONFIGConstructor.tpl</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>17</v>
@@ -11387,13 +11310,10 @@
       <c r="K14" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="N14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>343</v>
@@ -11405,14 +11325,14 @@
         <v>314</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>A15</f>
         <v>CONFIGCreate.tpl</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>17</v>
@@ -11420,16 +11340,13 @@
       <c r="K15" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="N15" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="16" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>288</v>
@@ -11444,10 +11361,10 @@
         <v>355</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>17</v>
@@ -11457,9 +11374,6 @@
       </c>
       <c r="L16" t="s">
         <v>317</v>
-      </c>
-      <c r="N16" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -11493,9 +11407,6 @@
       <c r="L17" t="s">
         <v>317</v>
       </c>
-      <c r="N17" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="18" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -11528,9 +11439,6 @@
       <c r="L18" t="s">
         <v>317</v>
       </c>
-      <c r="N18" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="19" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -11563,13 +11471,10 @@
       <c r="L19" t="s">
         <v>317</v>
       </c>
-      <c r="N19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>290</v>
@@ -11584,13 +11489,13 @@
         <v>314</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>17</v>
@@ -11602,7 +11507,7 @@
         <v>333</v>
       </c>
       <c r="N20" t="s">
-        <v>517</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -11610,7 +11515,7 @@
         <v>406</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>337</v>
@@ -11632,9 +11537,6 @@
       </c>
       <c r="K21" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="N21" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -11642,7 +11544,7 @@
         <v>407</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>337</v>
@@ -11664,9 +11566,6 @@
       </c>
       <c r="K22" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="N22" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
@@ -11674,7 +11573,7 @@
         <v>398</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>337</v>
@@ -11696,9 +11595,6 @@
       </c>
       <c r="K23" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="N23" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -11706,7 +11602,7 @@
         <v>396</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>337</v>
@@ -11728,9 +11624,6 @@
       </c>
       <c r="K24" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="N24" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -11738,7 +11631,7 @@
         <v>392</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>337</v>
@@ -11760,9 +11653,6 @@
       </c>
       <c r="K25" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="N25" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -11770,7 +11660,7 @@
         <v>412</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>337</v>
@@ -11792,9 +11682,6 @@
       </c>
       <c r="K26" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="N26" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -11802,7 +11689,7 @@
         <v>400</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>337</v>
@@ -11824,9 +11711,6 @@
       </c>
       <c r="K27" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="N27" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -11834,7 +11718,7 @@
         <v>404</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>337</v>
@@ -11856,9 +11740,6 @@
       </c>
       <c r="K28" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="N28" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
@@ -11892,11 +11773,8 @@
       <c r="L29" t="s">
         <v>317</v>
       </c>
-      <c r="N29" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>318</v>
       </c>
@@ -11928,15 +11806,15 @@
         <v>315</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>460</v>
+        <v>716</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>288</v>
@@ -11951,10 +11829,10 @@
         <v>357</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>17</v>
@@ -11965,13 +11843,10 @@
       <c r="L31" t="s">
         <v>317</v>
       </c>
-      <c r="N31" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="32" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>288</v>
@@ -11986,10 +11861,10 @@
         <v>357</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>17</v>
@@ -12000,13 +11875,10 @@
       <c r="L32" t="s">
         <v>317</v>
       </c>
-      <c r="N32" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>290</v>
@@ -12021,13 +11893,13 @@
         <v>314</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>17</v>
@@ -12036,12 +11908,12 @@
         <v>315</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>468</v>
+        <v>717</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>290</v>
@@ -12056,13 +11928,13 @@
         <v>314</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>17</v>
@@ -12071,12 +11943,12 @@
         <v>315</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>467</v>
+        <v>718</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>290</v>
@@ -12091,13 +11963,13 @@
         <v>314</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>17</v>
@@ -12106,12 +11978,12 @@
         <v>315</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>464</v>
+        <v>719</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>290</v>
@@ -12126,13 +11998,13 @@
         <v>314</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>17</v>
@@ -12141,12 +12013,12 @@
         <v>315</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>465</v>
+        <v>720</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>290</v>
@@ -12161,13 +12033,13 @@
         <v>314</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>17</v>
@@ -12176,15 +12048,15 @@
         <v>315</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>466</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>288</v>
@@ -12199,10 +12071,10 @@
         <v>316</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>17</v>
@@ -12213,13 +12085,10 @@
       <c r="L38" t="s">
         <v>317</v>
       </c>
-      <c r="N38" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="39" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>288</v>
@@ -12234,10 +12103,10 @@
         <v>316</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>17</v>
@@ -12248,16 +12117,13 @@
       <c r="L39" t="s">
         <v>317</v>
       </c>
-      <c r="N39" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="40" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>633</v>
+        <v>606</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>288</v>
@@ -12269,13 +12135,13 @@
         <v>314</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>17</v>
@@ -12286,13 +12152,10 @@
       <c r="L40" t="s">
         <v>317</v>
       </c>
-      <c r="N40" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="41" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>288</v>
@@ -12304,13 +12167,13 @@
         <v>314</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>17</v>
@@ -12320,9 +12183,6 @@
       </c>
       <c r="L41" t="s">
         <v>317</v>
-      </c>
-      <c r="N41" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -12330,7 +12190,7 @@
         <v>320</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>337</v>
@@ -12355,9 +12215,6 @@
       </c>
       <c r="L42" t="s">
         <v>322</v>
-      </c>
-      <c r="N42" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -12365,7 +12222,7 @@
         <v>324</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>337</v>
@@ -12388,11 +12245,8 @@
       <c r="K43" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="N43" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>356</v>
       </c>
@@ -12406,14 +12260,14 @@
         <v>314</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" ref="G44:G49" si="0">A44</f>
         <v>Hibernate.xml.tpl</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>17</v>
@@ -12421,11 +12275,8 @@
       <c r="K44" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="N44" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>358</v>
       </c>
@@ -12439,7 +12290,7 @@
         <v>314</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="0"/>
@@ -12451,13 +12302,10 @@
       <c r="K45" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="N45" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>343</v>
@@ -12469,7 +12317,7 @@
         <v>314</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="0"/>
@@ -12484,13 +12332,10 @@
       <c r="K46" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="N46" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>343</v>
@@ -12502,14 +12347,14 @@
         <v>314</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>INTERFACEStaticNames.tpl</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>17</v>
@@ -12517,13 +12362,10 @@
       <c r="K47" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="N47" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>343</v>
@@ -12535,14 +12377,14 @@
         <v>314</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>JavaBuilder.tpl</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>17</v>
@@ -12551,15 +12393,12 @@
         <v>315</v>
       </c>
       <c r="L48" t="s">
-        <v>647</v>
-      </c>
-      <c r="N48" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>343</v>
@@ -12571,14 +12410,14 @@
         <v>314</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>JsonBuilder.tpl</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>17</v>
@@ -12587,10 +12426,7 @@
         <v>315</v>
       </c>
       <c r="L49" t="s">
-        <v>647</v>
-      </c>
-      <c r="N49" t="s">
-        <v>458</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -12607,7 +12443,7 @@
         <v>314</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>359</v>
@@ -12624,11 +12460,8 @@
       <c r="L50" t="s">
         <v>330</v>
       </c>
-      <c r="N50" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>327</v>
       </c>
@@ -12636,7 +12469,7 @@
         <v>426</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>12</v>
@@ -12663,7 +12496,7 @@
         <v>322</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>462</v>
+        <v>722</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -12671,7 +12504,7 @@
         <v>414</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>337</v>
@@ -12697,11 +12530,8 @@
       <c r="L52" t="s">
         <v>322</v>
       </c>
-      <c r="N52" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>418</v>
       </c>
@@ -12736,7 +12566,7 @@
         <v>322</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>469</v>
+        <v>723</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -12753,13 +12583,13 @@
         <v>314</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>362</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>17</v>
@@ -12770,13 +12600,10 @@
       <c r="L54" t="s">
         <v>330</v>
       </c>
-      <c r="N54" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="55" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>288</v>
@@ -12788,13 +12615,13 @@
         <v>314</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>17</v>
@@ -12803,15 +12630,12 @@
         <v>315</v>
       </c>
       <c r="L55" t="s">
-        <v>508</v>
-      </c>
-      <c r="N55" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>288</v>
@@ -12823,13 +12647,13 @@
         <v>314</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>17</v>
@@ -12838,15 +12662,12 @@
         <v>315</v>
       </c>
       <c r="L56" t="s">
-        <v>508</v>
-      </c>
-      <c r="N56" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>288</v>
@@ -12858,13 +12679,13 @@
         <v>314</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>17</v>
@@ -12873,15 +12694,12 @@
         <v>315</v>
       </c>
       <c r="L57" t="s">
-        <v>508</v>
-      </c>
-      <c r="N57" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>288</v>
@@ -12893,13 +12711,13 @@
         <v>314</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>17</v>
@@ -12908,15 +12726,12 @@
         <v>315</v>
       </c>
       <c r="L58" t="s">
-        <v>508</v>
-      </c>
-      <c r="N58" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>288</v>
@@ -12928,13 +12743,13 @@
         <v>314</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>17</v>
@@ -12943,10 +12758,7 @@
         <v>315</v>
       </c>
       <c r="L59" t="s">
-        <v>508</v>
-      </c>
-      <c r="N59" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -12963,7 +12775,7 @@
         <v>314</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>329</v>
@@ -12980,13 +12792,10 @@
       <c r="L60" t="s">
         <v>330</v>
       </c>
-      <c r="N60" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>288</v>
@@ -13016,9 +12825,6 @@
       <c r="L61" t="s">
         <v>330</v>
       </c>
-      <c r="N61" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
@@ -13034,7 +12840,7 @@
         <v>314</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>332</v>
@@ -13051,13 +12857,10 @@
       <c r="L62" t="s">
         <v>333</v>
       </c>
-      <c r="N62" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="63" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>684</v>
+        <v>656</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>288</v>
@@ -13069,14 +12872,14 @@
         <v>314</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="G63" s="2" t="str">
         <f>A63</f>
         <v>table.tpl</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>17</v>
@@ -13085,13 +12888,10 @@
         <v>315</v>
       </c>
       <c r="L63" t="s">
-        <v>685</v>
-      </c>
-      <c r="N63" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>336</v>
       </c>
@@ -13099,7 +12899,7 @@
         <v>426</v>
       </c>
       <c r="C64" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>337</v>
@@ -13108,7 +12908,7 @@
         <v>314</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>336</v>
@@ -13126,7 +12926,7 @@
         <v>322</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>461</v>
+        <v>716</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -13134,7 +12934,7 @@
         <v>363</v>
       </c>
       <c r="C65" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>337</v>
@@ -13143,7 +12943,7 @@
         <v>314</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>363</v>
@@ -13156,9 +12956,6 @@
       </c>
       <c r="K65" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N65" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
@@ -13166,7 +12963,7 @@
         <v>339</v>
       </c>
       <c r="C66" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>337</v>
@@ -13175,7 +12972,7 @@
         <v>314</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>339</v>
@@ -13189,11 +12986,8 @@
       <c r="K66" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="N66" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>422</v>
       </c>
@@ -13210,7 +13004,7 @@
         <v>314</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>422</v>
@@ -13228,7 +13022,7 @@
         <v>322</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>461</v>
+        <v>716</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -13236,7 +13030,7 @@
         <v>17</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>288</v>
@@ -13251,10 +13045,10 @@
         <v>334</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>17</v>
@@ -13264,9 +13058,6 @@
       </c>
       <c r="L68" t="s">
         <v>317</v>
-      </c>
-      <c r="N68" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -13283,7 +13074,7 @@
         <v>314</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>329</v>
@@ -13297,16 +13088,13 @@
       <c r="K69" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="N69" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="70" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="C70" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>337</v>
@@ -13315,13 +13103,13 @@
         <v>314</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>628</v>
+        <v>601</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>41</v>
@@ -13332,16 +13120,13 @@
       <c r="L70" t="s">
         <v>317</v>
       </c>
-      <c r="N70" t="s">
-        <v>458</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M70" xr:uid="{3FE138CF-10D9-634A-87B2-6326254281CF}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="builder"/>
-      </filters>
+  <autoFilter ref="A1:N70" xr:uid="{FC68A020-755E-FA4F-B779-ADB161128A11}">
+    <filterColumn colId="13">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:N70">
@@ -13356,7 +13141,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H1" activeCellId="1" sqref="H2 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13379,7 +13164,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -13397,10 +13182,10 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>365</v>
       </c>
@@ -13419,11 +13204,14 @@
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>739</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>367</v>
       </c>
@@ -13442,11 +13230,14 @@
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>739</v>
+      </c>
       <c r="J3" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>369</v>
       </c>
@@ -13463,10 +13254,10 @@
         <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>314</v>
       </c>
@@ -13483,7 +13274,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>452</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -13496,10 +13287,10 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13526,7 +13317,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -13538,7 +13329,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>311</v>
@@ -13549,7 +13340,7 @@
     </row>
     <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>276</v>
@@ -13558,16 +13349,16 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="J2" t="s">
         <v>330</v>
@@ -13590,18 +13381,18 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>470</v>
+        <v>727</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>732</v>
+        <v>701</v>
       </c>
       <c r="J3" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>276</v>
@@ -13610,16 +13401,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>552</v>
+        <v>728</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="J4" t="s">
         <v>330</v>
@@ -13627,7 +13418,7 @@
     </row>
     <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>276</v>
@@ -13636,19 +13427,19 @@
         <v>337</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>546</v>
+        <v>729</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="J5" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/builder/src/main/resources/eo.xlsx
+++ b/builder/src/main/resources/eo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werner.diwischek/dev/elasticobjects/builder/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3CDF95-54C4-E34F-A725-8CECDD330BD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104D278D-975C-D742-9767-85D113337A1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="600" windowWidth="28240" windowHeight="17100" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
+    <workbookView xWindow="560" yWindow="900" windowWidth="28240" windowHeight="17100" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DbSqlConfig!$A$1:$I$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FieldConfig!$A$1:$J$125</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FileConfig!$A$1:$N$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelConfig!$A$1:$N$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelConfig!$A$1:$N$131</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="761">
   <si>
     <t>naturalId</t>
   </si>
@@ -2366,6 +2366,48 @@
   </si>
   <si>
     <t>CsvProperties,ListProperties</t>
+  </si>
+  <si>
+    <t>JavaFieldFinalCall</t>
+  </si>
+  <si>
+    <t>org.fluentcodes.projects.elasticobjects.calls.generate.java</t>
+  </si>
+  <si>
+    <t>Returns "final" string when final value is true.</t>
+  </si>
+  <si>
+    <t>JavaExtendsCall</t>
+  </si>
+  <si>
+    <t>Returns "extends" with superKey if superKey is not empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If type of the field is map, string or array a check for is empty is returned. </t>
+  </si>
+  <si>
+    <t>JavaFieldOverrideCall</t>
+  </si>
+  <si>
+    <t>Returns  an "@override" annotation is override field value is true.</t>
+  </si>
+  <si>
+    <t>JavaFieldTypeCall</t>
+  </si>
+  <si>
+    <t>Returns a type String depending on the modelKeys field value, e.g. "&lt;Map, AnObject&gt;" if modeKey is "Map, AnObject".</t>
+  </si>
+  <si>
+    <t>JavaImplementsCall</t>
+  </si>
+  <si>
+    <t>Returns the "implements " statement from the interfaces field value.</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
+  <si>
+    <t>JavaFieldNotEmptyCall</t>
   </si>
 </sst>
 </file>
@@ -2751,13 +2793,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2949A4-7E1C-7F4B-A1BC-11445B521B01}">
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3132,7 +3174,7 @@
         <v>175</v>
       </c>
       <c r="L11" s="2" t="str">
-        <f>A11</f>
+        <f t="shared" ref="L11:L21" si="0">A11</f>
         <v>CallContent</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -3171,7 +3213,7 @@
         <v>175</v>
       </c>
       <c r="L12" s="2" t="str">
-        <f>A12</f>
+        <f t="shared" si="0"/>
         <v>CallImpl</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -3204,7 +3246,7 @@
         <v>175</v>
       </c>
       <c r="L13" s="2" t="str">
-        <f>A13</f>
+        <f t="shared" si="0"/>
         <v>CallKeep</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -3234,7 +3276,7 @@
         <v>173</v>
       </c>
       <c r="L14" s="2" t="str">
-        <f>A14</f>
+        <f t="shared" si="0"/>
         <v>Class</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -3264,7 +3306,7 @@
         <v>167</v>
       </c>
       <c r="L15" s="2" t="str">
-        <f>A15</f>
+        <f t="shared" si="0"/>
         <v>Condition</v>
       </c>
       <c r="M15" s="2" t="s">
@@ -3300,7 +3342,7 @@
         <v>184</v>
       </c>
       <c r="L16" s="2" t="str">
-        <f>A16</f>
+        <f t="shared" si="0"/>
         <v>Config</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -3336,7 +3378,7 @@
         <v>187</v>
       </c>
       <c r="L17" s="2" t="str">
-        <f>A17</f>
+        <f t="shared" si="0"/>
         <v>ConfigAsFlatListCall</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -3372,7 +3414,7 @@
         <v>187</v>
       </c>
       <c r="L18" s="2" t="str">
-        <f>A18</f>
+        <f t="shared" si="0"/>
         <v>ConfigCall</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -3411,7 +3453,7 @@
         <v>184</v>
       </c>
       <c r="L19" s="2" t="str">
-        <f>A19</f>
+        <f t="shared" si="0"/>
         <v>ConfigImpl</v>
       </c>
       <c r="M19" s="2" t="s">
@@ -3447,7 +3489,7 @@
         <v>187</v>
       </c>
       <c r="L20" s="2" t="str">
-        <f>A20</f>
+        <f t="shared" si="0"/>
         <v>ConfigKeysCall</v>
       </c>
       <c r="M20" s="2" t="s">
@@ -3480,7 +3522,7 @@
         <v>212</v>
       </c>
       <c r="L21" s="2" t="str">
-        <f>A21</f>
+        <f t="shared" si="0"/>
         <v>ConfigLinkCall</v>
       </c>
       <c r="M21" s="2" t="s">
@@ -3837,7 +3879,7 @@
         <v>278</v>
       </c>
       <c r="L32" s="2" t="str">
-        <f>A32</f>
+        <f t="shared" ref="L32:L48" si="1">A32</f>
         <v>DbCall</v>
       </c>
       <c r="M32" s="2" t="s">
@@ -3876,7 +3918,7 @@
         <v>278</v>
       </c>
       <c r="L33" s="2" t="str">
-        <f>A33</f>
+        <f t="shared" si="1"/>
         <v>DbConfig</v>
       </c>
       <c r="M33" s="2" t="s">
@@ -3909,7 +3951,7 @@
         <v>278</v>
       </c>
       <c r="L34" s="2" t="str">
-        <f>A34</f>
+        <f t="shared" si="1"/>
         <v>DbModelCall</v>
       </c>
       <c r="M34" s="2" t="s">
@@ -3942,7 +3984,7 @@
         <v>278</v>
       </c>
       <c r="L35" s="2" t="str">
-        <f>A35</f>
+        <f t="shared" si="1"/>
         <v>DbModelDeleteCall</v>
       </c>
       <c r="M35" s="2" t="s">
@@ -3978,7 +4020,7 @@
         <v>278</v>
       </c>
       <c r="L36" s="2" t="str">
-        <f>A36</f>
+        <f t="shared" si="1"/>
         <v>DbModelReadCall</v>
       </c>
       <c r="M36" s="2" t="s">
@@ -4011,7 +4053,7 @@
         <v>278</v>
       </c>
       <c r="L37" s="2" t="str">
-        <f>A37</f>
+        <f t="shared" si="1"/>
         <v>DbModelWriteCall</v>
       </c>
       <c r="M37" s="2" t="s">
@@ -4044,7 +4086,7 @@
         <v>278</v>
       </c>
       <c r="L38" s="2" t="str">
-        <f>A38</f>
+        <f t="shared" si="1"/>
         <v>DbProperties</v>
       </c>
       <c r="M38" s="2" t="s">
@@ -4080,7 +4122,7 @@
         <v>278</v>
       </c>
       <c r="L39" s="2" t="str">
-        <f>A39</f>
+        <f t="shared" si="1"/>
         <v>DbSqlCall</v>
       </c>
       <c r="M39" s="2" t="s">
@@ -4119,7 +4161,7 @@
         <v>278</v>
       </c>
       <c r="L40" s="2" t="str">
-        <f>A40</f>
+        <f t="shared" si="1"/>
         <v>DbSqlConfig</v>
       </c>
       <c r="M40" s="2" t="s">
@@ -4152,7 +4194,7 @@
         <v>278</v>
       </c>
       <c r="L41" s="2" t="str">
-        <f>A41</f>
+        <f t="shared" si="1"/>
         <v>DbSqlExecuteCall</v>
       </c>
       <c r="M41" s="2" t="s">
@@ -4185,7 +4227,7 @@
         <v>278</v>
       </c>
       <c r="L42" s="2" t="str">
-        <f>A42</f>
+        <f t="shared" si="1"/>
         <v>DbSqlProperties</v>
       </c>
       <c r="M42" s="2" t="s">
@@ -4221,7 +4263,7 @@
         <v>278</v>
       </c>
       <c r="L43" s="2" t="str">
-        <f>A43</f>
+        <f t="shared" si="1"/>
         <v>DbSqlReadCall</v>
       </c>
       <c r="M43" s="2" t="s">
@@ -4254,7 +4296,7 @@
         <v>278</v>
       </c>
       <c r="L44" s="2" t="str">
-        <f>A44</f>
+        <f t="shared" si="1"/>
         <v>DbTypes</v>
       </c>
       <c r="M44" s="2" t="s">
@@ -4287,7 +4329,7 @@
         <v>207</v>
       </c>
       <c r="L45" s="2" t="str">
-        <f>A45</f>
+        <f t="shared" si="1"/>
         <v>DirectoryConfig</v>
       </c>
       <c r="M45" s="2" t="s">
@@ -4320,7 +4362,7 @@
         <v>207</v>
       </c>
       <c r="L46" s="2" t="str">
-        <f>A46</f>
+        <f t="shared" si="1"/>
         <v>DirectoryListReadCall</v>
       </c>
       <c r="M46" s="2" t="s">
@@ -4356,7 +4398,7 @@
         <v>207</v>
       </c>
       <c r="L47" s="2" t="str">
-        <f>A47</f>
+        <f t="shared" si="1"/>
         <v>DirectoryMapReadCall</v>
       </c>
       <c r="M47" s="2" t="s">
@@ -4392,7 +4434,7 @@
         <v>207</v>
       </c>
       <c r="L48" s="2" t="str">
-        <f>A48</f>
+        <f t="shared" si="1"/>
         <v>DirectoryReadCall</v>
       </c>
       <c r="M48" s="2" t="s">
@@ -4785,7 +4827,7 @@
         <v>616</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>613</v>
+        <v>748</v>
       </c>
       <c r="L60" s="2" t="str">
         <f>A60</f>
@@ -4899,50 +4941,51 @@
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L64" s="2" t="str">
+        <f>A64</f>
+        <v>TreeMap</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>691</v>
@@ -4951,51 +4994,54 @@
         <v>41</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>706</v>
+        <v>211</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="L65" s="2" t="str">
-        <f>A65</f>
-        <v>HostProperties</v>
+      <c r="L65" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>169</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>237</v>
+        <v>707</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G66" s="2" t="s">
+        <v>691</v>
+      </c>
       <c r="I66" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J66" s="2" t="s">
+        <v>706</v>
+      </c>
       <c r="K66" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>81</v>
+        <v>175</v>
+      </c>
+      <c r="L66" s="2" t="str">
+        <f>A66</f>
+        <v>HostProperties</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>237</v>
@@ -5010,10 +5056,10 @@
         <v>41</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>460</v>
@@ -5021,31 +5067,32 @@
     </row>
     <row r="68" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>237</v>
+        <v>750</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G68" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="I68" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>216</v>
+        <v>751</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>92</v>
+        <v>748</v>
+      </c>
+      <c r="L68" s="2" t="str">
+        <f>A68</f>
+        <v>JavaExtendsCall</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>169</v>
@@ -5053,31 +5100,32 @@
     </row>
     <row r="69" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>217</v>
+        <v>747</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>181</v>
+      <c r="G69" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>218</v>
+        <v>749</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>217</v>
+        <v>748</v>
+      </c>
+      <c r="L69" s="2" t="str">
+        <f>A69</f>
+        <v>JavaFieldFinalCall</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>169</v>
@@ -5085,158 +5133,168 @@
     </row>
     <row r="70" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>231</v>
+        <v>760</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G70" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="I70" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>752</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>219</v>
+        <v>748</v>
+      </c>
+      <c r="L70" s="2" t="str">
+        <f>A70</f>
+        <v>JavaFieldNotEmptyCall</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>239</v>
+        <v>753</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G71" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="I71" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>754</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>220</v>
+        <v>748</v>
+      </c>
+      <c r="L71" s="2" t="str">
+        <f>A71</f>
+        <v>JavaFieldOverrideCall</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>229</v>
+        <v>755</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G72" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="I72" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>756</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>221</v>
+        <v>748</v>
+      </c>
+      <c r="L72" s="2" t="str">
+        <f>A72</f>
+        <v>JavaFieldTypeCall</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>391</v>
+        <v>757</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>390</v>
+      <c r="G73" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>434</v>
+        <v>758</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="M73" s="5" t="s">
-        <v>461</v>
+        <v>748</v>
+      </c>
+      <c r="L73" s="2" t="str">
+        <f>A73</f>
+        <v>JavaImplementsCall</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>139</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="I74" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="K74" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>224</v>
+        <v>92</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>11</v>
@@ -5244,34 +5302,28 @@
       <c r="D75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>665</v>
-      </c>
       <c r="I75" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>435</v>
+        <v>216</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>431</v>
+        <v>217</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>11</v>
@@ -5280,36 +5332,33 @@
         <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>666</v>
+        <v>181</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>651</v>
+        <v>218</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>431</v>
+        <v>217</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>388</v>
@@ -5321,24 +5370,27 @@
         <v>41</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>460</v>
+        <v>470</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>237</v>
+        <v>220</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>12</v>
@@ -5347,18 +5399,24 @@
         <v>41</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>388</v>
@@ -5373,15 +5431,18 @@
         <v>170</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>227</v>
+        <v>391</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>11</v>
@@ -5389,34 +5450,31 @@
       <c r="D80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>190</v>
+      <c r="E80" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>228</v>
+        <v>434</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>465</v>
+        <v>391</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>741</v>
+        <v>97</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
@@ -5424,35 +5482,31 @@
       <c r="D81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>235</v>
+      <c r="E81" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L81" s="2" t="str">
-        <f>A81</f>
-        <v>ModelConfigDbObject</v>
+        <v>222</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>742</v>
+        <v>224</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>11</v>
@@ -5460,35 +5514,34 @@
       <c r="D82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>743</v>
+      <c r="F82" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>591</v>
+        <v>665</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>709</v>
+        <v>435</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L82" s="2" t="str">
-        <f>A82</f>
-        <v>ModelConfigDbProperties</v>
+        <v>222</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>591</v>
+        <v>431</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>11</v>
@@ -5496,27 +5549,26 @@
       <c r="D83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>475</v>
+      <c r="F83" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>183</v>
+        <v>666</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>228</v>
+        <v>651</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L83" s="2" t="str">
-        <f>A83</f>
-        <v>ModelConfigInterface</v>
+        <v>222</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>169</v>
@@ -5524,103 +5576,82 @@
     </row>
     <row r="84" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>229</v>
+        <v>100</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="I84" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="K84" s="2" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>229</v>
+        <v>100</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>169</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>231</v>
+        <v>45</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="I85" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="K85" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="I86" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="K86" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>169</v>
+        <v>470</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>11</v>
@@ -5628,20 +5659,23 @@
       <c r="D87" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F87" s="2" t="s">
+        <v>708</v>
+      </c>
       <c r="G87" s="2" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>184</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>465</v>
@@ -5650,9 +5684,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>708</v>
+        <v>741</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
@@ -5660,35 +5694,35 @@
       <c r="D88" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>744</v>
+      <c r="F88" s="2" t="s">
+        <v>745</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>591</v>
+        <v>235</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>709</v>
+        <v>236</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>184</v>
       </c>
       <c r="L88" s="2" t="str">
         <f>A88</f>
-        <v>ModelConfigProperties</v>
+        <v>ModelConfigDbObject</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>237</v>
+        <v>742</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>11</v>
@@ -5696,31 +5730,35 @@
       <c r="D89" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E89" s="2" t="s">
+        <v>743</v>
+      </c>
       <c r="G89" s="2" t="s">
-        <v>227</v>
+        <v>591</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>238</v>
+        <v>709</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L89" s="2" t="s">
-        <v>237</v>
+      <c r="L89" s="2" t="str">
+        <f>A89</f>
+        <v>ModelConfigDbProperties</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>239</v>
+        <v>591</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>11</v>
@@ -5728,23 +5766,27 @@
       <c r="D90" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E90" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="G90" s="2" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L90" s="2" t="s">
-        <v>239</v>
+      <c r="L90" s="2" t="str">
+        <f>A90</f>
+        <v>ModelConfigInterface</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>169</v>
@@ -5752,7 +5794,7 @@
     </row>
     <row r="91" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>11</v>
@@ -5760,17 +5802,20 @@
       <c r="D91" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G91" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="I91" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>184</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>465</v>
@@ -5781,57 +5826,63 @@
     </row>
     <row r="92" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B92" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G93" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="I93" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>169</v>
@@ -5839,7 +5890,7 @@
     </row>
     <row r="94" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>11</v>
@@ -5847,28 +5898,31 @@
       <c r="D94" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G94" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="I94" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>246</v>
+        <v>708</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>11</v>
@@ -5877,30 +5931,34 @@
         <v>12</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>285</v>
+        <v>744</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>591</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>247</v>
+        <v>709</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>246</v>
+        <v>184</v>
+      </c>
+      <c r="L95" s="2" t="str">
+        <f>A95</f>
+        <v>ModelConfigProperties</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>692</v>
+        <v>237</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>11</v>
@@ -5908,24 +5966,23 @@
       <c r="D96" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>286</v>
+      <c r="G96" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L96" s="2" t="str">
-        <f>A96</f>
-        <v>PermissionRole</v>
+        <v>184</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>169</v>
@@ -5933,7 +5990,7 @@
     </row>
     <row r="97" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>664</v>
+        <v>239</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>11</v>
@@ -5941,30 +5998,23 @@
       <c r="D97" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>676</v>
-      </c>
       <c r="G97" s="2" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L97" s="2" t="str">
-        <f>A97</f>
-        <v>ResourceCall</v>
+        <v>184</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>169</v>
@@ -5972,7 +6022,7 @@
     </row>
     <row r="98" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>691</v>
+        <v>241</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>11</v>
@@ -5980,32 +6030,31 @@
       <c r="D98" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="I98" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L98" s="2" t="str">
-        <f>A98</f>
-        <v>ResourceConfig</v>
+        <v>184</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>465</v>
       </c>
+      <c r="N98" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="99" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>740</v>
+        <v>153</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>11</v>
@@ -6013,29 +6062,25 @@
       <c r="D99" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>695</v>
-      </c>
       <c r="I99" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="K99" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L99" s="2" t="str">
-        <f>A99</f>
-        <v>PermissionProperties</v>
+        <v>173</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>665</v>
+        <v>64</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
@@ -6043,27 +6088,20 @@
       <c r="D100" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="I100" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>667</v>
+        <v>243</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L100" s="2" t="str">
-        <f>A100</f>
-        <v>ResourceReadCall</v>
+        <v>167</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>169</v>
@@ -6071,7 +6109,7 @@
     </row>
     <row r="101" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>666</v>
+        <v>244</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>11</v>
@@ -6079,30 +6117,20 @@
       <c r="D101" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="I101" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>668</v>
+        <v>245</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L101" s="2" t="str">
-        <f>A101</f>
-        <v>ResourceWriteCall</v>
+        <v>214</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>169</v>
@@ -6110,10 +6138,7 @@
     </row>
     <row r="102" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
@@ -6121,20 +6146,23 @@
       <c r="D102" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E102" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="I102" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>169</v>
@@ -6142,10 +6170,7 @@
     </row>
     <row r="103" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>239</v>
+        <v>692</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
@@ -6153,28 +6178,32 @@
       <c r="D103" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E103" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="I103" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J103" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="K103" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>252</v>
+        <v>175</v>
+      </c>
+      <c r="L103" s="2" t="str">
+        <f t="shared" ref="L103:L108" si="2">A103</f>
+        <v>PermissionRole</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>237</v>
+        <v>664</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
@@ -6182,20 +6211,30 @@
       <c r="D104" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E104" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="I104" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>144</v>
+        <v>175</v>
+      </c>
+      <c r="L104" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ResourceCall</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>169</v>
@@ -6203,10 +6242,7 @@
     </row>
     <row r="105" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>237</v>
+        <v>691</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
@@ -6214,25 +6250,32 @@
       <c r="D105" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F105" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="I105" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J105" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="K105" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>254</v>
+        <v>175</v>
+      </c>
+      <c r="L105" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ResourceConfig</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>213</v>
+        <v>740</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
@@ -6240,31 +6283,29 @@
       <c r="D106" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>177</v>
+      <c r="E106" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>213</v>
+        <v>175</v>
+      </c>
+      <c r="L106" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>PermissionProperties</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>256</v>
+        <v>665</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>11</v>
@@ -6272,23 +6313,27 @@
       <c r="D107" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E107" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="G107" s="2" t="s">
-        <v>177</v>
+        <v>664</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>257</v>
+        <v>667</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>256</v>
+        <v>175</v>
+      </c>
+      <c r="L107" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ResourceReadCall</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>169</v>
@@ -6296,33 +6341,46 @@
     </row>
     <row r="108" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>237</v>
+        <v>666</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E108" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>664</v>
+      </c>
       <c r="I108" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J108" s="2" t="s">
+        <v>668</v>
+      </c>
       <c r="K108" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>15</v>
+        <v>175</v>
+      </c>
+      <c r="L108" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ResourceWriteCall</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>237</v>
@@ -6336,25 +6394,28 @@
       <c r="I109" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J109" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="K109" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>463</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
@@ -6366,21 +6427,24 @@
         <v>41</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="N110" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>260</v>
+        <v>144</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>11</v>
@@ -6388,31 +6452,31 @@
       <c r="D111" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="I111" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
@@ -6420,35 +6484,26 @@
       <c r="D112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="I112" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I112" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
@@ -6456,19 +6511,19 @@
         <v>12</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>490</v>
+        <v>255</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>212</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>491</v>
+        <v>213</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>464</v>
@@ -6479,7 +6534,7 @@
     </row>
     <row r="114" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>497</v>
+        <v>256</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>11</v>
@@ -6488,19 +6543,19 @@
         <v>12</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>490</v>
+        <v>257</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>212</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>497</v>
+        <v>256</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>464</v>
@@ -6509,41 +6564,38 @@
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>264</v>
+        <v>15</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="I115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="N115" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>11</v>
@@ -6551,31 +6603,28 @@
       <c r="D116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="I116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
@@ -6583,38 +6632,25 @@
       <c r="D117" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="I117" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L117" s="2" t="str">
-        <f>A117</f>
-        <v>TemplateCall</v>
+        <v>173</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>658</v>
+        <v>260</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>11</v>
@@ -6622,24 +6658,20 @@
       <c r="D118" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>663</v>
-      </c>
       <c r="G118" s="2" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>659</v>
+        <v>261</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L118" s="2" t="str">
-        <f>A118</f>
-        <v>TemplateDirResourceCall</v>
+        <v>212</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>464</v>
@@ -6648,9 +6680,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>11</v>
@@ -6659,26 +6691,22 @@
         <v>12</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>676</v>
+        <v>384</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>660</v>
+        <v>263</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L119" s="2" t="str">
-        <f>A119</f>
-        <v>TemplateResourceCall</v>
+        <v>212</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>464</v>
@@ -6687,9 +6715,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>11</v>
@@ -6697,24 +6725,20 @@
       <c r="D120" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="G120" s="2" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>270</v>
+        <v>490</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L120" s="2" t="str">
-        <f>A120</f>
-        <v>TemplateResourceStoreCall</v>
+        <v>212</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>491</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>464</v>
@@ -6725,16 +6749,13 @@
     </row>
     <row r="121" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>287</v>
+        <v>497</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>213</v>
@@ -6743,14 +6764,13 @@
         <v>17</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>289</v>
+        <v>490</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="L121" s="2" t="str">
-        <f>A121</f>
-        <v>TheGreetingCall</v>
+      <c r="L121" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>464</v>
@@ -6759,9 +6779,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>11</v>
@@ -6769,23 +6789,20 @@
       <c r="D122" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>674</v>
-      </c>
       <c r="G122" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>212</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M122" s="2" t="s">
         <v>464</v>
@@ -6794,65 +6811,69 @@
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>417</v>
+        <v>11</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="G123" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>417</v>
+        <v>11</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E124" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>674</v>
+      </c>
       <c r="G124" s="2" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>652</v>
+        <v>268</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="L124" s="2" t="s">
-        <v>293</v>
+        <v>215</v>
+      </c>
+      <c r="L124" s="2" t="str">
+        <f>A124</f>
+        <v>TemplateCall</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>464</v>
@@ -6861,14 +6882,263 @@
         <v>169</v>
       </c>
     </row>
+    <row r="125" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L125" s="2" t="str">
+        <f>A125</f>
+        <v>TemplateDirResourceCall</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L126" s="2" t="str">
+        <f>A126</f>
+        <v>TemplateResourceCall</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L127" s="2" t="str">
+        <f>A127</f>
+        <v>TemplateResourceStoreCall</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L128" s="2" t="str">
+        <f>A128</f>
+        <v>TheGreetingCall</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N124" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
-    <sortState ref="A2:N124">
-      <sortCondition ref="A2:A124"/>
+  <autoFilter ref="A1:N131" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
+    <sortState ref="A2:N131">
+      <sortCondition ref="A2:A131"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:N124">
-    <sortCondition ref="A2:A124"/>
+  <sortState ref="A2:N131">
+    <sortCondition ref="A2:A131"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8126,7 +8396,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -8177,7 +8447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -8198,7 +8468,7 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="str">
-        <f>A49</f>
+        <f t="shared" ref="H49:H57" si="0">A49</f>
         <v>interfaces</v>
       </c>
       <c r="I49">
@@ -8225,11 +8495,11 @@
         <v>41</v>
       </c>
       <c r="H50" t="str">
-        <f>A50</f>
+        <f t="shared" si="0"/>
         <v>javaProperties</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>305</v>
       </c>
@@ -8250,14 +8520,14 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="str">
-        <f>A51</f>
+        <f t="shared" si="0"/>
         <v>jndi</v>
       </c>
       <c r="I51">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -8278,14 +8548,14 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="str">
-        <f>A52</f>
+        <f t="shared" si="0"/>
         <v>join</v>
       </c>
       <c r="I52">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -8305,14 +8575,14 @@
         <v>41</v>
       </c>
       <c r="H53" t="str">
-        <f>A53</f>
+        <f t="shared" si="0"/>
         <v>joinInverse</v>
       </c>
       <c r="I53">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -8333,7 +8603,7 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="str">
-        <f>A54</f>
+        <f t="shared" si="0"/>
         <v>keepCall</v>
       </c>
     </row>
@@ -8358,7 +8628,7 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="str">
-        <f>A55</f>
+        <f t="shared" si="0"/>
         <v>key</v>
       </c>
       <c r="I55">
@@ -8386,11 +8656,11 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="str">
-        <f>A56</f>
+        <f t="shared" si="0"/>
         <v>length</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -8411,14 +8681,14 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="str">
-        <f>A57</f>
+        <f t="shared" si="0"/>
         <v>listParams</v>
       </c>
       <c r="I57">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>424</v>
       </c>
@@ -8468,7 +8738,7 @@
         <v>logLevel</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -8496,7 +8766,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -8551,7 +8821,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -8578,7 +8848,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -8602,7 +8872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -8629,7 +8899,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -8656,7 +8926,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>449</v>
       </c>
@@ -8704,7 +8974,7 @@
       </c>
       <c r="G68" s="1"/>
       <c r="H68" t="str">
-        <f>A68</f>
+        <f t="shared" ref="H68:H81" si="1">A68</f>
         <v>myAnObject</v>
       </c>
     </row>
@@ -8730,7 +9000,7 @@
       </c>
       <c r="G69" s="1"/>
       <c r="H69" t="str">
-        <f>A69</f>
+        <f t="shared" si="1"/>
         <v>myASubObject</v>
       </c>
     </row>
@@ -8755,7 +9025,7 @@
       </c>
       <c r="G70" s="1"/>
       <c r="H70" t="str">
-        <f>A70</f>
+        <f t="shared" si="1"/>
         <v>myASubObjectList</v>
       </c>
     </row>
@@ -8780,7 +9050,7 @@
       </c>
       <c r="G71" s="1"/>
       <c r="H71" t="str">
-        <f>A71</f>
+        <f t="shared" si="1"/>
         <v>myASubObjectMap</v>
       </c>
     </row>
@@ -8798,7 +9068,7 @@
         <v>19</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>A72</f>
+        <f t="shared" ref="E72:E79" si="2">A72</f>
         <v>myBoolean</v>
       </c>
       <c r="F72" t="s">
@@ -8806,7 +9076,7 @@
       </c>
       <c r="G72" s="1"/>
       <c r="H72" t="str">
-        <f>A72</f>
+        <f t="shared" si="1"/>
         <v>myBoolean</v>
       </c>
     </row>
@@ -8824,7 +9094,7 @@
         <v>36</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>A73</f>
+        <f t="shared" si="2"/>
         <v>myDate</v>
       </c>
       <c r="F73" t="s">
@@ -8832,7 +9102,7 @@
       </c>
       <c r="G73" s="1"/>
       <c r="H73" t="str">
-        <f>A73</f>
+        <f t="shared" si="1"/>
         <v>myDate</v>
       </c>
     </row>
@@ -8850,7 +9120,7 @@
         <v>151</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>A74</f>
+        <f t="shared" si="2"/>
         <v>myDouble</v>
       </c>
       <c r="F74" t="s">
@@ -8858,7 +9128,7 @@
       </c>
       <c r="G74" s="1"/>
       <c r="H74" t="str">
-        <f>A74</f>
+        <f t="shared" si="1"/>
         <v>myDouble</v>
       </c>
     </row>
@@ -8876,7 +9146,7 @@
         <v>152</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>A75</f>
+        <f t="shared" si="2"/>
         <v>myFloat</v>
       </c>
       <c r="F75" t="s">
@@ -8884,7 +9154,7 @@
       </c>
       <c r="G75" s="1"/>
       <c r="H75" t="str">
-        <f>A75</f>
+        <f t="shared" si="1"/>
         <v>myFloat</v>
       </c>
     </row>
@@ -8902,14 +9172,14 @@
         <v>81</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>A76</f>
+        <f t="shared" si="2"/>
         <v>myInt</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
       </c>
       <c r="H76" t="str">
-        <f>A76</f>
+        <f t="shared" si="1"/>
         <v>myInt</v>
       </c>
     </row>
@@ -8927,7 +9197,7 @@
         <v>48</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>A77</f>
+        <f t="shared" si="2"/>
         <v>myList</v>
       </c>
       <c r="F77" t="s">
@@ -8935,7 +9205,7 @@
       </c>
       <c r="G77" s="1"/>
       <c r="H77" t="str">
-        <f>A77</f>
+        <f t="shared" si="1"/>
         <v>myList</v>
       </c>
     </row>
@@ -8953,7 +9223,7 @@
         <v>45</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>A78</f>
+        <f t="shared" si="2"/>
         <v>myLong</v>
       </c>
       <c r="F78" t="s">
@@ -8961,7 +9231,7 @@
       </c>
       <c r="G78" s="1"/>
       <c r="H78" t="str">
-        <f>A78</f>
+        <f t="shared" si="1"/>
         <v>myLong</v>
       </c>
     </row>
@@ -8979,14 +9249,14 @@
         <v>38</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>A79</f>
+        <f t="shared" si="2"/>
         <v>myMap</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
       </c>
       <c r="H79" t="str">
-        <f>A79</f>
+        <f t="shared" si="1"/>
         <v>myMap</v>
       </c>
     </row>
@@ -9011,11 +9281,11 @@
       </c>
       <c r="G80" s="1"/>
       <c r="H80" t="str">
-        <f>A80</f>
+        <f t="shared" si="1"/>
         <v>myObject</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>512</v>
       </c>
@@ -9036,7 +9306,7 @@
       </c>
       <c r="G81" s="1"/>
       <c r="H81" t="str">
-        <f>A81</f>
+        <f t="shared" si="1"/>
         <v>myString</v>
       </c>
       <c r="I81">
@@ -9524,7 +9794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>131</v>
       </c>
@@ -9701,7 +9971,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>141</v>
       </c>
@@ -9780,7 +10050,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>145</v>
       </c>
@@ -9834,7 +10104,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>311</v>
       </c>
@@ -9886,7 +10156,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>559</v>
       </c>
@@ -9913,7 +10183,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>146</v>
       </c>
@@ -9940,7 +10210,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>148</v>
       </c>
@@ -9967,7 +10237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>486</v>
       </c>
@@ -9994,7 +10264,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>150</v>
       </c>
@@ -10180,7 +10450,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>164</v>
       </c>
@@ -13364,7 +13634,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>372</v>
       </c>

--- a/builder/src/main/resources/eo.xlsx
+++ b/builder/src/main/resources/eo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werner.diwischek/dev/elasticobjects/builder/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7FBA84-6260-B543-B118-1913F1B733D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE5944-1CF8-224A-8840-3B665E21C620}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="900" windowWidth="28240" windowHeight="17100" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="814">
   <si>
     <t>naturalId</t>
   </si>
@@ -1082,12 +1082,6 @@
   </si>
   <si>
     <t>The model of the configuration to determine type.</t>
-  </si>
-  <si>
-    <t>[  "filterModule",  "filterSubModule"]</t>
-  </si>
-  <si>
-    <t>[  "filterModule",  "filterSubModule",  "configFilter",  "expose"]</t>
   </si>
   <si>
     <t>[  "schema",  "driver",  "jndi",  "dbType",  "extension"]</t>
@@ -2539,9 +2533,6 @@
     <t>For getting a list of keys of all loaded configuration types from the cache like ConfigModel.</t>
   </si>
   <si>
-    <t>["listParams"]</t>
-  </si>
-  <si>
     <t>["modelConfigKey"]</t>
   </si>
   <si>
@@ -2579,6 +2570,12 @@
   </si>
   <si>
     <t>Read an Excel sheet specified by fileConfigKey referencing to a @XlsxConfig configuration.</t>
+  </si>
+  <si>
+    <t>[  "module",  "moduleScope"]</t>
+  </si>
+  <si>
+    <t>[  "module",  "moduleScope",  "configFilter",  "expose"]</t>
   </si>
 </sst>
 </file>
@@ -2966,14 +2963,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2949A4-7E1C-7F4B-A1BC-11445B521B01}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J136" sqref="J136"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3005,7 +3001,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>52</v>
@@ -3032,7 +3028,7 @@
         <v>94</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>14</v>
@@ -3044,7 +3040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -3067,51 +3063,51 @@
         <v>152</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -3119,7 +3115,7 @@
         <v>210</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -3134,10 +3130,10 @@
         <v>45</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="177" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>157</v>
       </c>
@@ -3160,53 +3156,53 @@
         <v>157</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -3224,22 +3220,22 @@
         <v>207</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>A7</f>
         <v>Base</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -3248,7 +3244,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>38</v>
@@ -3257,20 +3253,20 @@
         <v>221</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>A8</f>
         <v>BaseImpl</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -3278,7 +3274,7 @@
         <v>218</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -3293,7 +3289,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="102" x14ac:dyDescent="0.2">
@@ -3307,7 +3303,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>38</v>
@@ -3322,7 +3318,7 @@
         <v>160</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>155</v>
@@ -3333,7 +3329,7 @@
     </row>
     <row r="11" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -3342,23 +3338,23 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>161</v>
       </c>
       <c r="L11" s="2" t="str">
-        <f>A11</f>
+        <f t="shared" ref="L11:L22" si="0">A11</f>
         <v>CallContent</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>155</v>
@@ -3378,13 +3374,13 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>38</v>
@@ -3396,11 +3392,11 @@
         <v>161</v>
       </c>
       <c r="L12" s="2" t="str">
-        <f>A12</f>
+        <f t="shared" si="0"/>
         <v>CallImpl</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>155</v>
@@ -3409,7 +3405,7 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>165</v>
       </c>
@@ -3429,17 +3425,17 @@
         <v>159</v>
       </c>
       <c r="L13" s="2" t="str">
-        <f>A13</f>
+        <f t="shared" si="0"/>
         <v>Class</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>166</v>
       </c>
@@ -3459,17 +3455,17 @@
         <v>153</v>
       </c>
       <c r="L14" s="2" t="str">
-        <f>A14</f>
+        <f t="shared" si="0"/>
         <v>Condition</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>168</v>
       </c>
@@ -3480,10 +3476,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>38</v>
@@ -3495,11 +3491,11 @@
         <v>169</v>
       </c>
       <c r="L15" s="2" t="str">
-        <f>A15</f>
+        <f t="shared" si="0"/>
         <v>Config</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>155</v>
@@ -3516,10 +3512,10 @@
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>163</v>
@@ -3528,17 +3524,17 @@
         <v>17</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>172</v>
       </c>
       <c r="L16" s="2" t="str">
-        <f>A16</f>
+        <f t="shared" si="0"/>
         <v>ConfigAsFlatListCall</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>155</v>
@@ -3558,7 +3554,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>349</v>
+        <v>812</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>174</v>
@@ -3573,11 +3569,11 @@
         <v>172</v>
       </c>
       <c r="L17" s="2" t="str">
-        <f>A17</f>
+        <f t="shared" si="0"/>
         <v>ConfigCall</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>155</v>
@@ -3586,9 +3582,9 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
@@ -3603,23 +3599,23 @@
         <v>38</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L18" s="2" t="str">
-        <f>A18</f>
+        <f t="shared" si="0"/>
         <v>ConfigDirectoryReadCommand</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="204" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>175</v>
       </c>
@@ -3630,13 +3626,13 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>168</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>38</v>
@@ -3648,19 +3644,19 @@
         <v>169</v>
       </c>
       <c r="L19" s="2" t="str">
-        <f>A19</f>
+        <f t="shared" si="0"/>
         <v>ConfigImpl</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
@@ -3675,17 +3671,17 @@
         <v>38</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L20" s="2" t="str">
-        <f>A20</f>
+        <f t="shared" si="0"/>
         <v>ConfigsCommand</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>155</v>
@@ -3702,10 +3698,10 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>163</v>
@@ -3714,17 +3710,17 @@
         <v>17</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>172</v>
       </c>
       <c r="L21" s="2" t="str">
-        <f>A21</f>
+        <f t="shared" si="0"/>
         <v>ConfigKeysCall</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>155</v>
@@ -3735,7 +3731,7 @@
     </row>
     <row r="22" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>266</v>
@@ -3744,26 +3740,26 @@
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>195</v>
       </c>
       <c r="L22" s="2" t="str">
-        <f>A22</f>
+        <f t="shared" si="0"/>
         <v>ConfigLinkCall</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>155</v>
@@ -3783,10 +3779,10 @@
         <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>350</v>
+        <v>813</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>163</v>
@@ -3804,7 +3800,7 @@
         <v>177</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>155</v>
@@ -3813,9 +3809,9 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
@@ -3830,25 +3826,25 @@
         <v>38</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L24" s="2" t="str">
         <f>A24</f>
         <v>ConfigReadCommand</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -3863,17 +3859,17 @@
         <v>38</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L25" s="2" t="str">
         <f>A25</f>
         <v>ConfigReadWriteCommand</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>155</v>
@@ -3890,7 +3886,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>163</v>
@@ -3899,7 +3895,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>172</v>
@@ -3908,7 +3904,7 @@
         <v>181</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>155</v>
@@ -3917,9 +3913,9 @@
         <v>44066</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
@@ -3934,25 +3930,25 @@
         <v>38</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L27" s="2" t="str">
         <f>A27</f>
         <v>ConfigWriteCommand</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
@@ -3961,7 +3957,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>189</v>
@@ -3970,24 +3966,24 @@
         <v>38</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>204</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
@@ -3996,13 +3992,13 @@
         <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>204</v>
@@ -4012,7 +4008,7 @@
         <v>CsvProperties</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>155</v>
@@ -4020,31 +4016,31 @@
     </row>
     <row r="30" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="L30" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>155</v>
@@ -4055,7 +4051,7 @@
     </row>
     <row r="31" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
@@ -4063,11 +4059,8 @@
       <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>802</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>191</v>
@@ -4086,7 +4079,7 @@
         <v>CsvSimpleReadCall</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>155</v>
@@ -4097,7 +4090,7 @@
     </row>
     <row r="32" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
@@ -4105,11 +4098,8 @@
       <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>802</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>192</v>
@@ -4118,7 +4108,7 @@
         <v>17</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>204</v>
@@ -4128,7 +4118,7 @@
         <v>CsvSimpleWriteCall</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>155</v>
@@ -4139,31 +4129,31 @@
     </row>
     <row r="33" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="M33" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>155</v>
@@ -4172,7 +4162,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -4180,7 +4170,7 @@
         <v>218</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>12</v>
@@ -4195,10 +4185,10 @@
         <v>33</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>253</v>
       </c>
@@ -4209,10 +4199,10 @@
         <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>193</v>
@@ -4227,11 +4217,11 @@
         <v>256</v>
       </c>
       <c r="L35" s="2" t="str">
-        <f>A35</f>
+        <f t="shared" ref="L35:L51" si="1">A35</f>
         <v>DbConfig</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>155</v>
@@ -4239,7 +4229,7 @@
     </row>
     <row r="36" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>254</v>
@@ -4248,26 +4238,26 @@
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>256</v>
       </c>
       <c r="L36" s="2" t="str">
-        <f>A36</f>
+        <f t="shared" si="1"/>
         <v>DbModelCall</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>155</v>
@@ -4278,7 +4268,7 @@
     </row>
     <row r="37" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>254</v>
@@ -4287,26 +4277,26 @@
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>256</v>
       </c>
       <c r="L37" s="2" t="str">
-        <f>A37</f>
+        <f t="shared" si="1"/>
         <v>DbModelDeleteCall</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>155</v>
@@ -4317,7 +4307,7 @@
     </row>
     <row r="38" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>254</v>
@@ -4326,29 +4316,29 @@
         <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>256</v>
       </c>
       <c r="L38" s="2" t="str">
-        <f>A38</f>
+        <f t="shared" si="1"/>
         <v>DbModelReadCall</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>155</v>
@@ -4359,7 +4349,7 @@
     </row>
     <row r="39" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>254</v>
@@ -4368,26 +4358,26 @@
         <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>256</v>
       </c>
       <c r="L39" s="2" t="str">
-        <f>A39</f>
+        <f t="shared" si="1"/>
         <v>DbModelWriteCall</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>155</v>
@@ -4396,9 +4386,9 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>254</v>
@@ -4413,17 +4403,17 @@
         <v>38</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>256</v>
       </c>
       <c r="L40" s="2" t="str">
-        <f>A40</f>
+        <f t="shared" si="1"/>
         <v>DbProperties</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>155</v>
@@ -4440,26 +4430,26 @@
         <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>256</v>
       </c>
       <c r="L41" s="2" t="str">
-        <f>A41</f>
+        <f t="shared" si="1"/>
         <v>DbSqlCall</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>155</v>
@@ -4468,7 +4458,7 @@
         <v>44061</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>258</v>
       </c>
@@ -4479,13 +4469,13 @@
         <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>38</v>
@@ -4497,11 +4487,11 @@
         <v>256</v>
       </c>
       <c r="L42" s="2" t="str">
-        <f>A42</f>
+        <f t="shared" si="1"/>
         <v>DbSqlConfig</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>155</v>
@@ -4509,7 +4499,7 @@
     </row>
     <row r="43" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>254</v>
@@ -4518,7 +4508,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>257</v>
@@ -4527,17 +4517,17 @@
         <v>17</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>256</v>
       </c>
       <c r="L43" s="2" t="str">
-        <f>A43</f>
+        <f t="shared" si="1"/>
         <v>DbSqlExecuteCall</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>155</v>
@@ -4546,9 +4536,9 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>254</v>
@@ -4563,17 +4553,17 @@
         <v>38</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>256</v>
       </c>
       <c r="L44" s="2" t="str">
-        <f>A44</f>
+        <f t="shared" si="1"/>
         <v>DbSqlProperties</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>155</v>
@@ -4581,7 +4571,7 @@
     </row>
     <row r="45" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>254</v>
@@ -4590,10 +4580,10 @@
         <v>12</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>257</v>
@@ -4602,17 +4592,17 @@
         <v>17</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>256</v>
       </c>
       <c r="L45" s="2" t="str">
-        <f>A45</f>
+        <f t="shared" si="1"/>
         <v>DbSqlReadCall</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>155</v>
@@ -4621,7 +4611,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>260</v>
       </c>
@@ -4644,19 +4634,19 @@
         <v>256</v>
       </c>
       <c r="L46" s="2" t="str">
-        <f>A46</f>
+        <f t="shared" si="1"/>
         <v>DbTypes</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
@@ -4671,17 +4661,17 @@
         <v>38</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>190</v>
       </c>
       <c r="L47" s="2" t="str">
-        <f>A47</f>
+        <f t="shared" si="1"/>
         <v>DirectoryConfig</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>155</v>
@@ -4689,7 +4679,7 @@
     </row>
     <row r="48" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
@@ -4698,7 +4688,7 @@
         <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>191</v>
@@ -4707,17 +4697,17 @@
         <v>17</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>190</v>
       </c>
       <c r="L48" s="2" t="str">
-        <f>A48</f>
+        <f t="shared" si="1"/>
         <v>DirectoryListReadCall</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>155</v>
@@ -4728,35 +4718,35 @@
     </row>
     <row r="49" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>190</v>
       </c>
       <c r="L49" s="2" t="str">
-        <f>A49</f>
+        <f t="shared" si="1"/>
         <v>DirectoryMapReadCall</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>155</v>
@@ -4767,16 +4757,19 @@
     </row>
     <row r="50" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>512</v>
+      <c r="F50" s="2" t="s">
+        <v>747</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>191</v>
@@ -4785,17 +4778,17 @@
         <v>17</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>190</v>
       </c>
       <c r="L50" s="2" t="str">
-        <f>A50</f>
+        <f t="shared" si="1"/>
         <v>DirectoryReadCall</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>155</v>
@@ -4806,7 +4799,7 @@
     </row>
     <row r="51" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
@@ -4815,7 +4808,7 @@
         <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>192</v>
@@ -4824,17 +4817,17 @@
         <v>17</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>190</v>
       </c>
       <c r="L51" s="2" t="str">
-        <f>A51</f>
+        <f t="shared" si="1"/>
         <v>DirectoryWriteCall</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>155</v>
@@ -4843,7 +4836,7 @@
         <v>44128</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>137</v>
       </c>
@@ -4851,7 +4844,7 @@
         <v>218</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>12</v>
@@ -4866,10 +4859,10 @@
         <v>137</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>182</v>
       </c>
@@ -4895,7 +4888,7 @@
         <v>182</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>155</v>
@@ -4924,13 +4917,13 @@
         <v>184</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>48</v>
       </c>
@@ -4956,13 +4949,13 @@
         <v>48</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>187</v>
       </c>
@@ -4973,10 +4966,10 @@
         <v>12</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>175</v>
@@ -4994,15 +4987,15 @@
         <v>187</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
@@ -5011,7 +5004,7 @@
         <v>12</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>168</v>
@@ -5020,7 +5013,7 @@
         <v>38</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>169</v>
@@ -5030,7 +5023,7 @@
         <v>FieldProperties</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>155</v>
@@ -5038,25 +5031,25 @@
     </row>
     <row r="58" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="G58" s="2" t="s">
+      <c r="I58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>190</v>
@@ -5066,7 +5059,7 @@
         <v>FileCall</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>155</v>
@@ -5075,7 +5068,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>189</v>
       </c>
@@ -5086,16 +5079,16 @@
         <v>12</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>190</v>
@@ -5104,7 +5097,7 @@
         <v>189</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>155</v>
@@ -5121,16 +5114,16 @@
         <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>190</v>
@@ -5139,7 +5132,7 @@
         <v>191</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>155</v>
@@ -5150,7 +5143,7 @@
     </row>
     <row r="61" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
@@ -5159,10 +5152,10 @@
         <v>12</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>163</v>
@@ -5171,7 +5164,7 @@
         <v>17</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>190</v>
@@ -5181,7 +5174,7 @@
         <v>FileReadWriteCall</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>155</v>
@@ -5201,19 +5194,19 @@
         <v>12</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>190</v>
@@ -5222,7 +5215,7 @@
         <v>192</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>155</v>
@@ -5231,7 +5224,7 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>138</v>
       </c>
@@ -5239,7 +5232,7 @@
         <v>218</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>12</v>
@@ -5254,12 +5247,12 @@
         <v>138</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>316</v>
@@ -5268,10 +5261,10 @@
         <v>12</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>163</v>
@@ -5280,17 +5273,17 @@
         <v>38</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L64" s="2" t="str">
         <f>A64</f>
         <v>GenerateCall</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>155</v>
@@ -5299,9 +5292,9 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>316</v>
@@ -5313,17 +5306,17 @@
         <v>38</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L65" s="2" t="str">
         <f>A65</f>
         <v>GenerateCommand</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>155</v>
@@ -5331,7 +5324,7 @@
     </row>
     <row r="66" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>316</v>
@@ -5340,23 +5333,23 @@
         <v>12</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L66" s="2" t="str">
         <f>A66</f>
         <v>GenerateJavaCall</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>155</v>
@@ -5367,7 +5360,7 @@
     </row>
     <row r="67" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>316</v>
@@ -5376,26 +5369,26 @@
         <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="L67" s="2" t="str">
         <f>A67</f>
         <v>GenerateJsonConfigCall</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>155</v>
@@ -5407,7 +5400,7 @@
     </row>
     <row r="68" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>266</v>
@@ -5416,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>163</v>
@@ -5425,7 +5418,7 @@
         <v>17</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>195</v>
@@ -5435,7 +5428,7 @@
         <v>GithubLinkCall</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>155</v>
@@ -5444,7 +5437,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>35</v>
       </c>
@@ -5467,7 +5460,7 @@
         <v>35</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>158</v>
@@ -5475,7 +5468,7 @@
     </row>
     <row r="70" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>11</v>
@@ -5484,7 +5477,7 @@
         <v>12</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>160</v>
@@ -5496,7 +5489,7 @@
         <v>38</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>161</v>
@@ -5506,7 +5499,7 @@
         <v>HostCall</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>155</v>
@@ -5515,7 +5508,7 @@
         <v>44121</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>193</v>
       </c>
@@ -5526,13 +5519,13 @@
         <v>12</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>38</v>
@@ -5547,12 +5540,12 @@
         <v>193</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>11</v>
@@ -5561,13 +5554,13 @@
         <v>12</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>161</v>
@@ -5577,13 +5570,13 @@
         <v>HostProperties</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -5591,7 +5584,7 @@
         <v>218</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>12</v>
@@ -5606,12 +5599,12 @@
         <v>72</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>316</v>
@@ -5620,7 +5613,7 @@
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>163</v>
@@ -5629,17 +5622,17 @@
         <v>17</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L74" s="2" t="str">
-        <f>A74</f>
+        <f t="shared" ref="L74:L80" si="2">A74</f>
         <v>JavaCommentCall</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>155</v>
@@ -5650,7 +5643,7 @@
     </row>
     <row r="75" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>316</v>
@@ -5659,7 +5652,7 @@
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>163</v>
@@ -5668,17 +5661,17 @@
         <v>17</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L75" s="2" t="str">
-        <f>A75</f>
+        <f t="shared" si="2"/>
         <v>JavaExtendsCall</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>155</v>
@@ -5689,7 +5682,7 @@
     </row>
     <row r="76" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>316</v>
@@ -5698,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>163</v>
@@ -5707,17 +5700,17 @@
         <v>17</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L76" s="2" t="str">
-        <f>A76</f>
+        <f t="shared" si="2"/>
         <v>JavaFieldFinalCall</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>155</v>
@@ -5728,7 +5721,7 @@
     </row>
     <row r="77" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>316</v>
@@ -5737,7 +5730,7 @@
         <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>163</v>
@@ -5746,17 +5739,17 @@
         <v>17</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L77" s="2" t="str">
-        <f>A77</f>
+        <f t="shared" si="2"/>
         <v>JavaFieldNotEmptyCall</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>155</v>
@@ -5767,7 +5760,7 @@
     </row>
     <row r="78" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>316</v>
@@ -5776,7 +5769,7 @@
         <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>163</v>
@@ -5785,17 +5778,17 @@
         <v>17</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L78" s="2" t="str">
-        <f>A78</f>
+        <f t="shared" si="2"/>
         <v>JavaFieldOverrideCall</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>155</v>
@@ -5806,7 +5799,7 @@
     </row>
     <row r="79" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>316</v>
@@ -5815,7 +5808,7 @@
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>163</v>
@@ -5824,17 +5817,17 @@
         <v>17</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L79" s="2" t="str">
-        <f>A79</f>
+        <f t="shared" si="2"/>
         <v>JavaFieldTypeCall</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>155</v>
@@ -5845,7 +5838,7 @@
     </row>
     <row r="80" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>316</v>
@@ -5854,7 +5847,7 @@
         <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>163</v>
@@ -5863,17 +5856,17 @@
         <v>17</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L80" s="2" t="str">
-        <f>A80</f>
+        <f t="shared" si="2"/>
         <v>JavaImplementsCall</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>155</v>
@@ -5882,7 +5875,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>126</v>
       </c>
@@ -5890,7 +5883,7 @@
         <v>218</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>12</v>
@@ -5905,21 +5898,21 @@
         <v>126</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>192</v>
@@ -5928,7 +5921,7 @@
         <v>17</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>190</v>
@@ -5938,7 +5931,7 @@
         <v>JsonWriteCall</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>155</v>
@@ -5973,13 +5966,13 @@
         <v>83</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>199</v>
       </c>
@@ -6005,13 +5998,13 @@
         <v>199</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>201</v>
       </c>
@@ -6019,7 +6012,7 @@
         <v>212</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>12</v>
@@ -6034,13 +6027,13 @@
         <v>201</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>202</v>
       </c>
@@ -6063,13 +6056,13 @@
         <v>202</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>203</v>
       </c>
@@ -6077,7 +6070,7 @@
         <v>210</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>12</v>
@@ -6092,15 +6085,15 @@
         <v>203</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
@@ -6109,28 +6102,28 @@
         <v>12</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>204</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -6141,7 +6134,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>38</v>
@@ -6156,15 +6149,15 @@
         <v>88</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>11</v>
@@ -6173,13 +6166,13 @@
         <v>12</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>204</v>
@@ -6189,13 +6182,13 @@
         <v>ListProperties</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -6203,7 +6196,7 @@
         <v>218</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>12</v>
@@ -6218,10 +6211,10 @@
         <v>90</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>42</v>
       </c>
@@ -6229,7 +6222,7 @@
         <v>218</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>12</v>
@@ -6244,15 +6237,15 @@
         <v>42</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>12</v>
@@ -6267,10 +6260,10 @@
         <v>206</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>208</v>
       </c>
@@ -6281,7 +6274,7 @@
         <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>175</v>
@@ -6299,15 +6292,15 @@
         <v>208</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>11</v>
@@ -6316,7 +6309,7 @@
         <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>216</v>
@@ -6335,15 +6328,15 @@
         <v>ModelConfigDbObject</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>11</v>
@@ -6352,16 +6345,16 @@
         <v>12</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>169</v>
@@ -6371,15 +6364,15 @@
         <v>ModelConfigDbProperties</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>11</v>
@@ -6388,7 +6381,7 @@
         <v>12</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>168</v>
@@ -6407,13 +6400,13 @@
         <v>ModelConfigInterface</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>210</v>
       </c>
@@ -6439,13 +6432,13 @@
         <v>210</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>212</v>
       </c>
@@ -6471,13 +6464,13 @@
         <v>212</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>214</v>
       </c>
@@ -6503,13 +6496,13 @@
         <v>214</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>216</v>
       </c>
@@ -6535,15 +6528,15 @@
         <v>216</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
@@ -6552,16 +6545,16 @@
         <v>12</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>169</v>
@@ -6571,13 +6564,13 @@
         <v>ModelConfigProperties</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>218</v>
       </c>
@@ -6603,13 +6596,13 @@
         <v>218</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>220</v>
       </c>
@@ -6635,13 +6628,13 @@
         <v>220</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>222</v>
       </c>
@@ -6664,13 +6657,13 @@
         <v>222</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>139</v>
       </c>
@@ -6693,13 +6686,13 @@
         <v>139</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>59</v>
       </c>
@@ -6722,13 +6715,13 @@
         <v>59</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>225</v>
       </c>
@@ -6751,13 +6744,13 @@
         <v>225</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>227</v>
       </c>
@@ -6783,15 +6776,15 @@
         <v>227</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N109" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
@@ -6800,7 +6793,7 @@
         <v>12</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>38</v>
@@ -6816,12 +6809,12 @@
         <v>PermissionProperties</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>11</v>
@@ -6846,15 +6839,15 @@
         <v>PermissionRole</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
@@ -6863,7 +6856,7 @@
         <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>175</v>
@@ -6882,10 +6875,10 @@
         <v>ResourceConfig</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>230</v>
       </c>
@@ -6911,13 +6904,13 @@
         <v>230</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N113" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>233</v>
       </c>
@@ -6940,13 +6933,13 @@
         <v>233</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>131</v>
       </c>
@@ -6972,13 +6965,13 @@
         <v>131</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>235</v>
       </c>
@@ -7001,15 +6994,15 @@
         <v>235</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
@@ -7024,17 +7017,17 @@
         <v>38</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L117" s="2" t="str">
         <f>A117</f>
         <v>SimpleCommand</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>155</v>
@@ -7051,7 +7044,7 @@
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>163</v>
@@ -7069,7 +7062,7 @@
         <v>236</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>155</v>
@@ -7078,7 +7071,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>15</v>
       </c>
@@ -7086,7 +7079,7 @@
         <v>218</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>12</v>
@@ -7101,10 +7094,10 @@
         <v>15</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>238</v>
       </c>
@@ -7127,13 +7120,13 @@
         <v>238</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>239</v>
       </c>
@@ -7156,15 +7149,15 @@
         <v>239</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N121" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>218</v>
@@ -7179,16 +7172,17 @@
         <v>38</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="L122" s="2" t="s">
-        <v>83</v>
+      <c r="L122" s="2" t="str">
+        <f>A122</f>
+        <v>SortOrder</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N122" s="2" t="s">
         <v>155</v>
@@ -7205,7 +7199,7 @@
         <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>163</v>
@@ -7223,7 +7217,7 @@
         <v>240</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>155</v>
@@ -7243,10 +7237,10 @@
         <v>12</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>163</v>
@@ -7264,7 +7258,7 @@
         <v>242</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>155</v>
@@ -7275,7 +7269,7 @@
     </row>
     <row r="125" spans="1:19" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>11</v>
@@ -7284,7 +7278,7 @@
         <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>163</v>
@@ -7293,16 +7287,16 @@
         <v>17</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>195</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>155</v>
@@ -7313,7 +7307,7 @@
     </row>
     <row r="126" spans="1:19" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
@@ -7322,7 +7316,7 @@
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>163</v>
@@ -7331,16 +7325,16 @@
         <v>17</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>195</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N126" s="2" t="s">
         <v>155</v>
@@ -7360,7 +7354,7 @@
         <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>163</v>
@@ -7378,7 +7372,7 @@
         <v>244</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N127" s="2" t="s">
         <v>155</v>
@@ -7398,7 +7392,7 @@
         <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>163</v>
@@ -7416,7 +7410,7 @@
         <v>246</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>155</v>
@@ -7436,10 +7430,10 @@
         <v>12</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>163</v>
@@ -7454,11 +7448,11 @@
         <v>197</v>
       </c>
       <c r="L129" s="2" t="str">
-        <f>A129</f>
+        <f t="shared" ref="L129:L135" si="3">A129</f>
         <v>TemplateCall</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>155</v>
@@ -7469,7 +7463,7 @@
     </row>
     <row r="130" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>11</v>
@@ -7478,23 +7472,23 @@
         <v>12</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>197</v>
       </c>
       <c r="L130" s="2" t="str">
-        <f>A130</f>
+        <f t="shared" si="3"/>
         <v>TemplateDirResourceCall</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N130" s="2" t="s">
         <v>155</v>
@@ -7520,17 +7514,17 @@
         <v>17</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>197</v>
       </c>
       <c r="L131" s="2" t="str">
-        <f>A131</f>
+        <f t="shared" si="3"/>
         <v>TemplateResourceCall</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>155</v>
@@ -7541,7 +7535,7 @@
     </row>
     <row r="132" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>11</v>
@@ -7550,23 +7544,23 @@
         <v>12</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>197</v>
       </c>
       <c r="L132" s="2" t="str">
-        <f>A132</f>
+        <f t="shared" si="3"/>
         <v>TemplateResourceStoreCall</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>155</v>
@@ -7577,7 +7571,7 @@
     </row>
     <row r="133" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
@@ -7586,23 +7580,23 @@
         <v>12</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>197</v>
       </c>
       <c r="L133" s="2" t="str">
-        <f>A133</f>
+        <f t="shared" si="3"/>
         <v>TemplateResourceStoreKeepCall</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N133" s="2" t="s">
         <v>155</v>
@@ -7622,10 +7616,10 @@
         <v>12</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>163</v>
@@ -7640,11 +7634,11 @@
         <v>195</v>
       </c>
       <c r="L134" s="2" t="str">
-        <f>A134</f>
+        <f t="shared" si="3"/>
         <v>TheGreetingCall</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N134" s="2" t="s">
         <v>155</v>
@@ -7653,9 +7647,9 @@
         <v>44070</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>212</v>
@@ -7673,11 +7667,11 @@
         <v>156</v>
       </c>
       <c r="L135" s="2" t="str">
-        <f>A135</f>
+        <f t="shared" si="3"/>
         <v>TreeMap</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N135" s="2" t="s">
         <v>158</v>
@@ -7694,10 +7688,10 @@
         <v>12</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>163</v>
@@ -7715,7 +7709,7 @@
         <v>250</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N136" s="2" t="s">
         <v>155</v>
@@ -7724,18 +7718,18 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>189</v>
@@ -7753,7 +7747,7 @@
         <v>268</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>155</v>
@@ -7764,16 +7758,16 @@
         <v>271</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>191</v>
@@ -7782,7 +7776,7 @@
         <v>17</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>270</v>
@@ -7791,7 +7785,7 @@
         <v>271</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>155</v>
@@ -7802,11 +7796,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N138" xr:uid="{A955F0F7-5ED5-4A4E-94AE-7EA930688524}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter val="*Call*"/>
-      </customFilters>
-    </filterColumn>
     <sortState ref="A2:N138">
       <sortCondition ref="A2:A138"/>
     </sortState>
@@ -7852,7 +7841,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -7873,12 +7862,12 @@
         <v>85</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -7954,7 +7943,7 @@
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B5" t="s">
         <v>316</v>
@@ -8004,7 +7993,7 @@
     </row>
     <row r="7" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -8016,7 +8005,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -8056,7 +8045,7 @@
     </row>
     <row r="9" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -8068,7 +8057,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
@@ -8147,7 +8136,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -8201,7 +8190,7 @@
         <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -8228,7 +8217,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -8306,7 +8295,7 @@
         <v>253</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F18" t="s">
         <v>38</v>
@@ -8330,7 +8319,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
@@ -8343,7 +8332,7 @@
         <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -8506,7 +8495,7 @@
     </row>
     <row r="26" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -8518,14 +8507,14 @@
         <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I26">
         <v>500</v>
@@ -8743,7 +8732,7 @@
     </row>
     <row r="35" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -8755,7 +8744,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -8771,7 +8760,7 @@
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -8783,7 +8772,7 @@
         <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F36" t="s">
         <v>38</v>
@@ -8811,7 +8800,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F37" t="s">
         <v>38</v>
@@ -8838,7 +8827,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -8865,7 +8854,7 @@
         <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -8892,7 +8881,7 @@
         <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F40" t="s">
         <v>38</v>
@@ -8959,7 +8948,7 @@
     </row>
     <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -9036,7 +9025,7 @@
         <v>67</v>
       </c>
       <c r="J45" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -9138,7 +9127,7 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="str">
-        <f>A49</f>
+        <f t="shared" ref="H49:H57" si="0">A49</f>
         <v>interfaces</v>
       </c>
       <c r="I49">
@@ -9147,7 +9136,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -9159,13 +9148,13 @@
         <v>206</v>
       </c>
       <c r="E50" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F50" t="s">
         <v>38</v>
       </c>
       <c r="H50" t="str">
-        <f>A50</f>
+        <f t="shared" si="0"/>
         <v>javaProperties</v>
       </c>
     </row>
@@ -9190,7 +9179,7 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="str">
-        <f>A51</f>
+        <f t="shared" si="0"/>
         <v>jndi</v>
       </c>
       <c r="I51">
@@ -9218,7 +9207,7 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="str">
-        <f>A52</f>
+        <f t="shared" si="0"/>
         <v>join</v>
       </c>
       <c r="I52">
@@ -9245,7 +9234,7 @@
         <v>38</v>
       </c>
       <c r="H53" t="str">
-        <f>A53</f>
+        <f t="shared" si="0"/>
         <v>joinInverse</v>
       </c>
       <c r="I53">
@@ -9266,14 +9255,14 @@
         <v>83</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="str">
-        <f>A54</f>
+        <f t="shared" si="0"/>
         <v>keepCall</v>
       </c>
     </row>
@@ -9298,7 +9287,7 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="str">
-        <f>A55</f>
+        <f t="shared" si="0"/>
         <v>key</v>
       </c>
       <c r="I55">
@@ -9326,7 +9315,7 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="str">
-        <f>A56</f>
+        <f t="shared" si="0"/>
         <v>length</v>
       </c>
     </row>
@@ -9344,14 +9333,14 @@
         <v>88</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F57" t="s">
         <v>38</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="str">
-        <f>A57</f>
+        <f t="shared" si="0"/>
         <v>listParams</v>
       </c>
       <c r="I57">
@@ -9360,7 +9349,7 @@
     </row>
     <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -9372,14 +9361,14 @@
         <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -9450,7 +9439,7 @@
         <v>15</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F61" t="s">
         <v>38</v>
@@ -9477,7 +9466,7 @@
         <v>15</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F62" t="s">
         <v>38</v>
@@ -9598,7 +9587,7 @@
     </row>
     <row r="67" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -9610,14 +9599,14 @@
         <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I67">
         <v>10</v>
@@ -9625,41 +9614,41 @@
     </row>
     <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B68" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" t="str">
-        <f>A68</f>
+        <f t="shared" ref="H68:H81" si="1">A68</f>
         <v>myAnObject</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B69" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>A69</f>
@@ -9670,66 +9659,66 @@
       </c>
       <c r="G69" s="1"/>
       <c r="H69" t="str">
-        <f>A69</f>
+        <f t="shared" si="1"/>
         <v>myASubObject</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B70" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" t="str">
-        <f>A70</f>
+        <f t="shared" si="1"/>
         <v>myASubObjectList</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B71" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" t="str">
-        <f>A71</f>
+        <f t="shared" si="1"/>
         <v>myASubObjectMap</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B72" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -9738,7 +9727,7 @@
         <v>19</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>A72</f>
+        <f t="shared" ref="E72:E79" si="2">A72</f>
         <v>myBoolean</v>
       </c>
       <c r="F72" t="s">
@@ -9746,16 +9735,16 @@
       </c>
       <c r="G72" s="1"/>
       <c r="H72" t="str">
-        <f>A72</f>
+        <f t="shared" si="1"/>
         <v>myBoolean</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B73" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -9764,7 +9753,7 @@
         <v>33</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>A73</f>
+        <f t="shared" si="2"/>
         <v>myDate</v>
       </c>
       <c r="F73" t="s">
@@ -9772,16 +9761,16 @@
       </c>
       <c r="G73" s="1"/>
       <c r="H73" t="str">
-        <f>A73</f>
+        <f t="shared" si="1"/>
         <v>myDate</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B74" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -9790,7 +9779,7 @@
         <v>137</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>A74</f>
+        <f t="shared" si="2"/>
         <v>myDouble</v>
       </c>
       <c r="F74" t="s">
@@ -9798,16 +9787,16 @@
       </c>
       <c r="G74" s="1"/>
       <c r="H74" t="str">
-        <f>A74</f>
+        <f t="shared" si="1"/>
         <v>myDouble</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B75" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -9816,7 +9805,7 @@
         <v>138</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>A75</f>
+        <f t="shared" si="2"/>
         <v>myFloat</v>
       </c>
       <c r="F75" t="s">
@@ -9824,16 +9813,16 @@
       </c>
       <c r="G75" s="1"/>
       <c r="H75" t="str">
-        <f>A75</f>
+        <f t="shared" si="1"/>
         <v>myFloat</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B76" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -9842,23 +9831,23 @@
         <v>72</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>A76</f>
+        <f t="shared" si="2"/>
         <v>myInt</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
       </c>
       <c r="H76" t="str">
-        <f>A76</f>
+        <f t="shared" si="1"/>
         <v>myInt</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B77" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -9867,7 +9856,7 @@
         <v>45</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>A77</f>
+        <f t="shared" si="2"/>
         <v>myList</v>
       </c>
       <c r="F77" t="s">
@@ -9875,16 +9864,16 @@
       </c>
       <c r="G77" s="1"/>
       <c r="H77" t="str">
-        <f>A77</f>
+        <f t="shared" si="1"/>
         <v>myList</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B78" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -9893,7 +9882,7 @@
         <v>42</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>A78</f>
+        <f t="shared" si="2"/>
         <v>myLong</v>
       </c>
       <c r="F78" t="s">
@@ -9901,16 +9890,16 @@
       </c>
       <c r="G78" s="1"/>
       <c r="H78" t="str">
-        <f>A78</f>
+        <f t="shared" si="1"/>
         <v>myLong</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B79" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -9919,23 +9908,23 @@
         <v>35</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>A79</f>
+        <f t="shared" si="2"/>
         <v>myMap</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
       </c>
       <c r="H79" t="str">
-        <f>A79</f>
+        <f t="shared" si="1"/>
         <v>myMap</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B80" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -9951,16 +9940,16 @@
       </c>
       <c r="G80" s="1"/>
       <c r="H80" t="str">
-        <f>A80</f>
+        <f t="shared" si="1"/>
         <v>myObject</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B81" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -9976,7 +9965,7 @@
       </c>
       <c r="G81" s="1"/>
       <c r="H81" t="str">
-        <f>A81</f>
+        <f t="shared" si="1"/>
         <v>myString</v>
       </c>
       <c r="I81">
@@ -10024,7 +10013,7 @@
         <v>15</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F83" t="s">
         <v>38</v>
@@ -10037,7 +10026,7 @@
         <v>80</v>
       </c>
       <c r="J83" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10067,7 +10056,7 @@
     </row>
     <row r="85" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B85" t="s">
         <v>266</v>
@@ -10225,7 +10214,7 @@
     </row>
     <row r="91" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -10234,10 +10223,10 @@
         <v>12</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="F91" t="s">
         <v>38</v>
@@ -10303,7 +10292,7 @@
     </row>
     <row r="94" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -10315,7 +10304,7 @@
         <v>15</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F94" t="s">
         <v>38</v>
@@ -10331,7 +10320,7 @@
     </row>
     <row r="95" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -10343,7 +10332,7 @@
         <v>15</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F95" t="s">
         <v>38</v>
@@ -10359,7 +10348,7 @@
     </row>
     <row r="96" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -10371,14 +10360,14 @@
         <v>206</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -10580,7 +10569,7 @@
         <v>15</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F104" t="s">
         <v>38</v>
@@ -10638,7 +10627,7 @@
       </c>
       <c r="G106" s="1"/>
       <c r="H106" t="str">
-        <f>A106</f>
+        <f t="shared" ref="H106:H111" si="3">A106</f>
         <v>serializationType</v>
       </c>
     </row>
@@ -10663,7 +10652,7 @@
       </c>
       <c r="G107" s="1"/>
       <c r="H107" t="str">
-        <f>A107</f>
+        <f t="shared" si="3"/>
         <v>serialized</v>
       </c>
       <c r="I107">
@@ -10692,7 +10681,7 @@
       </c>
       <c r="G108" s="1"/>
       <c r="H108" t="str">
-        <f>A108</f>
+        <f t="shared" si="3"/>
         <v>shapeType</v>
       </c>
     </row>
@@ -10701,7 +10690,7 @@
         <v>283</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
@@ -10717,7 +10706,7 @@
       </c>
       <c r="G109" s="1"/>
       <c r="H109" t="str">
-        <f>A109</f>
+        <f t="shared" si="3"/>
         <v>sheetName</v>
       </c>
       <c r="I109">
@@ -10726,32 +10715,32 @@
     </row>
     <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>793</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="B110" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>797</v>
       </c>
       <c r="F110" t="s">
         <v>38</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" t="str">
-        <f>A110</f>
+        <f t="shared" si="3"/>
         <v>sortOrder</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -10763,14 +10752,14 @@
         <v>15</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F111" t="s">
         <v>38</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" t="str">
-        <f>A111</f>
+        <f t="shared" si="3"/>
         <v>sourceFileConfigKey</v>
       </c>
       <c r="I111">
@@ -10791,7 +10780,7 @@
         <v>15</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
@@ -10806,7 +10795,7 @@
     </row>
     <row r="113" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B113" t="s">
         <v>254</v>
@@ -10818,14 +10807,14 @@
         <v>15</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F113" t="s">
         <v>38</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I113">
         <v>128</v>
@@ -10845,7 +10834,7 @@
         <v>10</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F114" t="s">
         <v>38</v>
@@ -10857,7 +10846,7 @@
     </row>
     <row r="115" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
@@ -10885,7 +10874,7 @@
     </row>
     <row r="116" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
@@ -10897,14 +10886,14 @@
         <v>15</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F116" t="s">
         <v>17</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I116">
         <v>500</v>
@@ -10951,7 +10940,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F118" t="s">
         <v>38</v>
@@ -10966,7 +10955,7 @@
     </row>
     <row r="119" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>11</v>
@@ -10978,14 +10967,14 @@
         <v>15</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F119" t="s">
         <v>17</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" t="str">
-        <f>A119</f>
+        <f t="shared" ref="H119:H126" si="4">A119</f>
         <v>targetConfigKey</v>
       </c>
       <c r="I119">
@@ -10994,7 +10983,7 @@
     </row>
     <row r="120" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>11</v>
@@ -11006,14 +10995,14 @@
         <v>15</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F120" t="s">
         <v>17</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" t="str">
-        <f>A120</f>
+        <f t="shared" si="4"/>
         <v>targetFile</v>
       </c>
       <c r="I120">
@@ -11022,7 +11011,7 @@
     </row>
     <row r="121" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
@@ -11034,14 +11023,14 @@
         <v>15</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F121" t="s">
         <v>38</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" t="str">
-        <f>A121</f>
+        <f t="shared" si="4"/>
         <v>targetFileConfigKey</v>
       </c>
       <c r="I121">
@@ -11050,7 +11039,7 @@
     </row>
     <row r="122" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>11</v>
@@ -11062,14 +11051,14 @@
         <v>15</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" t="str">
-        <f>A122</f>
+        <f t="shared" si="4"/>
         <v>targetFileConfigKey</v>
       </c>
       <c r="I122">
@@ -11090,14 +11079,14 @@
         <v>15</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F123" t="s">
         <v>17</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" t="str">
-        <f>A123</f>
+        <f t="shared" si="4"/>
         <v>targetPath</v>
       </c>
       <c r="I123">
@@ -11106,7 +11095,7 @@
     </row>
     <row r="124" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>11</v>
@@ -11118,14 +11107,14 @@
         <v>15</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F124" t="s">
         <v>17</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" t="str">
-        <f>A124</f>
+        <f t="shared" si="4"/>
         <v>templateFileConfigKey</v>
       </c>
       <c r="I124">
@@ -11154,7 +11143,7 @@
       </c>
       <c r="G125" s="1"/>
       <c r="H125" t="str">
-        <f>A125</f>
+        <f t="shared" si="4"/>
         <v>toReplace</v>
       </c>
       <c r="I125">
@@ -11183,7 +11172,7 @@
       </c>
       <c r="G126" s="1"/>
       <c r="H126" t="str">
-        <f>A126</f>
+        <f t="shared" si="4"/>
         <v>unique</v>
       </c>
     </row>
@@ -11210,7 +11199,7 @@
         <v>145</v>
       </c>
       <c r="J127" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -11982,7 +11971,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>63</v>
@@ -12012,12 +12001,12 @@
         <v>14</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>316</v>
@@ -12029,14 +12018,14 @@
         <v>287</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>A2</f>
+        <f t="shared" ref="G2:G7" si="0">A2</f>
         <v>ALLHeader.tpl</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>17</v>
@@ -12051,7 +12040,7 @@
     </row>
     <row r="3" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>316</v>
@@ -12063,14 +12052,14 @@
         <v>287</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>A3</f>
+        <f t="shared" si="0"/>
         <v>ALLImport.tpl</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>17</v>
@@ -12081,7 +12070,7 @@
     </row>
     <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>316</v>
@@ -12093,14 +12082,14 @@
         <v>287</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>A4</f>
+        <f t="shared" si="0"/>
         <v>ALLInstanceVars.tpl</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>17</v>
@@ -12111,7 +12100,7 @@
     </row>
     <row r="5" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>316</v>
@@ -12123,14 +12112,14 @@
         <v>287</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>A5</f>
+        <f t="shared" si="0"/>
         <v>ALLSetter.tpl</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>17</v>
@@ -12141,7 +12130,7 @@
     </row>
     <row r="6" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>316</v>
@@ -12153,14 +12142,14 @@
         <v>287</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>ALLStaticNames.tpl</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>17</v>
@@ -12171,13 +12160,13 @@
     </row>
     <row r="7" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -12189,11 +12178,11 @@
         <v>318</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>AnObject.csv</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>17</v>
@@ -12205,15 +12194,15 @@
         <v>303</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -12225,10 +12214,10 @@
         <v>318</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>17</v>
@@ -12242,13 +12231,13 @@
     </row>
     <row r="9" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -12257,13 +12246,13 @@
         <v>287</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>17</v>
@@ -12274,7 +12263,7 @@
     </row>
     <row r="10" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>268</v>
@@ -12289,13 +12278,13 @@
         <v>287</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>17</v>
@@ -12307,7 +12296,7 @@
         <v>303</v>
       </c>
       <c r="N10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -12324,14 +12313,14 @@
         <v>287</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>A11</f>
         <v>BEANCreate.tpl</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>17</v>
@@ -12345,10 +12334,10 @@
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>266</v>
@@ -12360,13 +12349,13 @@
         <v>287</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>17</v>
@@ -12380,7 +12369,7 @@
     </row>
     <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>266</v>
@@ -12392,13 +12381,13 @@
         <v>287</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>17</v>
@@ -12412,7 +12401,7 @@
     </row>
     <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>316</v>
@@ -12424,13 +12413,13 @@
         <v>287</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>319</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>17</v>
@@ -12444,7 +12433,7 @@
     </row>
     <row r="15" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>316</v>
@@ -12456,14 +12445,14 @@
         <v>287</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>A15</f>
         <v>CONFIGConstructor.tpl</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>17</v>
@@ -12477,7 +12466,7 @@
     </row>
     <row r="16" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>316</v>
@@ -12489,14 +12478,14 @@
         <v>287</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G16" s="2" t="str">
         <f>A16</f>
         <v>CONFIGCreate.tpl</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>17</v>
@@ -12510,7 +12499,7 @@
     </row>
     <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>316</v>
@@ -12522,13 +12511,13 @@
         <v>287</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>17</v>
@@ -12537,16 +12526,16 @@
         <v>288</v>
       </c>
       <c r="L17" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>266</v>
@@ -12561,10 +12550,10 @@
         <v>328</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>17</v>
@@ -12674,7 +12663,7 @@
     </row>
     <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>268</v>
@@ -12689,14 +12678,14 @@
         <v>287</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G22" s="2" t="str">
         <f>A22</f>
         <v>content.xlsx</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>17</v>
@@ -12708,15 +12697,15 @@
         <v>306</v>
       </c>
       <c r="N22" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>310</v>
@@ -12725,13 +12714,13 @@
         <v>287</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>38</v>
@@ -12742,10 +12731,10 @@
     </row>
     <row r="24" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>310</v>
@@ -12754,13 +12743,13 @@
         <v>287</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>38</v>
@@ -12771,10 +12760,10 @@
     </row>
     <row r="25" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>310</v>
@@ -12783,13 +12772,13 @@
         <v>287</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>38</v>
@@ -12800,10 +12789,10 @@
     </row>
     <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>310</v>
@@ -12812,13 +12801,13 @@
         <v>287</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>38</v>
@@ -12829,10 +12818,10 @@
     </row>
     <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>310</v>
@@ -12841,13 +12830,13 @@
         <v>287</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>38</v>
@@ -12858,10 +12847,10 @@
     </row>
     <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>310</v>
@@ -12870,13 +12859,13 @@
         <v>287</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>38</v>
@@ -12887,10 +12876,10 @@
     </row>
     <row r="29" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>310</v>
@@ -12899,13 +12888,13 @@
         <v>287</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>38</v>
@@ -12916,10 +12905,10 @@
     </row>
     <row r="30" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>310</v>
@@ -12928,13 +12917,13 @@
         <v>287</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>38</v>
@@ -13011,15 +13000,15 @@
         <v>306</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>266</v>
@@ -13034,10 +13023,10 @@
         <v>330</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>17</v>
@@ -13051,7 +13040,7 @@
     </row>
     <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>266</v>
@@ -13066,10 +13055,10 @@
         <v>330</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>17</v>
@@ -13083,10 +13072,10 @@
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>266</v>
@@ -13098,13 +13087,13 @@
         <v>287</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>17</v>
@@ -13118,7 +13107,7 @@
     </row>
     <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>266</v>
@@ -13130,13 +13119,13 @@
         <v>287</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>17</v>
@@ -13150,7 +13139,7 @@
     </row>
     <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>268</v>
@@ -13165,13 +13154,13 @@
         <v>287</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>17</v>
@@ -13180,12 +13169,12 @@
         <v>288</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>268</v>
@@ -13200,13 +13189,13 @@
         <v>287</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>17</v>
@@ -13215,12 +13204,12 @@
         <v>288</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>268</v>
@@ -13235,13 +13224,13 @@
         <v>287</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>17</v>
@@ -13250,12 +13239,12 @@
         <v>288</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>268</v>
@@ -13270,13 +13259,13 @@
         <v>287</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>17</v>
@@ -13285,12 +13274,12 @@
         <v>288</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>268</v>
@@ -13305,13 +13294,13 @@
         <v>287</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>17</v>
@@ -13320,15 +13309,15 @@
         <v>288</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>266</v>
@@ -13343,10 +13332,10 @@
         <v>289</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>17</v>
@@ -13360,7 +13349,7 @@
     </row>
     <row r="43" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>266</v>
@@ -13375,10 +13364,10 @@
         <v>289</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>17</v>
@@ -13392,10 +13381,10 @@
     </row>
     <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>266</v>
@@ -13407,13 +13396,13 @@
         <v>287</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>17</v>
@@ -13427,7 +13416,7 @@
     </row>
     <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>266</v>
@@ -13439,13 +13428,13 @@
         <v>287</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>17</v>
@@ -13462,7 +13451,7 @@
         <v>293</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>310</v>
@@ -13494,7 +13483,7 @@
         <v>297</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>310</v>
@@ -13532,14 +13521,14 @@
         <v>287</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G48" s="2" t="str">
         <f>A48</f>
         <v>Hibernate.xml.tpl</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>17</v>
@@ -13562,7 +13551,7 @@
         <v>287</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G49" s="2" t="str">
         <f>A49</f>
@@ -13577,7 +13566,7 @@
     </row>
     <row r="50" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>316</v>
@@ -13589,7 +13578,7 @@
         <v>287</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G50" s="2" t="str">
         <f>A50</f>
@@ -13607,7 +13596,7 @@
     </row>
     <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>316</v>
@@ -13619,14 +13608,14 @@
         <v>287</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G51" s="2" t="str">
         <f>A51</f>
         <v>INTERFACEStaticNames.tpl</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>17</v>
@@ -13637,7 +13626,7 @@
     </row>
     <row r="52" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>316</v>
@@ -13649,14 +13638,14 @@
         <v>287</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G52" s="2" t="str">
         <f>A52</f>
         <v>JavaBuilder.tpl</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>17</v>
@@ -13665,12 +13654,12 @@
         <v>288</v>
       </c>
       <c r="L52" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>316</v>
@@ -13682,13 +13671,13 @@
         <v>287</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>17</v>
@@ -13697,13 +13686,13 @@
         <v>288</v>
       </c>
       <c r="L53" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>316</v>
@@ -13715,14 +13704,14 @@
         <v>287</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G54" s="2" t="str">
         <f>A54</f>
         <v>JsonBuilder.tpl</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>17</v>
@@ -13731,7 +13720,7 @@
         <v>288</v>
       </c>
       <c r="L54" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -13748,7 +13737,7 @@
         <v>287</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>332</v>
@@ -13771,10 +13760,10 @@
         <v>300</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>12</v>
@@ -13801,15 +13790,15 @@
         <v>295</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>310</v>
@@ -13821,10 +13810,10 @@
         <v>334</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>38</v>
@@ -13838,13 +13827,13 @@
     </row>
     <row r="58" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>310</v>
@@ -13853,13 +13842,13 @@
         <v>287</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="H58" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>38</v>
@@ -13871,7 +13860,7 @@
         <v>295</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -13888,13 +13877,13 @@
         <v>287</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>335</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>17</v>
@@ -13908,7 +13897,7 @@
     </row>
     <row r="60" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>266</v>
@@ -13920,13 +13909,13 @@
         <v>287</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>17</v>
@@ -13935,12 +13924,12 @@
         <v>288</v>
       </c>
       <c r="L60" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>266</v>
@@ -13952,13 +13941,13 @@
         <v>287</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>17</v>
@@ -13967,12 +13956,12 @@
         <v>288</v>
       </c>
       <c r="L61" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>266</v>
@@ -13984,13 +13973,13 @@
         <v>287</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>17</v>
@@ -13999,12 +13988,12 @@
         <v>288</v>
       </c>
       <c r="L62" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>266</v>
@@ -14016,13 +14005,13 @@
         <v>287</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>17</v>
@@ -14031,12 +14020,12 @@
         <v>288</v>
       </c>
       <c r="L63" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>266</v>
@@ -14048,13 +14037,13 @@
         <v>287</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>17</v>
@@ -14063,7 +14052,7 @@
         <v>288</v>
       </c>
       <c r="L64" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -14080,7 +14069,7 @@
         <v>287</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>302</v>
@@ -14100,7 +14089,7 @@
     </row>
     <row r="66" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>266</v>
@@ -14145,7 +14134,7 @@
         <v>287</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>305</v>
@@ -14165,7 +14154,7 @@
     </row>
     <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>266</v>
@@ -14177,14 +14166,14 @@
         <v>287</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G68" s="2" t="str">
         <f>A68</f>
         <v>table.tpl</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>17</v>
@@ -14193,7 +14182,7 @@
         <v>288</v>
       </c>
       <c r="L68" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -14201,10 +14190,10 @@
         <v>309</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C69" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>310</v>
@@ -14213,7 +14202,7 @@
         <v>287</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>309</v>
@@ -14231,7 +14220,7 @@
         <v>295</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -14239,7 +14228,7 @@
         <v>336</v>
       </c>
       <c r="C70" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>310</v>
@@ -14248,7 +14237,7 @@
         <v>287</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>336</v>
@@ -14268,7 +14257,7 @@
         <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>310</v>
@@ -14277,7 +14266,7 @@
         <v>287</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>312</v>
@@ -14294,13 +14283,13 @@
     </row>
     <row r="72" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>310</v>
@@ -14309,13 +14298,13 @@
         <v>287</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>38</v>
@@ -14327,7 +14316,7 @@
         <v>295</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -14335,7 +14324,7 @@
         <v>17</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>266</v>
@@ -14350,10 +14339,10 @@
         <v>307</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>17</v>
@@ -14379,7 +14368,7 @@
         <v>287</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>302</v>
@@ -14396,13 +14385,13 @@
     </row>
     <row r="75" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C75" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>310</v>
@@ -14411,13 +14400,13 @@
         <v>287</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>38</v>
@@ -14470,7 +14459,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -14488,7 +14477,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="119" x14ac:dyDescent="0.2">
@@ -14511,10 +14500,10 @@
         <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
@@ -14537,10 +14526,10 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -14560,10 +14549,10 @@
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -14583,10 +14572,10 @@
         <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -14629,7 +14618,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -14641,7 +14630,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>285</v>
@@ -14652,7 +14641,7 @@
     </row>
     <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>254</v>
@@ -14661,16 +14650,16 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J2" t="s">
         <v>303</v>
@@ -14693,18 +14682,18 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>254</v>
@@ -14713,16 +14702,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J4" t="s">
         <v>303</v>
@@ -14730,7 +14719,7 @@
     </row>
     <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>254</v>
@@ -14739,19 +14728,19 @@
         <v>310</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
